--- a/SharePoint/Docs/MS-OFFICIALFILE/MS-OFFICIALFILE_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-OFFICIALFILE/MS-OFFICIALFILE_RequirementSpecification.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InteropO15Dev\TestSuites\SharePoint\Platinum\SPSPTS_Dev\SharePoint Server Protocol Test Suites\Docs\MS-OFFICIALFILE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$374</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$378</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="858">
   <si>
     <t>Req ID</t>
   </si>
@@ -1234,18 +1229,12 @@
     <t>MS-OFFICIALFILE_R204</t>
   </si>
   <si>
-    <t>MS-OFFICIALFILE_R345</t>
-  </si>
-  <si>
     <t>MS-OFFICIALFILE_R206</t>
   </si>
   <si>
     <t>MS-OFFICIALFILE_R346</t>
   </si>
   <si>
-    <t>MS-OFFICIALFILE_R208</t>
-  </si>
-  <si>
     <t>MS-OFFICIALFILE_R209</t>
   </si>
   <si>
@@ -1397,21 +1386,6 @@
   </si>
   <si>
     <t>MS-OFFICIALFILE_R1044</t>
-  </si>
-  <si>
-    <t>MS-OFFICIALFILE_R1045</t>
-  </si>
-  <si>
-    <t>MS-OFFICIALFILE_R358</t>
-  </si>
-  <si>
-    <t>MS-OFFICIALFILE_R1046</t>
-  </si>
-  <si>
-    <t>MS-OFFICIALFILE_R1047</t>
-  </si>
-  <si>
-    <t>MS-OFFICIALFILE_R359</t>
   </si>
   <si>
     <t>MS-OFFICIALFILE_R1066</t>
@@ -1827,16 +1801,6 @@
   </si>
   <si>
     <t>[In ServerInfo] Namespace: http://schemas.microsoft.com/sharepoint/soap/recordsrepository/</t>
-  </si>
-  <si>
-    <t>[In ServerInfo] Server information. 
-&lt;xs:complexType name="ServerInfo" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
-  &lt;xs:sequence&gt;
-    &lt;xs:element name="ServerType" type="xs:string"/&gt;
-    &lt;xs:element name="ServerVersion" type="xs:string"/&gt;
-    &lt;xs:element name="RoutingWeb" type="xs:string"/&gt;
-  &lt;/xs:sequence&gt;
-&lt;/xs:complexType&gt;</t>
   </si>
   <si>
     <t>[In ServerInfo] ServerType: The type information for the protocol server.</t>
@@ -2054,19 +2018,10 @@
     <t>[In Message Processing Events and Sequencing Rules] [GetHoldsInfo] This method&lt;6&gt; is called to retrieve information about the legal holds in a repository.</t>
   </si>
   <si>
-    <t>[In Message Processing Events and Sequencing Rules] [GetRecordRouting] This method is deprecated and MUST NOT be called.</t>
-  </si>
-  <si>
-    <t>[In Message Processing Events and Sequencing Rules] [GetRecordRoutingCollection] This method is deprecated and MUST NOT be called.</t>
-  </si>
-  <si>
     <t>[In Message Processing Events and Sequencing Rules] [GetServerInfo] This method is called to retrieve information about the repository, such as its type, version, and whether the repository is configured for routing.</t>
   </si>
   <si>
     <t>[In Message Processing Events and Sequencing Rules] [SubmitFile] This method is called to submit a file and its associated properties to the repository.</t>
-  </si>
-  <si>
-    <t>[In GetFinalRoutingDestinationFolderUrl] This method&lt;7&gt; is called to determine the storage location for the submission based on the rules in the repository and a suggested save location chosen by a user.</t>
   </si>
   <si>
     <t>[In GetFinalRoutingDestinationFolderUrl] 
@@ -2119,15 +2074,6 @@
   </si>
   <si>
     <t>[In GetFinalRoutingDestinationFolderUrl] [The protocol client sends a GetFinalRoutingDestinationFolderUrlSoapIn request WSDL message, and the protocol server MUST respond with a GetFinalRoutingDestinationFolderUrlSoapOut response WSDL message, as follows:] [11. If parsing of file metadata is disabled on the repository, the protocol server MUST set the ResultType to "ParsingDisabledAtDestination".] Otherwise the protocol server MUST set the ResultType to "Success".</t>
-  </si>
-  <si>
-    <t>[In GetFinalRoutingDestinationFolderUrl] [The protocol client sends a GetFinalRoutingDestinationFolderUrlSoapIn request WSDL message, and the protocol server MUST respond with a GetFinalRoutingDestinationFolderUrlSoapOut response WSDL message, as follows:] 12. If a file with the same name does not already exist at the location determined by the rule then the protocol server MUST set CollisionSetting to "NoCollision" and return.</t>
-  </si>
-  <si>
-    <t>[In GetFinalRoutingDestinationFolderUrl] [The protocol client sends a GetFinalRoutingDestinationFolderUrlSoapIn request WSDL message, and the protocol server MUST respond with a GetFinalRoutingDestinationFolderUrlSoapOut response WSDL message, as follows:][12. If a file with the same name does not already exist at the location determined by the rule then the protocol server MUST set CollisionSetting to "NoCollision" and return.] If the repository is configured to overwrite existing files and versioning is enabled at the location determined by the rule, then the protocol server MUST set CollisionSetting to "UseSharePointVersioning" and return.</t>
-  </si>
-  <si>
-    <t>[In GetFinalRoutingDestinationFolderUrl] [The protocol client sends a GetFinalRoutingDestinationFolderUrlSoapIn request WSDL message, and the protocol server MUST respond with a GetFinalRoutingDestinationFolderUrlSoapOut response WSDL message, as follows:][12. If a file with the same name does not already exist at the location determined by the rule then the protocol server MUST set CollisionSetting to "NoCollision" and return. If the repository is configured to overwrite existing files and versioning is enabled at the location determined by the rule, then the protocol server MUST set CollisionSetting to "UseSharePointVersioning" and return. ] Otherwise the protocol server MUST set CollisionSetting to "AppendUniqueSuffixes".</t>
   </si>
   <si>
     <t>[In Messages] The following table summarizes the set of WSDL message definitions that are specific to this operation. Message: GetFinalRoutingDestinationFolderUrlSoapIn; Description: The request WSDL message for the GetFinalRoutingDestinationFolderUrl WSDL operation.</t>
@@ -2304,16 +2250,6 @@
     <t>[In DocumentRoutingCollisionSetting] [If] Generate a unique file name, [DocumentRoutingCollisionSetting] value is AppendUniqueSuffixes.</t>
   </si>
   <si>
-    <t>[In GetHoldsInfo] This method&lt;8&gt; is called to retrieve information about the legal holds in a repository.</t>
-  </si>
-  <si>
-    <t>[In GetHoldsInfo] [This method&lt;8&gt; is called to retrieve information about the legal holds in a repository.]
-&lt;wsdl:operation name="GetHoldsInfo" xmlns:wsdl="http://schemas.xmlsoap.org/wsdl/"&gt;
-  &lt;wsdl:input message="tns:GetHoldsInfoSoapIn"/&gt;
-  &lt;wsdl:output message="tns:GetHoldsInfoSoapOut"/&gt;
-&lt;/wsdl:operation&gt;</t>
-  </si>
-  <si>
     <t>[In GetHoldsInfo] The protocol client sends a GetHoldsInfoSoapIn request WSDL message and the protocol server MUST respond with a GetHoldsInfoSoapOut response WSDL message as follows.</t>
   </si>
   <si>
@@ -2447,16 +2383,6 @@
 &lt;/xs:simpleType&gt;</t>
   </si>
   <si>
-    <t>[In GetRecordRouting] This method is deprecated and MUST NOT be called.</t>
-  </si>
-  <si>
-    <t>[In GetRecordRouting] [This method is deprecated and MUST NOT be called. ]
-&lt;wsdl:operation name="GetRecordRouting" xmlns:wsdl="http://schemas.xmlsoap.org/wsdl/"&gt;
-  &lt;wsdl:input message="tns:GetRecordRoutingSoapIn"/&gt;
-  &lt;wsdl:output message="tns:GetRecordRoutingSoapOut"/&gt;
-&lt;/wsdl:operation&gt;</t>
-  </si>
-  <si>
     <t>[In GetRecprdRouting] The protocol client sends a GetRecordRoutingSoapIn request WSDL message and the protocol server MUST respond with a GetRecordRoutingSoapOut response WSDL message. [as follows: The protocol server returns an implementation-specific value in the GetRecordRoutingResult element that MUST be ignored.]</t>
   </si>
   <si>
@@ -2517,16 +2443,6 @@
     <t>[In GetRecordRoutingResponse] GetRecordRoutingResult:  Implementation-specific result data.</t>
   </si>
   <si>
-    <t>[In GetRecordRoutingCollection] This method is deprecated and MUST NOT be called.</t>
-  </si>
-  <si>
-    <t>[In GetRecordRoutingCollection] [This method is deprecated and MUST NOT be called.]
-&lt;wsdl:operation name="GetRecordRoutingCollection" xmlns:wsdl="http://schemas.xmlsoap.org/wsdl/"&gt;
-  &lt;wsdl:input message="tns:GetRecordRoutingCollectionSoapIn"/&gt;
-  &lt;wsdl:output message="tns:GetRecordRoutingCollectionSoapOut"/&gt;
-&lt;/wsdl:operation&gt;</t>
-  </si>
-  <si>
     <t>[In GetRecordRoutingCollection] The protocol client sends a GetRecordRoutingCollectionSoapIn request WSDL message, and the protocol server MUST respond with a GetRecordRoutingCollectionSoapOut response WSDL message.</t>
   </si>
   <si>
@@ -2583,17 +2499,7 @@
     <t>[In GetServerInfo] This method is called to retrieve information about the repository, such as its type, version, and whether the repository is configured for routing.</t>
   </si>
   <si>
-    <t>[In GetServerInfo] [This method is called to retrieve information about the repository, such as its type, version, and whether the repository is configured for routing.]
-&lt;wsdl:operation name="GetServerInfo" xmlns:wsdl="http://schemas.xmlsoap.org/wsdl/"&gt;
-  &lt;wsdl:input message="tns:GetServerInfoSoapIn"/&gt;
-  &lt;wsdl:output message="tns:GetServerInfoSoapOut"/&gt;
-&lt;/wsdl:operation&gt;</t>
-  </si>
-  <si>
     <t>[In GetServerInfo] The protocol client sends a GetServerInfoSoapIn request WSDL message, and the protocol server MUST respond with a GetServerInfoSoapOut response WSDL message.</t>
-  </si>
-  <si>
-    <t>[In GetServerInfo] [The protocol client sends a GetServerInfoSoapIn request WSDL message, and the protocol server MUST respond with a GetServerInfoSoapOut response WSDL message, as follows:] The protocol server MUST return implementation-specific &lt;9&gt; information for the protocol server in the ServerInfo element.</t>
   </si>
   <si>
     <t>[In Messages] The following table summarizes the set of WSDL message definitions that are specific to this operation. Message: GetServerInfoSoapIn; Description: The request WSDL message for the GetServerInfo WSDL operation.</t>
@@ -2646,13 +2552,6 @@
     <t>[In SubmitFile] This method is called to submit a file and its associated properties to the repository.</t>
   </si>
   <si>
-    <t>[In SubmitFile] [This method is called to submit a file and its associated properties to the repository.]
-&lt;wsdl:operation name="SubmitFile" xmlns:wsdl="http://schemas.xmlsoap.org/wsdl/"&gt;
-  &lt;wsdl:input message="tns:SubmitFileSoapIn"/&gt;
-  &lt;wsdl:output message="tns:SubmitFileSoapOut"/&gt;
-&lt;/wsdl:operation&gt;</t>
-  </si>
-  <si>
     <t>[In SubmitFile] The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message.</t>
   </si>
   <si>
@@ -2662,50 +2561,22 @@
     <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] If required parameters were not specified, the protocol server MUST set the ResultCode to InvalidArgument and return.</t>
   </si>
   <si>
-    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] If the protocol server determines that the file cannot be submitted to the repository using an implementation-specific&lt;10&gt; algorithm, the protocol server MUST set the ResultCode element to FileRejected and return.</t>
-  </si>
-  <si>
     <t>[In SubmitFile][The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] The protocol server processes the rules in an implementation-specific manner based on the submission’s properties and recordRouting to determine the storage location for the submission.</t>
   </si>
   <si>
-    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] 
-If no applicable rule is found: 3. The protocol server SHOULD&lt;11&gt; set the CustomProcessingResult.HoldsProcessingResult element to InDropOffZone.</t>
-  </si>
-  <si>
-    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] 
-If no applicable rule is found: 4. The protocol server uses the temporary storage location.</t>
-  </si>
-  <si>
     <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] If the protocol server determines that the storage location determined by the rules has required properties that are not present in the properties element: 1. If the protocol server determines that the name of the user specified in the userName element is invalid using an implementation-specific validation algorithm, then the protocol server MUST set the ResultCode element to InvalidUser and return.</t>
   </si>
   <si>
-    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows: [If the protocol server determines that the storage location determined by the rules has required properties that are not present in the properties element: 1. If the protocol server determines that the name of the user specified in the userName element is invalid using an implementation-specific validation algorithm, then the protocol server MUST set the ResultCode element to InvalidUser and return. 2. Otherwise, the protocol server MUST set the ResultCode element to MoreInformation and the ResultUrl element to an implementation-specific URL to enter more information about the submission and SHOULD&lt;12&gt; set the CustomProcessingResult.HoldsProcessingResult element to InDropOffZone.] The protocol server uses the temporary storage location.</t>
-  </si>
-  <si>
     <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] The protocol server stores the file in the storage location.</t>
   </si>
   <si>
     <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] If implementation-specific errors occur while determining the storage location for the submission or while storing the file, the protocol server MUST set the ResultCode element to UnknownError and return.</t>
   </si>
   <si>
-    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:]
-[If implementation-specific errors occur while determining the storage location for the submission or while storing the file, the protocol server MUST set the ResultCode element to UnknownError and return.] Otherwise, , the protocol server MUST set the ResultCode element to Success [and SHOULD&lt;13&gt; set the ResultUrl element to a non-empty HTML encoded URL to retrieve the stored file.]</t>
-  </si>
-  <si>
-    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:]
-[If implementation-specific errors occur while determining the storage location for the submission or while storing the file, the protocol server MUST set the ResultCode element to UnknownError and return.] Otherwise, , the protocol server [MUST set the ResultCode element to Success and] SHOULD&lt;13&gt; set the ResultUrl element to a non-empty HTML encoded URL to retrieve the stored file.</t>
-  </si>
-  <si>
     <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] If the file has been stored in the temporary storage location, the server returns.</t>
   </si>
   <si>
     <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] If the properties element contains all of the following properties [_dlc_hold_url, _dlc_hold_comments, _dlc_hold_id, _dlc_hold_searchqquery, _dlc_hold_searchcontexturl], then the protocol server sets the implementation-specific metadata that indicates the file is placed on the appropriate legal hold.</t>
-  </si>
-  <si>
-    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows: If the properties element contains all of the following properties [_dlc_hold_url, _dlc_hold_comments, _dlc_hold_id, _dlc_hold_searchqquery, _dlc_hold_searchcontexturl], , then the protocol server sets the implementation-specific metadata that indicates the file is placed on the appropriate legal hold.] The protocol server SHOULD&lt;14&gt; set the CustomProcessingResult.HoldsProcessingResult element to Success.</t>
-  </si>
-  <si>
-    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] If, however, at least one but not all of the properties [_dlc_hold_url, _dlc_hold_comments, _dlc_hold_id, _dlc_hold_searchqquery, _dlc_hold_searchcontexturl] mentioned previously are contained in the properties element, then the protocol server SHOULD&lt;15&gt; set the CustomProcessingResult.HoldsProcessingResult element to Failure.</t>
   </si>
   <si>
     <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] If none of the properties [_dlc_hold_url, _dlc_hold_comments, _dlc_hold_id, _dlc_hold_searchqquery, _dlc_hold_searchcontexturl] mentioned previously are contained in the properties element then the protocol server MUST NOT set CustomProcessingResult.HoldsProcessingResult.</t>
@@ -2774,9 +2645,6 @@
     <t>[In SubmitFile] userName: The name of the user submitting the file, which MUST be non-empty and MUST be a login name.</t>
   </si>
   <si>
-    <t>[In SubmitFile] [userName: The name of the user submitting the file, which MUST be non-empty and MUST be a login name. ] The value SHAREPOINT\system (case-insensitive) is reserved and SHOULD NOT&lt;16&gt; be used.</t>
-  </si>
-  <si>
     <t>[In SubmitFileResponse] The SubmitFileResponse element specifies the result data for the SubmitFile WSDL operation.
 &lt;xs:element name="SubmitFileResponse" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
   &lt;xs:complexType&gt;
@@ -2790,84 +2658,6 @@
     <t>[In SubmitFileResponse] SubmitFileResult: Data details about the result, which is a string of an encoded XML fragment that MUST conform to the XML schema of the SubmitFileResult complex type.</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms SHOULD or SHOULD NOT implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Unless otherwise specified, the term MAY implies that the product does not follow the prescription.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does additionally support SOAP over HTTPS for securing communication with protocol clients. (Microsoft Office SharePoint Server 2007 and above products follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] &lt;1&gt; Section 2.2.4.3:  SharePoint Server 2010 and SharePoint Server 2013 use the URL of the site where the search query was performed.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] &lt;2&gt; Section 2.2.4.3:  Office SharePoint Server 2007 does not use this element.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] [&lt;2&gt; Section 2.2.4.2:] SharePoint Server 2010 and SharePoint Server 2013 do not specify this element if the property is not a field of the file being submitted.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] &lt;3&gt; Section 2.2.4.3:  Office SharePoint Server 2007 does not use this format.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not include RoutingWeb element. &lt;4&gt; Section 2.2.4.4:  Office SharePoint Server 2007 does not use this element [RoutingWeb].</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does include RoutingWeb element. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not provide this method. &lt;5&gt; Section 3.1.4:  Office SharePoint Server 2007 does not provide this method [GetFinalRoutingDestinationFolderUrl].</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does provide this method [GetFinalRoutingDestinationFolderUrl]. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not provide this method. &lt;6&gt; Section 3.1.4:  Office SharePoint Server 2007 does not provide this method [GetHoldsInfo].</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does provide this method [GetHoldsInfo]. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not provide this method. &lt;7&gt; Section 3.1.4.1:  Office SharePoint Server 2007 does not provide this method [GetFinalRoutingDestinationFolderUrl].</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not provide this method. &lt;8&gt; Section 3.1.4.2:  Office SharePoint Server 2007 does not provide this method [GetHoldsInfo].</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does return implementation-specific information in the ServerInfo element. &lt;9&gt; Section 3.1.4.5:  Office SharePoint Server 2007 returns "Microsoft.Office.Server" as the ServerType and "Microsoft.Office.OfficialFileSoap, Version=12.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c" as the ServerVersion.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does return implementation-specific information in the ServerInfo element. [&lt;9&gt; Section 3.1.4.5:] SharePoint Server 2010 returns "Microsoft.Office.Server v4" as the ServerType and " Microsoft.Office.OfficialFileSoap, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c" as the ServerVersion.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does return implementation-specific information in the ServerInfo element. [&lt;9&gt; Section 3.1.4.5:] SharePoint Server 2013 returns "Microsoft.Office.Server v4" as the ServerType and " Microsoft.Office.OfficialFileSoap, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c" as the ServerVersion.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] &lt;10&gt; Section 3.1.4.6: Third-party modules can be added to Office SharePoint Server 2007, SharePoint Server 2010, and SharePoint Server 2013 which can cause the submission to be rejected.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does include the CustomProcessingResult element and set the CustomProcessingResult.HoldsProcessingResult element to InDropOffZone [if the properties [_dlc_hold_url, _dlc_hold_comments, _dlc_hold_id, _dlc_hold_searchqquery, _dlc_hold_searchcontexturl] listed in step 12 are present]. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not set the CustomProcessingResult element if the properties [_dlc_hold_url, _dlc_hold_comments, _dlc_hold_id, _dlc_hold_searchqquery, _dlc_hold_searchcontexturl] listed in step 12 are not present. [&lt;11&gt; Section 3.1.4.6:] The CustomProcessingResult element is not set if the properties [_dlc_hold_url, _dlc_hold_comments, _dlc_hold_id, _dlc_hold_searchqquery, _dlc_hold_searchcontexturl] listed in step 12 are not present. ](Office SharePoint Server 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does include the CustomProcessingResult element and set the CustomProcessingResult.HoldsProcessingResult element to InDropOffZone. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does set the ResultUrl element to a non-empty HTML encoded URL in the AdditionalInformation element to retrieve the stored file. &lt;13&gt; Section 3.1.4.6:  Office SharePoint Server 2007 returns the URL in the AdditionalInformation element.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does set the ResultCode element to Success and set the ResultUrl element to a non-empty HTML encoded URL to retrieve the stored file if implementation-specific errors doesn't occur while determining the storage location for the submission or while storing the file. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does include CustomProcessingResult element and set the CustomProcessingResult.HoldsProcessingResult element to Failure. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] &lt;16&gt; Section 3.1.4.6.2.1: The behavior is undefined if the userName element is SHAREPOINT\system for Office SharePoint Server 2007, SharePoint Server 2010, and SharePoint Server 2013.</t>
-  </si>
-  <si>
     <t>MS-OFFICIALFILE_R72:p</t>
   </si>
   <si>
@@ -2892,12 +2682,6 @@
     <t>MS-OFFICIALFILE_R187:i</t>
   </si>
   <si>
-    <t>MS-OFFICIALFILE_R345:i,MS-OFFICIALFILE_R3:i</t>
-  </si>
-  <si>
-    <t>MS-OFFICIALFILE_R208:i,MS-OFFICIALFILE_R3:i</t>
-  </si>
-  <si>
     <t>MS-OFFICIALFILE_R1065:i,MS-OFFICIALFILE_R3:i</t>
   </si>
   <si>
@@ -2919,12 +2703,6 @@
     <t>Verified by derived requirements: MS-OFFICIALFILE_R268, MS-OFFICIALFILE_R269, MS-OFFICIALFILE_R357.</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-OFFICIALFILE_R1045, MS-OFFICIALFILE_R1046.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OFFICIALFILE_R1047.</t>
-  </si>
-  <si>
     <t>Verified by derived requirements: MS-OFFICIALFILE_R1049, MS-OFFICIALFILE_R215001.</t>
   </si>
   <si>
@@ -2943,75 +2721,321 @@
     <t>Verified by derived requirements: MS-OFFICIALFILE_R1066, MS-OFFICIALFILE_R1067.</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior][The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:  If the properties element contains all of the following properties _dlc_hold_url, _dlc_hold_comments, _dlc_hold_id, _dlc_hold_searchqquery, _dlc_hold_searchcontexturl] Implementation does not include the CustomProcessingResult element. &lt;14&gt; Section 3.1.4.6:  Office SharePoint Server 2007 does not include the CustomProcessingResult element.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior][The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:  If the properties element contains all of the following properties _dlc_hold_url, _dlc_hold_comments, _dlc_hold_id, _dlc_hold_searchqquery, _dlc_hold_searchcontexturl] Implementation does include CustomProcessingResult element and set the CustomProcessingResult.HoldsProcessingResult element to Success. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior][The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows: If, however, at least one but not all of the properties _dlc_hold_url, _dlc_hold_comments, _dlc_hold_id, _dlc_hold_searchqquery, _dlc_hold_searchcontexturl are contained in the properties element] Implementation does not include the CustomProcessingResult element. &lt;15&gt; Section 3.1.4.6:  Office SharePoint Server 2007 does not include the CustomProcessingResult element.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior][The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows: If no applicable rule is found:] Implementation does not include the CustomProcessingResult element. &lt;11&gt; Section 3.1.4.6:  Office SharePoint Server 2007 does not include the CustomProcessingResult element.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior][If the protocol server determines that the storage location determined by the rules has required properties that are not present in the properties element] Implementation does not include the CustomProcessingResult element. &lt;12&gt; Section 3.1.4.6:  Office SharePoint Server 2007 does not include the CustomProcessingResult element.</t>
+    <t>MS-OFFICIALFILE_R2081</t>
+  </si>
+  <si>
+    <t>MS-OFFICIALFILE_R2082</t>
+  </si>
+  <si>
+    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] If the protocol server determines that the repository is not configured for routing, the protocol server MUST set the ResultCode element to "InvalidRouterConfiguration" and return.  (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OFFICIALFILE_R353.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OFFICIALFILE_R354.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OFFICIALFILE_R362.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OFFICIALFILE_R364.</t>
+  </si>
+  <si>
+    <t>[In Abstract Data Model] [In protocol server] There MUST be one or more rules, and exactly one rule MUST be configured as the default.</t>
+  </si>
+  <si>
+    <t>Open Specification Date:</t>
+  </si>
+  <si>
+    <t>[In ServerInfo] Server information. 
+&lt;xs:complexType name="ServerInfo" xmlns:xs="http://www.w3.org/2001/XMLSchema"&gt;
+  &lt;xs:sequence&gt;
+    &lt;xs:element name="ServerType" type="xs:string"/&gt;
+    &lt;xs:element name="ServerVersion" type="xs:string"/&gt;
+    &lt;xs:element minOccurs="0" name="RoutingWeb" type="xs:string"/&gt;
+  &lt;/xs:sequence&gt;
+&lt;/xs:complexType&gt;</t>
+  </si>
+  <si>
+    <t>[In Message Processing Events and Sequencing Rules] [GetRecordRouting] This method &lt;7&gt; is deprecated and MUST NOT be called.</t>
+  </si>
+  <si>
+    <t>[In Message Processing Events and Sequencing Rules] [GetRecordRoutingCollection] This method &lt;8&gt; is deprecated and MUST NOT be called.</t>
+  </si>
+  <si>
+    <t>[In GetFinalRoutingDestinationFolderUrl] This method&lt;9&gt; is called to determine the storage location for the submission based on the rules in the repository and a suggested save location chosen by a user.</t>
+  </si>
+  <si>
+    <t>[In GetFinalRoutingDestinationFolderUrl] The following is the WSDL port type specification of the GetFinalRoutingDestinationFolderUrl WSDL operation.</t>
+  </si>
+  <si>
+    <t>MS-OFFICIALFILE_R61001001</t>
+  </si>
+  <si>
+    <t>[In GetFinalRoutingDestinationFolderUrl] [The protocol client sends a GetFinalRoutingDestinationFolderUrlSoapIn request WSDL message, and the protocol server MUST respond with a GetFinalRoutingDestinationFolderUrlSoapOut response WSDL message, as follows:] 12. If the ResultType is set to "Success", "SuccessToDropOffLibrary" or "PermissionDeniedAtDestination": When a file with the same name does not already exist at the location determined by the rule then the protocol server MUST set CollisionSetting to "NoCollision" and return.</t>
+  </si>
+  <si>
+    <t>[In GetFinalRoutingDestinationFolderUrl] [The protocol client sends a GetFinalRoutingDestinationFolderUrlSoapIn request WSDL message, and the protocol server MUST respond with a GetFinalRoutingDestinationFolderUrlSoapOut response WSDL message, as follows:][12. If the ResultType is set to "Success", "SuccessToDropOffLibrary" or "PermissionDeniedAtDestination": When  a file with the same name does not already exist at the location determined by the rule then the protocol server MUST set CollisionSetting to "NoCollision" and return;]  when a file with the same name does exist, if the repository is configured to overwrite existing files and versioning is enabled at the location determined by the rule, then the protocol server MUST set CollisionSetting to "UseSharePointVersioning" and return.</t>
+  </si>
+  <si>
+    <t>[In GetFinalRoutingDestinationFolderUrl] [The protocol client sends a GetFinalRoutingDestinationFolderUrlSoapIn request WSDL message, and the protocol server MUST respond with a GetFinalRoutingDestinationFolderUrlSoapOut response WSDL message, as follows:][12. If the ResultType is set to "Success", "SuccessToDropOffLibrary" or "PermissionDeniedAtDestination": When a file with the same name does not already exist at the location determined by the rule, then the protocol server MUST set CollisionSetting to "NoCollision" and return; when a file with the same name does exist, if the repository is configured to overwrite existing files and versioning is enabled at the location determined by the rule, then the protocol server MUST set CollisionSetting to "UseSharePointVersioning" and return, ] otherwise the protocol server MUST set CollisionSetting to "AppendUniqueSuffixes".</t>
+  </si>
+  <si>
+    <t>[In GetHoldsInfo] This method&lt;10&gt; is called to retrieve information about the legal holds in a repository.</t>
+  </si>
+  <si>
+    <t>[In GetHoldsInfo] [The following is the WSDL port type specification of the GetHoldsInfo WSDL operation.]
+&lt;wsdl:operation name="GetHoldsInfo" xmlns:wsdl="http://schemas.xmlsoap.org/wsdl/"&gt;
+  &lt;wsdl:input message="tns:GetHoldsInfoSoapIn"/&gt;
+  &lt;wsdl:output message="tns:GetHoldsInfoSoapOut"/&gt;
+&lt;/wsdl:operation&gt;</t>
+  </si>
+  <si>
+    <t>[In GetRecordRouting] This method &lt;11&gt; is deprecated and MUST NOT be called.</t>
+  </si>
+  <si>
+    <t>[In GetRecordRouting] [The following is the WSDL port type specification of the GetRecordRouting WSDL operation.]
+&lt;wsdl:operation name="GetRecordRouting" xmlns:wsdl="http://schemas.xmlsoap.org/wsdl/"&gt;
+  &lt;wsdl:input message="tns:GetRecordRoutingSoapIn"/&gt;
+  &lt;wsdl:output message="tns:GetRecordRoutingSoapOut"/&gt;
+&lt;/wsdl:operation&gt;</t>
+  </si>
+  <si>
+    <t>[In GetRecordRoutingCollection] This method &lt;12&gt; is deprecated and MUST NOT be called.</t>
+  </si>
+  <si>
+    <t>[In GetRecordRoutingCollection] [The following is the WSDL port type specification of the GetRecordRoutingCollection WSDL operation.]
+&lt;wsdl:operation name="GetRecordRoutingCollection" xmlns:wsdl="http://schemas.xmlsoap.org/wsdl/"&gt;
+  &lt;wsdl:input message="tns:GetRecordRoutingCollectionSoapIn"/&gt;
+  &lt;wsdl:output message="tns:GetRecordRoutingCollectionSoapOut"/&gt;
+&lt;/wsdl:operation&gt;</t>
+  </si>
+  <si>
+    <t>[In GetServerInfo] [The following is the WSDL port type specification of the GetServerInfo WSDL operation.]
+&lt;wsdl:operation name="GetServerInfo" xmlns:wsdl="http://schemas.xmlsoap.org/wsdl/"&gt;
+  &lt;wsdl:input message="tns:GetServerInfoSoapIn"/&gt;
+  &lt;wsdl:output message="tns:GetServerInfoSoapOut"/&gt;
+&lt;/wsdl:operation&gt;</t>
+  </si>
+  <si>
+    <t>[In GetServerInfo] [The protocol client sends a GetServerInfoSoapIn request WSDL message, and the protocol server MUST respond with a GetServerInfoSoapOut response WSDL message, as follows:] The protocol server MUST return implementation-specific &lt;13&gt; information for the protocol server in the ServerInfo element.</t>
+  </si>
+  <si>
+    <t>[In SubmitFile] [The following is the WSDL port type specification of the SubmitFile WSDL operation.]
+&lt;wsdl:operation name="SubmitFile" xmlns:wsdl="http://schemas.xmlsoap.org/wsdl/"&gt;
+  &lt;wsdl:input message="tns:SubmitFileSoapIn"/&gt;
+  &lt;wsdl:output message="tns:SubmitFileSoapOut"/&gt;
+&lt;/wsdl:operation&gt;</t>
+  </si>
+  <si>
+    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] If the protocol server determines that the file cannot be submitted to the repository using an implementation-specific&lt;14&gt; algorithm, the protocol server MUST set the ResultCode element to FileRejected and return.</t>
   </si>
   <si>
     <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:]
-If no applicable rule is found: 1. The protocol server sets the ResultCode element to MoreInformation. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
+If no applicable rule is found: &lt;15&gt; 1. The protocol server sets the ResultCode element to MoreInformation. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
   </si>
   <si>
     <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] 
-If no applicable rule is found: 2. The protocol server MUST set the ResultUrl element to an implementation-specific URL to enter more information about the submission. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>MS-OFFICIALFILE_R2081</t>
-  </si>
-  <si>
-    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] [If the protocol server determines that the storage location determined by the rules has required properties that are not present in the properties element: 1. If the protocol server determines that the name of the user specified in the userName element is invalid using an implementation-specific validation algorithm, then the protocol server MUST set the ResultCode element to InvalidUser and return.] 2. Otherwise, the protocol server MUST set the ResultCode element to MoreInformation [and the ResultUrl element to an implementation-specific URL to enter more information about the submission and SHOULD&lt;12&gt; set the CustomProcessingResult.HoldsProcessingResult element to InDropOffZone.](Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>MS-OFFICIALFILE_R2082</t>
-  </si>
-  <si>
-    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] [If the protocol server determines that the storage location determined by the rules has required properties that are not present in the properties element: 1. If the protocol server determines that the name of the user specified in the userName element is invalid using an implementation-specific validation algorithm, then the protocol server MUST set the ResultCode element to InvalidUser and return.] 2. Otherwise, the protocol server MUST set[the ResultCode element to MoreInformation and] the ResultUrl element to an implementation-specific URL to enter more information about the submission [and SHOULD&lt;12&gt; set the CustomProcessingResult.HoldsProcessingResult element to InDropOffZone.](Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] [If the protocol server determines that the storage location determined by the rules has required properties that are not present in the properties element: 1. If the protocol server determines that the name of the user specified in the userName element is invalid using an implementation-specific validation algorithm, then the protocol server MUST set the ResultCode element to InvalidUser and return.] 2. Otherwise, the protocol server [MUST set the ResultCode element to MoreInformation and the ResultUrl element to an implementation-specific URL to enter more information about the submission and] SHOULD&lt;12&gt; set the CustomProcessingResult.HoldsProcessingResult element to InDropOffZone.</t>
-  </si>
-  <si>
-    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] If the protocol server determines that the repository is not configured for routing, the protocol server MUST set the ResultCode element to "InvalidRouterConfiguration" and return.  (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In GetRecordRouting] This method [GetRecordRouting] is not deprecated and can be called. (Office SharePoint Server 2007 follows this behavior.)</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OFFICIALFILE_R353.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OFFICIALFILE_R354.</t>
-  </si>
-  <si>
-    <t>[In GetRecordRoutingCollection] This method GetRecordRoutingCollection] is not deprecated and can be called. (Office SharePoint Server 2007 follows this behavior.)</t>
-  </si>
-  <si>
-    <t>MS-OFFICIALFILE_R57:i, MS-OFFICIALFILE_R3:i</t>
-  </si>
-  <si>
-    <t>MS-OFFICIALFILE_R58:i, MS-OFFICIALFILE_R3:i</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OFFICIALFILE_R362.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OFFICIALFILE_R364.</t>
-  </si>
-  <si>
-    <t>[In Abstract Data Model] [In protocol server] There MUST be one or more rules, and exactly one rule MUST be configured as the default.</t>
-  </si>
-  <si>
-    <t>Open Specification Date:</t>
+If no applicable rule is found: &lt;15&gt; 2. The protocol server MUST set the ResultUrl element to an implementation-specific URL to enter more information about the submission. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] 
+If no applicable rule is found&lt;15&gt;: 3. The protocol server uses the temporary storage location.</t>
+  </si>
+  <si>
+    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows: [If the protocol server determines that the storage location determined by the rules has required properties that are not present in the properties element: 1. If the protocol server determines that the name of the user specified in the userName element is invalid using an implementation-specific validation algorithm, then the protocol server MUST set the ResultCode element to InvalidUser and return. 2. Otherwise, the protocol server MUST set the ResultCode element to MoreInformation and the ResultUrl element to an implementation-specific URL to enter more information about the submission.] The protocol server uses the temporary storage location.</t>
+  </si>
+  <si>
+    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:]
+[If implementation-specific errors occur while determining the storage location for the submission or while storing the file, the protocol server MUST set the ResultCode element to UnknownError and return.] Otherwise, , the protocol server MUST set the ResultCode element to Success [and SHOULD&lt;16&gt; set the ResultUrl element to a non-empty HTML encoded URL to retrieve the stored file.]</t>
+  </si>
+  <si>
+    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:]
+[If implementation-specific errors occur while determining the storage location for the submission or while storing the file, the protocol server MUST set the ResultCode element to UnknownError and return.] Otherwise, , the protocol server [MUST set the ResultCode element to Success and] SHOULD&lt;16&gt; set the ResultUrl element to a non-empty HTML encoded URL to retrieve the stored file.</t>
+  </si>
+  <si>
+    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows: If the properties element contains all of the following properties [_dlc_hold_url, _dlc_hold_comments, _dlc_hold_id, _dlc_hold_searchqquery, _dlc_hold_searchcontexturl], , then the protocol server sets the implementation-specific metadata that indicates the file is placed on the legal hold.] The protocol server SHOULD&lt;17&gt; set the CustomProcessingResult.HoldsProcessingResult element to Success.</t>
+  </si>
+  <si>
+    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] If, however, at least one but not all of the properties [_dlc_hold_url, _dlc_hold_comments, _dlc_hold_id, _dlc_hold_searchqquery, _dlc_hold_searchcontexturl] mentioned previously are contained in the properties element, then the protocol server SHOULD NOT set the CustomProcessingResult.HoldsProcessingResult.</t>
+  </si>
+  <si>
+    <t>[In SubmitFile] [userName: The name of the user submitting the file, which MUST be non-empty and MUST be a login name. ] The value SHAREPOINT\system (case-insensitive) is reserved and SHOULD NOT&lt;18&gt; be used.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms SHOULD or SHOULD NOT implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Unless otherwise specified, the term MAY implies that the product does not follow the prescription.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does additionally support SOAP over HTTPS for securing communication with protocol clients. (Microsoft Office SharePoint Server 2007 and above products follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;1&gt; Section 2.2.4.3:  SharePoint Server 2010 and SharePoint Server 2013 use the URL of the site where the search query was performed.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;2&gt; Section 2.2.4.3:  Office SharePoint Server 2007 does not use this element.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;2&gt; Section 2.2.4.2:] SharePoint Server 2010 and SharePoint Server 2013 do not specify this element if the property is not a field of the file being submitted.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;3&gt; Section 2.2.4.3:  Office SharePoint Server 2007 does not use this format.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not include RoutingWeb element. &lt;4&gt; Section 2.2.4.4:  Office SharePoint Server 2007 does not use this element [RoutingWeb].</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does include RoutingWeb element. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not provide this method. &lt;5&gt; Section 3.1.4:  Office SharePoint Server 2007 does not provide this method [GetFinalRoutingDestinationFolderUrl].</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does provide this method [GetFinalRoutingDestinationFolderUrl]. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not provide this method. &lt;6&gt; Section 3.1.4:  Office SharePoint Server 2007 does not provide this method [GetHoldsInfo].</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does provide this method [GetHoldsInfo]. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] This method [GetRecordRouting] is not deprecated and can be called. (&lt;7&gt; Section 3.1.4:  Office SharePoint Server 2007 supports this method.)</t>
+  </si>
+  <si>
+    <t>MS-OFFICIALFILE_R57:i</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not support thie method. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does set the ResultCode element to Success and set the ResultUrl element to a non-empty HTML encoded URL to retrieve the stored file if implementation-specific errors doesn't occur while determining the storage location for the submission or while storing the file. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior][The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:  If the properties element contains all of the following properties _dlc_hold_url, _dlc_hold_comments, _dlc_hold_id, _dlc_hold_searchqquery, _dlc_hold_searchcontexturl] Implementation does include CustomProcessingResult element and set the CustomProcessingResult.HoldsProcessingResult element to Success. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-OFFICIALFILE_R57001</t>
+  </si>
+  <si>
+    <t>MS-OFFICIALFILE_R58:i</t>
+  </si>
+  <si>
+    <t>MS-OFFICIALFILE_R58001</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not provide this method. &lt;9&gt; Section 3.1.4.1:  Office SharePoint Server 2007 does not provide this method [GetFinalRoutingDestinationFolderUrl].</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not provide this method. &lt;10&gt; Section 3.1.4.2:  Office SharePoint Server 2007 does not provide this method [GetHoldsInfo].</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OFFICIALFILE_R1601001.</t>
+  </si>
+  <si>
+    <t>MS-OFFICIALFILE_R1601001</t>
+  </si>
+  <si>
+    <t>MS-OFFICIALFILE_R1601002</t>
+  </si>
+  <si>
+    <t>MS-OFFICIALFILE_R1601:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OFFICIALFILE_R356.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not support this method [GetRecordRoutingCollection]. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not support this method [GetRecordRouting]. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] This method [GetRecordRoutingCollection] is not deprecated and can be called. (&lt;8&gt; Section 3.1.4:  Office SharePoint Server 2007 supports this method.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] This method [GetRecordRoutingCollection] is not deprecated and can be called.  &lt;12&gt; Section 3.1.4.4:  Office SharePoint Server 2007 supports this method.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] This method [GetRecordRouting] is not deprecated and can be called. &lt;11&gt; Section 3.1.4.3:  Office SharePoint Server 2007 supports this method.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OFFICIALFILE_R1731001.</t>
+  </si>
+  <si>
+    <t>MS-OFFICIALFILE_R1731001</t>
+  </si>
+  <si>
+    <t>MS-OFFICIALFILE_R1731002</t>
+  </si>
+  <si>
+    <t>MS-OFFICIALFILE_R1731:i</t>
+  </si>
+  <si>
+    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] [If the protocol server determines that the storage location determined by the rules has required properties that are not present in the properties element: 1. If the protocol server determines that the name of the user specified in the userName element is invalid using an implementation-specific validation algorithm, then the protocol server MUST set the ResultCode element to InvalidUser and return.] 2. Otherwise, the protocol server MUST set the ResultCode element to MoreInformation [and the ResultUrl element to an implementation-specific URL to enter more information about the submission.](Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] [If the protocol server determines that the storage location determined by the rules has required properties that are not present in the properties element: 1. If the protocol server determines that the name of the user specified in the userName element is invalid using an implementation-specific validation algorithm, then the protocol server MUST set the ResultCode element to InvalidUser and return.] 2. Otherwise, the protocol server MUST set[the ResultCode element to MoreInformation and] the ResultUrl element to an implementation-specific URL to enter more information about the submission. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return implementation-specific information in the ServerInfo element. &lt;13&gt; Section 3.1.4.5:  Office SharePoint Server 2007 returns "Microsoft.Office.Server" as the ServerType and "Microsoft.Office.OfficialFileSoap, Version=12.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c" as the ServerVersion.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return implementation-specific information in the ServerInfo element. [&lt;13&gt; Section 3.1.4.5:] SharePoint Server 2010 returns "Microsoft.Office.Server v4" as the ServerType and " Microsoft.Office.OfficialFileSoap, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c" as the ServerVersion.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return implementation-specific information in the ServerInfo element. [&lt;13&gt; Section 3.1.4.5:] SharePoint Server 2013 returns "Microsoft.Office.Server v4" as the ServerType and " Microsoft.Office.OfficialFileSoap, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c" as the ServerVersion.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;14&gt; Section 3.1.4.6: Third-party modules can be added to Office SharePoint Server 2007, SharePoint Server 2010, and SharePoint Server 2013 which can cause the submission to be rejected.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior][The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:  If the properties element contains all of the following properties _dlc_hold_url, _dlc_hold_comments, _dlc_hold_id, _dlc_hold_searchqquery, _dlc_hold_searchcontexturl] Implementation does not include the CustomProcessingResult element. &lt;17&gt; Section 3.1.4.6:  Office SharePoint Server 2007 does not include the CustomProcessingResult element.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does set the ResultUrl element to a non-empty HTML encoded URL in the AdditionalInformation element to retrieve the stored file. &lt;16&gt; Section 3.1.4.6:  Office SharePoint Server 2007 returns the URL in the AdditionalInformation element.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;18&gt; Section 3.1.4.6.2.1: The behavior is undefined if the userName element is SHAREPOINT\system for Office SharePoint Server 2007, SharePoint Server 2010, and SharePoint Server 2013.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior][The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows: If, however, at least one but not all of the properties _dlc_hold_url, _dlc_hold_comments, _dlc_hold_id, _dlc_hold_searchqquery, _dlc_hold_searchcontexturl are contained in the properties element] Implementation does not include the CustomProcessingResult element.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does include CustomProcessingResult element and set the CustomProcessingResult.HoldsProcessingResult. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-OFFICIALFILE_R203001</t>
+  </si>
+  <si>
+    <t>MS-OFFICIALFILE_R203002</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OFFICIALFILE_R355.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OFFICIALFILE_R203001.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OFFICIALFILE_R204001.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] Implementation does set the ResultCode element to MoreInformation when no applicable rule is found. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] Implementation does use the ddefault rule when no applicable rule is found. &lt;15&gt; Section 3.1.4.6:  In Office SharePoint Server 2007, server uses the default rule if no applicable rule is found.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] Implementation does set the ResultUrl element to an implementation-specific URL to enter more information about the submission when no applicable rule is found. (Microsoft SharePoint Server 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-OFFICIALFILE_R204001</t>
+  </si>
+  <si>
+    <t>MS-OFFICIALFILE_R204002</t>
   </si>
 </sst>
 </file>
@@ -3283,6 +3307,21 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3307,26 +3346,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="35">
     <dxf>
       <font>
         <b val="0"/>
@@ -3710,36 +3734,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
@@ -3912,8 +3906,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I374" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I374"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I378" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I378"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -4002,7 +3996,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4037,7 +4031,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4247,13 +4241,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L376"/>
+  <dimension ref="A1:L380"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A375" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C377" sqref="C377"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
@@ -4268,7 +4264,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>822</v>
+        <v>760</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
@@ -4278,7 +4274,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>823</v>
+        <v>761</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -4292,138 +4288,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="29">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>847</v>
+        <v>771</v>
       </c>
       <c r="F3" s="12">
-        <v>41481</v>
+        <v>42566</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -4436,12 +4432,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -4454,12 +4450,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -4472,12 +4468,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -4490,60 +4486,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -4582,10 +4578,10 @@
         <v>44</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="s">
@@ -4607,7 +4603,7 @@
         <v>45</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>31</v>
@@ -4626,7 +4622,7 @@
         <v>17</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>813</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="23" customFormat="1" ht="30">
@@ -4634,10 +4630,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
@@ -4659,10 +4655,10 @@
         <v>47</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
@@ -4684,10 +4680,10 @@
         <v>48</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
@@ -4709,10 +4705,10 @@
         <v>49</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
@@ -4734,10 +4730,10 @@
         <v>50</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
@@ -4759,10 +4755,10 @@
         <v>51</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
@@ -4784,10 +4780,10 @@
         <v>52</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -4809,10 +4805,10 @@
         <v>53</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
@@ -4834,10 +4830,10 @@
         <v>54</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
@@ -4859,10 +4855,10 @@
         <v>55</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
@@ -4884,10 +4880,10 @@
         <v>56</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
@@ -4909,10 +4905,10 @@
         <v>57</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
@@ -4934,10 +4930,10 @@
         <v>58</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
@@ -4959,10 +4955,10 @@
         <v>59</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="30" t="s">
@@ -4984,10 +4980,10 @@
         <v>60</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="30" t="s">
@@ -5009,10 +5005,10 @@
         <v>61</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="30" t="s">
@@ -5034,10 +5030,10 @@
         <v>62</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="30" t="s">
@@ -5059,10 +5055,10 @@
         <v>63</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="30" t="s">
@@ -5084,10 +5080,10 @@
         <v>64</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="30" t="s">
@@ -5109,10 +5105,10 @@
         <v>65</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="30" t="s">
@@ -5134,10 +5130,10 @@
         <v>66</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="30" t="s">
@@ -5159,10 +5155,10 @@
         <v>67</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="30" t="s">
@@ -5184,10 +5180,10 @@
         <v>68</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="30" t="s">
@@ -5209,10 +5205,10 @@
         <v>69</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30" t="s">
@@ -5237,7 +5233,7 @@
         <v>32</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30" t="s">
@@ -5262,7 +5258,7 @@
         <v>32</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30" t="s">
@@ -5287,7 +5283,7 @@
         <v>32</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30" t="s">
@@ -5309,10 +5305,10 @@
         <v>73</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30" t="s">
@@ -5334,10 +5330,10 @@
         <v>74</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="30" t="s">
@@ -5359,10 +5355,10 @@
         <v>75</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30" t="s">
@@ -5384,10 +5380,10 @@
         <v>76</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="30" t="s">
@@ -5409,10 +5405,10 @@
         <v>77</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D53" s="30"/>
       <c r="E53" s="30" t="s">
@@ -5434,10 +5430,10 @@
         <v>78</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D54" s="30"/>
       <c r="E54" s="30" t="s">
@@ -5459,10 +5455,10 @@
         <v>79</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D55" s="30"/>
       <c r="E55" s="30" t="s">
@@ -5484,10 +5480,10 @@
         <v>80</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="30" t="s">
@@ -5509,10 +5505,10 @@
         <v>81</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30" t="s">
@@ -5534,10 +5530,10 @@
         <v>82</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="30" t="s">
@@ -5559,10 +5555,10 @@
         <v>83</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D59" s="30"/>
       <c r="E59" s="30" t="s">
@@ -5584,10 +5580,10 @@
         <v>84</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="30" t="s">
@@ -5609,10 +5605,10 @@
         <v>85</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D61" s="30"/>
       <c r="E61" s="30" t="s">
@@ -5634,10 +5630,10 @@
         <v>86</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30" t="s">
@@ -5659,10 +5655,10 @@
         <v>87</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D63" s="30"/>
       <c r="E63" s="30" t="s">
@@ -5684,10 +5680,10 @@
         <v>88</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30" t="s">
@@ -5709,10 +5705,10 @@
         <v>89</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="30" t="s">
@@ -5734,10 +5730,10 @@
         <v>90</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D66" s="30"/>
       <c r="E66" s="30" t="s">
@@ -5759,10 +5755,10 @@
         <v>91</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D67" s="30"/>
       <c r="E67" s="30" t="s">
@@ -5784,10 +5780,10 @@
         <v>92</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30" t="s">
@@ -5809,10 +5805,10 @@
         <v>93</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D69" s="30"/>
       <c r="E69" s="30" t="s">
@@ -5834,10 +5830,10 @@
         <v>94</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D70" s="30"/>
       <c r="E70" s="30" t="s">
@@ -5859,10 +5855,10 @@
         <v>95</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="30" t="s">
@@ -5884,10 +5880,10 @@
         <v>96</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D72" s="30"/>
       <c r="E72" s="30" t="s">
@@ -5909,10 +5905,10 @@
         <v>97</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D73" s="30"/>
       <c r="E73" s="30" t="s">
@@ -5934,10 +5930,10 @@
         <v>98</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="30" t="s">
@@ -5959,10 +5955,10 @@
         <v>99</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D75" s="30"/>
       <c r="E75" s="30" t="s">
@@ -5984,10 +5980,10 @@
         <v>100</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D76" s="30"/>
       <c r="E76" s="30" t="s">
@@ -6009,10 +6005,10 @@
         <v>101</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D77" s="30"/>
       <c r="E77" s="30" t="s">
@@ -6034,10 +6030,10 @@
         <v>102</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D78" s="30"/>
       <c r="E78" s="30" t="s">
@@ -6059,10 +6055,10 @@
         <v>103</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>520</v>
+        <v>772</v>
       </c>
       <c r="D79" s="30"/>
       <c r="E79" s="30" t="s">
@@ -6084,10 +6080,10 @@
         <v>104</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D80" s="30"/>
       <c r="E80" s="30" t="s">
@@ -6109,10 +6105,10 @@
         <v>105</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30" t="s">
@@ -6134,10 +6130,10 @@
         <v>106</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="30" t="s">
@@ -6159,10 +6155,10 @@
         <v>107</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30" t="s">
@@ -6184,10 +6180,10 @@
         <v>108</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="30" t="s">
@@ -6209,10 +6205,10 @@
         <v>109</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30" t="s">
@@ -6234,10 +6230,10 @@
         <v>110</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D86" s="30"/>
       <c r="E86" s="30" t="s">
@@ -6259,10 +6255,10 @@
         <v>111</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D87" s="30"/>
       <c r="E87" s="30" t="s">
@@ -6284,10 +6280,10 @@
         <v>112</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30" t="s">
@@ -6309,10 +6305,10 @@
         <v>113</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D89" s="30"/>
       <c r="E89" s="30" t="s">
@@ -6328,7 +6324,7 @@
         <v>17</v>
       </c>
       <c r="I89" s="32" t="s">
-        <v>814</v>
+        <v>754</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="30">
@@ -6336,10 +6332,10 @@
         <v>114</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D90" s="30"/>
       <c r="E90" s="30" t="s">
@@ -6361,10 +6357,10 @@
         <v>115</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D91" s="30"/>
       <c r="E91" s="30" t="s">
@@ -6386,10 +6382,10 @@
         <v>116</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D92" s="30"/>
       <c r="E92" s="30" t="s">
@@ -6411,10 +6407,10 @@
         <v>117</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="30" t="s">
@@ -6436,10 +6432,10 @@
         <v>118</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D94" s="30"/>
       <c r="E94" s="30" t="s">
@@ -6461,10 +6457,10 @@
         <v>119</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D95" s="30"/>
       <c r="E95" s="30" t="s">
@@ -6486,10 +6482,10 @@
         <v>120</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D96" s="30"/>
       <c r="E96" s="30" t="s">
@@ -6511,10 +6507,10 @@
         <v>121</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="30" t="s">
@@ -6536,10 +6532,10 @@
         <v>122</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D98" s="30"/>
       <c r="E98" s="30" t="s">
@@ -6561,10 +6557,10 @@
         <v>123</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="30" t="s">
@@ -6586,10 +6582,10 @@
         <v>124</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30" t="s">
@@ -6611,10 +6607,10 @@
         <v>125</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D101" s="30"/>
       <c r="E101" s="30" t="s">
@@ -6636,10 +6632,10 @@
         <v>126</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D102" s="30"/>
       <c r="E102" s="30" t="s">
@@ -6661,10 +6657,10 @@
         <v>127</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D103" s="30"/>
       <c r="E103" s="30" t="s">
@@ -6686,10 +6682,10 @@
         <v>128</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D104" s="30"/>
       <c r="E104" s="30" t="s">
@@ -6711,10 +6707,10 @@
         <v>129</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D105" s="30"/>
       <c r="E105" s="30" t="s">
@@ -6727,7 +6723,7 @@
         <v>15</v>
       </c>
       <c r="H105" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I105" s="32"/>
     </row>
@@ -6736,10 +6732,10 @@
         <v>130</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D106" s="30"/>
       <c r="E106" s="30" t="s">
@@ -6752,7 +6748,7 @@
         <v>15</v>
       </c>
       <c r="H106" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I106" s="32"/>
     </row>
@@ -6761,10 +6757,10 @@
         <v>131</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D107" s="30"/>
       <c r="E107" s="30" t="s">
@@ -6786,10 +6782,10 @@
         <v>132</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D108" s="30"/>
       <c r="E108" s="30" t="s">
@@ -6811,10 +6807,10 @@
         <v>133</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D109" s="30"/>
       <c r="E109" s="30" t="s">
@@ -6836,10 +6832,10 @@
         <v>134</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D110" s="30"/>
       <c r="E110" s="30" t="s">
@@ -6861,10 +6857,10 @@
         <v>135</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D111" s="30"/>
       <c r="E111" s="30" t="s">
@@ -6886,10 +6882,10 @@
         <v>136</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D112" s="30"/>
       <c r="E112" s="30" t="s">
@@ -6911,10 +6907,10 @@
         <v>137</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D113" s="30"/>
       <c r="E113" s="30" t="s">
@@ -6936,10 +6932,10 @@
         <v>138</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="30" t="s">
@@ -6961,10 +6957,10 @@
         <v>139</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D115" s="30"/>
       <c r="E115" s="30" t="s">
@@ -6986,10 +6982,10 @@
         <v>140</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D116" s="30"/>
       <c r="E116" s="30" t="s">
@@ -7011,10 +7007,10 @@
         <v>141</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D117" s="30"/>
       <c r="E117" s="30" t="s">
@@ -7036,10 +7032,10 @@
         <v>142</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D118" s="30"/>
       <c r="E118" s="30" t="s">
@@ -7061,10 +7057,10 @@
         <v>143</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D119" s="30"/>
       <c r="E119" s="30" t="s">
@@ -7086,10 +7082,10 @@
         <v>144</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D120" s="30"/>
       <c r="E120" s="30" t="s">
@@ -7111,10 +7107,10 @@
         <v>145</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D121" s="30"/>
       <c r="E121" s="30" t="s">
@@ -7136,10 +7132,10 @@
         <v>146</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D122" s="30"/>
       <c r="E122" s="30" t="s">
@@ -7161,10 +7157,10 @@
         <v>147</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D123" s="30"/>
       <c r="E123" s="30" t="s">
@@ -7186,10 +7182,10 @@
         <v>148</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="D124" s="30"/>
       <c r="E124" s="30" t="s">
@@ -7211,10 +7207,10 @@
         <v>149</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D125" s="30"/>
       <c r="E125" s="30" t="s">
@@ -7236,10 +7232,10 @@
         <v>150</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="D126" s="30"/>
       <c r="E126" s="30" t="s">
@@ -7261,10 +7257,10 @@
         <v>151</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D127" s="30"/>
       <c r="E127" s="30" t="s">
@@ -7286,10 +7282,10 @@
         <v>152</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D128" s="30"/>
       <c r="E128" s="30" t="s">
@@ -7311,10 +7307,10 @@
         <v>153</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="D129" s="30"/>
       <c r="E129" s="30" t="s">
@@ -7336,10 +7332,10 @@
         <v>154</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30" t="s">
@@ -7361,10 +7357,10 @@
         <v>155</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D131" s="30"/>
       <c r="E131" s="30" t="s">
@@ -7386,10 +7382,10 @@
         <v>156</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D132" s="30"/>
       <c r="E132" s="30" t="s">
@@ -7411,10 +7407,10 @@
         <v>157</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D133" s="30"/>
       <c r="E133" s="30" t="s">
@@ -7436,10 +7432,10 @@
         <v>158</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="D134" s="30"/>
       <c r="E134" s="30" t="s">
@@ -7461,10 +7457,10 @@
         <v>159</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D135" s="30"/>
       <c r="E135" s="30" t="s">
@@ -7486,10 +7482,10 @@
         <v>160</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D136" s="30"/>
       <c r="E136" s="30" t="s">
@@ -7511,10 +7507,10 @@
         <v>161</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D137" s="30"/>
       <c r="E137" s="30" t="s">
@@ -7536,10 +7532,10 @@
         <v>162</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>846</v>
+        <v>770</v>
       </c>
       <c r="D138" s="30"/>
       <c r="E138" s="30" t="s">
@@ -7561,10 +7557,10 @@
         <v>163</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="D139" s="30"/>
       <c r="E139" s="30" t="s">
@@ -7586,10 +7582,10 @@
         <v>164</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="D140" s="30"/>
       <c r="E140" s="30" t="s">
@@ -7611,10 +7607,10 @@
         <v>165</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D141" s="30"/>
       <c r="E141" s="30" t="s">
@@ -7630,7 +7626,7 @@
         <v>17</v>
       </c>
       <c r="I141" s="32" t="s">
-        <v>839</v>
+        <v>766</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="45">
@@ -7638,10 +7634,10 @@
         <v>166</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D142" s="30"/>
       <c r="E142" s="30" t="s">
@@ -7657,7 +7653,7 @@
         <v>17</v>
       </c>
       <c r="I142" s="32" t="s">
-        <v>840</v>
+        <v>767</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="45">
@@ -7665,10 +7661,10 @@
         <v>167</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>583</v>
+        <v>773</v>
       </c>
       <c r="D143" s="30"/>
       <c r="E143" s="30" t="s">
@@ -7684,7 +7680,7 @@
         <v>17</v>
       </c>
       <c r="I143" s="32" t="s">
-        <v>844</v>
+        <v>768</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="45">
@@ -7692,10 +7688,10 @@
         <v>168</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>584</v>
+        <v>774</v>
       </c>
       <c r="D144" s="30"/>
       <c r="E144" s="30" t="s">
@@ -7711,7 +7707,7 @@
         <v>17</v>
       </c>
       <c r="I144" s="32" t="s">
-        <v>845</v>
+        <v>769</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="45">
@@ -7719,10 +7715,10 @@
         <v>169</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="30" t="s">
@@ -7744,10 +7740,10 @@
         <v>170</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="30" t="s">
@@ -7772,7 +7768,7 @@
         <v>33</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>587</v>
+        <v>775</v>
       </c>
       <c r="D147" s="30"/>
       <c r="E147" s="30" t="s">
@@ -7787,42 +7783,44 @@
       <c r="H147" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I147" s="32"/>
-    </row>
-    <row r="148" spans="1:9" ht="90">
+      <c r="I147" s="32" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="30">
       <c r="A148" s="30" t="s">
-        <v>172</v>
+        <v>777</v>
       </c>
       <c r="B148" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>588</v>
+        <v>776</v>
       </c>
       <c r="D148" s="30"/>
       <c r="E148" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F148" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G148" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H148" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I148" s="32"/>
     </row>
-    <row r="149" spans="1:9" ht="60">
+    <row r="149" spans="1:9" ht="90">
       <c r="A149" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B149" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="D149" s="30"/>
       <c r="E149" s="30" t="s">
@@ -7839,47 +7837,47 @@
       </c>
       <c r="I149" s="32"/>
     </row>
-    <row r="150" spans="1:9" ht="90">
+    <row r="150" spans="1:9" ht="60">
       <c r="A150" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B150" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="D150" s="30"/>
       <c r="E150" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F150" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G150" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H150" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I150" s="32"/>
     </row>
     <row r="151" spans="1:9" ht="90">
       <c r="A151" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B151" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="D151" s="30"/>
       <c r="E151" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F151" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G151" s="30" t="s">
         <v>15</v>
@@ -7891,13 +7889,13 @@
     </row>
     <row r="152" spans="1:9" ht="90">
       <c r="A152" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B152" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="D152" s="30"/>
       <c r="E152" s="30" t="s">
@@ -7914,15 +7912,15 @@
       </c>
       <c r="I152" s="32"/>
     </row>
-    <row r="153" spans="1:9" ht="75">
+    <row r="153" spans="1:9" ht="90">
       <c r="A153" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B153" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="D153" s="30"/>
       <c r="E153" s="30" t="s">
@@ -7941,13 +7939,13 @@
     </row>
     <row r="154" spans="1:9" ht="75">
       <c r="A154" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B154" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="D154" s="30"/>
       <c r="E154" s="30" t="s">
@@ -7964,40 +7962,40 @@
       </c>
       <c r="I154" s="32"/>
     </row>
-    <row r="155" spans="1:9" ht="90">
+    <row r="155" spans="1:9" ht="75">
       <c r="A155" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B155" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="D155" s="30"/>
       <c r="E155" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F155" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G155" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H155" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I155" s="32"/>
     </row>
     <row r="156" spans="1:9" ht="90">
       <c r="A156" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B156" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="D156" s="30"/>
       <c r="E156" s="30" t="s">
@@ -8010,26 +8008,26 @@
         <v>15</v>
       </c>
       <c r="H156" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I156" s="32"/>
     </row>
-    <row r="157" spans="1:9" ht="105">
+    <row r="157" spans="1:9" ht="90">
       <c r="A157" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B157" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="D157" s="30"/>
       <c r="E157" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F157" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G157" s="30" t="s">
         <v>15</v>
@@ -8039,22 +8037,22 @@
       </c>
       <c r="I157" s="32"/>
     </row>
-    <row r="158" spans="1:9" ht="90">
+    <row r="158" spans="1:9" ht="105">
       <c r="A158" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B158" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="D158" s="30"/>
       <c r="E158" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F158" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G158" s="30" t="s">
         <v>15</v>
@@ -8066,13 +8064,13 @@
     </row>
     <row r="159" spans="1:9" ht="90">
       <c r="A159" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B159" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D159" s="30"/>
       <c r="E159" s="30" t="s">
@@ -8085,25 +8083,21 @@
         <v>15</v>
       </c>
       <c r="H159" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I159" s="32" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="75">
+        <v>20</v>
+      </c>
+      <c r="I159" s="32"/>
+    </row>
+    <row r="160" spans="1:9" ht="90">
       <c r="A160" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B160" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>600</v>
-      </c>
-      <c r="D160" s="30" t="s">
-        <v>800</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="D160" s="30"/>
       <c r="E160" s="30" t="s">
         <v>19</v>
       </c>
@@ -8114,21 +8108,25 @@
         <v>15</v>
       </c>
       <c r="H160" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I160" s="32"/>
-    </row>
-    <row r="161" spans="1:9" ht="105">
+        <v>17</v>
+      </c>
+      <c r="I160" s="32" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="75">
       <c r="A161" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B161" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C161" s="32" t="s">
-        <v>601</v>
-      </c>
-      <c r="D161" s="30"/>
+        <v>589</v>
+      </c>
+      <c r="D161" s="30" t="s">
+        <v>742</v>
+      </c>
       <c r="E161" s="30" t="s">
         <v>19</v>
       </c>
@@ -8143,15 +8141,15 @@
       </c>
       <c r="I161" s="32"/>
     </row>
-    <row r="162" spans="1:9" ht="75">
+    <row r="162" spans="1:9" ht="105">
       <c r="A162" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B162" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="D162" s="30"/>
       <c r="E162" s="30" t="s">
@@ -8168,15 +8166,15 @@
       </c>
       <c r="I162" s="32"/>
     </row>
-    <row r="163" spans="1:9" ht="90">
+    <row r="163" spans="1:9" ht="75">
       <c r="A163" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B163" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="D163" s="30"/>
       <c r="E163" s="30" t="s">
@@ -8195,13 +8193,13 @@
     </row>
     <row r="164" spans="1:9" ht="90">
       <c r="A164" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B164" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="D164" s="30"/>
       <c r="E164" s="30" t="s">
@@ -8218,15 +8216,15 @@
       </c>
       <c r="I164" s="32"/>
     </row>
-    <row r="165" spans="1:9" ht="120">
+    <row r="165" spans="1:9" ht="105">
       <c r="A165" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B165" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>605</v>
+        <v>778</v>
       </c>
       <c r="D165" s="30"/>
       <c r="E165" s="30" t="s">
@@ -8243,15 +8241,15 @@
       </c>
       <c r="I165" s="32"/>
     </row>
-    <row r="166" spans="1:9" ht="135">
+    <row r="166" spans="1:9" ht="150">
       <c r="A166" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B166" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>606</v>
+        <v>779</v>
       </c>
       <c r="D166" s="30"/>
       <c r="E166" s="30" t="s">
@@ -8268,47 +8266,47 @@
       </c>
       <c r="I166" s="32"/>
     </row>
-    <row r="167" spans="1:9" ht="60">
+    <row r="167" spans="1:9" ht="165">
       <c r="A167" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>411</v>
+        <v>33</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>607</v>
+        <v>780</v>
       </c>
       <c r="D167" s="30"/>
       <c r="E167" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F167" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G167" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H167" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I167" s="32"/>
     </row>
     <row r="168" spans="1:9" ht="60">
       <c r="A168" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="D168" s="30"/>
       <c r="E168" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F168" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G168" s="30" t="s">
         <v>16</v>
@@ -8318,22 +8316,22 @@
       </c>
       <c r="I168" s="32"/>
     </row>
-    <row r="169" spans="1:9" ht="30">
+    <row r="169" spans="1:9" ht="60">
       <c r="A169" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B169" s="31" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="D169" s="30"/>
       <c r="E169" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F169" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G169" s="30" t="s">
         <v>16</v>
@@ -8343,15 +8341,15 @@
       </c>
       <c r="I169" s="32"/>
     </row>
-    <row r="170" spans="1:9" ht="45">
+    <row r="170" spans="1:9" ht="30">
       <c r="A170" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="D170" s="30"/>
       <c r="E170" s="30" t="s">
@@ -8361,22 +8359,22 @@
         <v>7</v>
       </c>
       <c r="G170" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H170" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I170" s="32"/>
     </row>
-    <row r="171" spans="1:9" ht="30">
+    <row r="171" spans="1:9" ht="45">
       <c r="A171" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B171" s="31" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C171" s="32" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="D171" s="30"/>
       <c r="E171" s="30" t="s">
@@ -8395,23 +8393,23 @@
     </row>
     <row r="172" spans="1:9" ht="30">
       <c r="A172" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C172" s="32" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="D172" s="30"/>
       <c r="E172" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F172" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G172" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H172" s="30" t="s">
         <v>18</v>
@@ -8420,13 +8418,13 @@
     </row>
     <row r="173" spans="1:9" ht="30">
       <c r="A173" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="D173" s="30"/>
       <c r="E173" s="30" t="s">
@@ -8436,54 +8434,54 @@
         <v>6</v>
       </c>
       <c r="G173" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H173" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I173" s="32"/>
     </row>
-    <row r="174" spans="1:9" ht="45">
+    <row r="174" spans="1:9" ht="30">
       <c r="A174" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B174" s="31" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="D174" s="30"/>
       <c r="E174" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F174" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G174" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H174" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I174" s="32"/>
     </row>
     <row r="175" spans="1:9" ht="45">
       <c r="A175" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="D175" s="30"/>
       <c r="E175" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F175" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G175" s="30" t="s">
         <v>16</v>
@@ -8493,40 +8491,40 @@
       </c>
       <c r="I175" s="32"/>
     </row>
-    <row r="176" spans="1:9" ht="225">
+    <row r="176" spans="1:9" ht="45">
       <c r="A176" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="D176" s="30"/>
       <c r="E176" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F176" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G176" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H176" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I176" s="32"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" ht="225">
       <c r="A177" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="D177" s="30"/>
       <c r="E177" s="30" t="s">
@@ -8536,22 +8534,22 @@
         <v>7</v>
       </c>
       <c r="G177" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H177" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I177" s="32"/>
     </row>
-    <row r="178" spans="1:9" ht="30">
+    <row r="178" spans="1:9">
       <c r="A178" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="D178" s="30"/>
       <c r="E178" s="30" t="s">
@@ -8561,7 +8559,7 @@
         <v>7</v>
       </c>
       <c r="G178" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H178" s="30" t="s">
         <v>18</v>
@@ -8570,13 +8568,13 @@
     </row>
     <row r="179" spans="1:9" ht="30">
       <c r="A179" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="D179" s="30"/>
       <c r="E179" s="30" t="s">
@@ -8593,40 +8591,40 @@
       </c>
       <c r="I179" s="32"/>
     </row>
-    <row r="180" spans="1:9" ht="180">
+    <row r="180" spans="1:9" ht="30">
       <c r="A180" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="D180" s="30"/>
       <c r="E180" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F180" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G180" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H180" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I180" s="32"/>
     </row>
-    <row r="181" spans="1:9" ht="60">
+    <row r="181" spans="1:9" ht="180">
       <c r="A181" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="D181" s="30"/>
       <c r="E181" s="30" t="s">
@@ -8643,15 +8641,15 @@
       </c>
       <c r="I181" s="32"/>
     </row>
-    <row r="182" spans="1:9" ht="45">
+    <row r="182" spans="1:9" ht="60">
       <c r="A182" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="D182" s="30"/>
       <c r="E182" s="30" t="s">
@@ -8661,22 +8659,22 @@
         <v>6</v>
       </c>
       <c r="G182" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H182" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I182" s="32"/>
     </row>
-    <row r="183" spans="1:9" ht="30">
+    <row r="183" spans="1:9" ht="45">
       <c r="A183" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="D183" s="30"/>
       <c r="E183" s="30" t="s">
@@ -8693,15 +8691,15 @@
       </c>
       <c r="I183" s="32"/>
     </row>
-    <row r="184" spans="1:9" ht="180">
+    <row r="184" spans="1:9" ht="30">
       <c r="A184" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="D184" s="30"/>
       <c r="E184" s="30" t="s">
@@ -8711,22 +8709,22 @@
         <v>6</v>
       </c>
       <c r="G184" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H184" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I184" s="32"/>
     </row>
-    <row r="185" spans="1:9" ht="30">
+    <row r="185" spans="1:9" ht="180">
       <c r="A185" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="D185" s="30"/>
       <c r="E185" s="30" t="s">
@@ -8736,22 +8734,22 @@
         <v>6</v>
       </c>
       <c r="G185" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H185" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I185" s="32"/>
     </row>
     <row r="186" spans="1:9" ht="30">
       <c r="A186" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B186" s="31" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="D186" s="30"/>
       <c r="E186" s="30" t="s">
@@ -8768,15 +8766,15 @@
       </c>
       <c r="I186" s="32"/>
     </row>
-    <row r="187" spans="1:9" ht="45">
+    <row r="187" spans="1:9" ht="30">
       <c r="A187" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B187" s="31" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="D187" s="30"/>
       <c r="E187" s="30" t="s">
@@ -8786,22 +8784,22 @@
         <v>6</v>
       </c>
       <c r="G187" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H187" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I187" s="32"/>
     </row>
     <row r="188" spans="1:9" ht="45">
       <c r="A188" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B188" s="31" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="D188" s="30"/>
       <c r="E188" s="30" t="s">
@@ -8811,22 +8809,22 @@
         <v>6</v>
       </c>
       <c r="G188" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H188" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I188" s="32"/>
     </row>
-    <row r="189" spans="1:9" ht="60">
+    <row r="189" spans="1:9" ht="45">
       <c r="A189" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B189" s="31" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="D189" s="30"/>
       <c r="E189" s="30" t="s">
@@ -8843,15 +8841,15 @@
       </c>
       <c r="I189" s="32"/>
     </row>
-    <row r="190" spans="1:9" ht="30">
+    <row r="190" spans="1:9" ht="60">
       <c r="A190" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B190" s="31" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="D190" s="30"/>
       <c r="E190" s="30" t="s">
@@ -8868,15 +8866,15 @@
       </c>
       <c r="I190" s="32"/>
     </row>
-    <row r="191" spans="1:9" ht="240">
+    <row r="191" spans="1:9" ht="30">
       <c r="A191" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="D191" s="30"/>
       <c r="E191" s="30" t="s">
@@ -8886,22 +8884,22 @@
         <v>6</v>
       </c>
       <c r="G191" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H191" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I191" s="32"/>
     </row>
-    <row r="192" spans="1:9" ht="30">
+    <row r="192" spans="1:9" ht="240">
       <c r="A192" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="D192" s="30"/>
       <c r="E192" s="30" t="s">
@@ -8911,22 +8909,22 @@
         <v>6</v>
       </c>
       <c r="G192" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H192" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I192" s="32"/>
     </row>
     <row r="193" spans="1:9" ht="30">
       <c r="A193" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B193" s="31" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="D193" s="30"/>
       <c r="E193" s="30" t="s">
@@ -8936,22 +8934,22 @@
         <v>6</v>
       </c>
       <c r="G193" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H193" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I193" s="32"/>
     </row>
-    <row r="194" spans="1:9" ht="45">
+    <row r="194" spans="1:9" ht="30">
       <c r="A194" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="D194" s="30"/>
       <c r="E194" s="30" t="s">
@@ -8968,15 +8966,15 @@
       </c>
       <c r="I194" s="32"/>
     </row>
-    <row r="195" spans="1:9" ht="30">
+    <row r="195" spans="1:9" ht="45">
       <c r="A195" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B195" s="31" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="D195" s="30"/>
       <c r="E195" s="30" t="s">
@@ -8995,13 +8993,13 @@
     </row>
     <row r="196" spans="1:9" ht="30">
       <c r="A196" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B196" s="31" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="D196" s="30"/>
       <c r="E196" s="30" t="s">
@@ -9014,19 +9012,19 @@
         <v>15</v>
       </c>
       <c r="H196" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I196" s="32"/>
     </row>
     <row r="197" spans="1:9" ht="30">
       <c r="A197" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="D197" s="30"/>
       <c r="E197" s="30" t="s">
@@ -9039,19 +9037,19 @@
         <v>15</v>
       </c>
       <c r="H197" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I197" s="32"/>
     </row>
-    <row r="198" spans="1:9" ht="45">
+    <row r="198" spans="1:9" ht="30">
       <c r="A198" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B198" s="31" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="D198" s="30"/>
       <c r="E198" s="30" t="s">
@@ -9068,15 +9066,15 @@
       </c>
       <c r="I198" s="32"/>
     </row>
-    <row r="199" spans="1:9" ht="30">
+    <row r="199" spans="1:9" ht="45">
       <c r="A199" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B199" s="31" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="D199" s="30"/>
       <c r="E199" s="30" t="s">
@@ -9093,15 +9091,15 @@
       </c>
       <c r="I199" s="32"/>
     </row>
-    <row r="200" spans="1:9" ht="45">
+    <row r="200" spans="1:9" ht="30">
       <c r="A200" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B200" s="31" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="D200" s="30"/>
       <c r="E200" s="30" t="s">
@@ -9120,13 +9118,13 @@
     </row>
     <row r="201" spans="1:9" ht="45">
       <c r="A201" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B201" s="31" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="D201" s="30"/>
       <c r="E201" s="30" t="s">
@@ -9143,15 +9141,15 @@
       </c>
       <c r="I201" s="32"/>
     </row>
-    <row r="202" spans="1:9" ht="30">
+    <row r="202" spans="1:9" ht="45">
       <c r="A202" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B202" s="31" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="D202" s="30"/>
       <c r="E202" s="30" t="s">
@@ -9170,13 +9168,13 @@
     </row>
     <row r="203" spans="1:9" ht="30">
       <c r="A203" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B203" s="31" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="D203" s="30"/>
       <c r="E203" s="30" t="s">
@@ -9186,22 +9184,22 @@
         <v>6</v>
       </c>
       <c r="G203" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H203" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I203" s="32"/>
     </row>
-    <row r="204" spans="1:9" ht="45">
+    <row r="204" spans="1:9" ht="30">
       <c r="A204" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B204" s="31" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="D204" s="30"/>
       <c r="E204" s="30" t="s">
@@ -9211,22 +9209,22 @@
         <v>6</v>
       </c>
       <c r="G204" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H204" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I204" s="32"/>
     </row>
-    <row r="205" spans="1:9" ht="135">
+    <row r="205" spans="1:9" ht="45">
       <c r="A205" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B205" s="31" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="D205" s="30"/>
       <c r="E205" s="30" t="s">
@@ -9239,19 +9237,19 @@
         <v>15</v>
       </c>
       <c r="H205" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I205" s="32"/>
     </row>
-    <row r="206" spans="1:9" ht="30">
+    <row r="206" spans="1:9" ht="135">
       <c r="A206" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B206" s="31" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="D206" s="30"/>
       <c r="E206" s="30" t="s">
@@ -9261,22 +9259,22 @@
         <v>6</v>
       </c>
       <c r="G206" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H206" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I206" s="32"/>
     </row>
     <row r="207" spans="1:9" ht="30">
       <c r="A207" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B207" s="31" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="D207" s="30"/>
       <c r="E207" s="30" t="s">
@@ -9286,22 +9284,22 @@
         <v>6</v>
       </c>
       <c r="G207" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H207" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I207" s="32"/>
     </row>
     <row r="208" spans="1:9" ht="30">
       <c r="A208" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B208" s="31" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="D208" s="30"/>
       <c r="E208" s="30" t="s">
@@ -9320,13 +9318,13 @@
     </row>
     <row r="209" spans="1:9" ht="30">
       <c r="A209" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B209" s="31" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="D209" s="30"/>
       <c r="E209" s="30" t="s">
@@ -9345,38 +9343,38 @@
     </row>
     <row r="210" spans="1:9" ht="30">
       <c r="A210" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B210" s="31" t="s">
-        <v>34</v>
+        <v>414</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="D210" s="30"/>
       <c r="E210" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F210" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G210" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H210" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I210" s="32"/>
     </row>
-    <row r="211" spans="1:9" ht="90">
+    <row r="211" spans="1:9" ht="45">
       <c r="A211" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B211" s="31" t="s">
         <v>34</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>651</v>
+        <v>781</v>
       </c>
       <c r="D211" s="30"/>
       <c r="E211" s="30" t="s">
@@ -9389,19 +9387,21 @@
         <v>15</v>
       </c>
       <c r="H211" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I211" s="32"/>
-    </row>
-    <row r="212" spans="1:9" ht="45">
+        <v>17</v>
+      </c>
+      <c r="I211" s="32" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="90">
       <c r="A212" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B212" s="31" t="s">
         <v>34</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>652</v>
+        <v>782</v>
       </c>
       <c r="D212" s="30"/>
       <c r="E212" s="30" t="s">
@@ -9418,22 +9418,22 @@
       </c>
       <c r="I212" s="32"/>
     </row>
-    <row r="213" spans="1:9" ht="60">
+    <row r="213" spans="1:9" ht="45">
       <c r="A213" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B213" s="31" t="s">
         <v>34</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="D213" s="30"/>
       <c r="E213" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F213" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G213" s="30" t="s">
         <v>15</v>
@@ -9443,47 +9443,47 @@
       </c>
       <c r="I213" s="32"/>
     </row>
-    <row r="214" spans="1:9" ht="45">
+    <row r="214" spans="1:9" ht="60">
       <c r="A214" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B214" s="31" t="s">
-        <v>422</v>
+        <v>34</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="D214" s="30"/>
       <c r="E214" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F214" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G214" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H214" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I214" s="32"/>
     </row>
     <row r="215" spans="1:9" ht="45">
       <c r="A215" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B215" s="31" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="D215" s="30"/>
       <c r="E215" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F215" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G215" s="30" t="s">
         <v>16</v>
@@ -9493,22 +9493,22 @@
       </c>
       <c r="I215" s="32"/>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" ht="45">
       <c r="A216" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B216" s="31" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="D216" s="30"/>
       <c r="E216" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F216" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G216" s="30" t="s">
         <v>16</v>
@@ -9518,15 +9518,15 @@
       </c>
       <c r="I216" s="32"/>
     </row>
-    <row r="217" spans="1:9" ht="30">
+    <row r="217" spans="1:9">
       <c r="A217" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B217" s="31" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="D217" s="30"/>
       <c r="E217" s="30" t="s">
@@ -9536,22 +9536,22 @@
         <v>7</v>
       </c>
       <c r="G217" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H217" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I217" s="32"/>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" ht="30">
       <c r="A218" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B218" s="31" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C218" s="32" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="D218" s="30"/>
       <c r="E218" s="30" t="s">
@@ -9568,40 +9568,40 @@
       </c>
       <c r="I218" s="32"/>
     </row>
-    <row r="219" spans="1:9" ht="30">
+    <row r="219" spans="1:9">
       <c r="A219" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B219" s="31" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C219" s="32" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="D219" s="30"/>
       <c r="E219" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F219" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G219" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H219" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I219" s="32"/>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" ht="30">
       <c r="A220" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B220" s="31" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C220" s="32" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="D220" s="30"/>
       <c r="E220" s="30" t="s">
@@ -9611,54 +9611,54 @@
         <v>6</v>
       </c>
       <c r="G220" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H220" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I220" s="32"/>
     </row>
-    <row r="221" spans="1:9" ht="45">
+    <row r="221" spans="1:9">
       <c r="A221" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B221" s="31" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C221" s="32" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="D221" s="30"/>
       <c r="E221" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F221" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G221" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H221" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I221" s="32"/>
     </row>
     <row r="222" spans="1:9" ht="45">
       <c r="A222" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B222" s="31" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="D222" s="30"/>
       <c r="E222" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F222" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G222" s="30" t="s">
         <v>16</v>
@@ -9668,65 +9668,65 @@
       </c>
       <c r="I222" s="32"/>
     </row>
-    <row r="223" spans="1:9" ht="75">
+    <row r="223" spans="1:9" ht="45">
       <c r="A223" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B223" s="31" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="D223" s="30"/>
       <c r="E223" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F223" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G223" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H223" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I223" s="32"/>
     </row>
-    <row r="224" spans="1:9" ht="165">
+    <row r="224" spans="1:9" ht="75">
       <c r="A224" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B224" s="31" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="D224" s="30"/>
       <c r="E224" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F224" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G224" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H224" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I224" s="32"/>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" ht="165">
       <c r="A225" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B225" s="31" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="D225" s="30"/>
       <c r="E225" s="30" t="s">
@@ -9736,22 +9736,22 @@
         <v>6</v>
       </c>
       <c r="G225" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H225" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I225" s="32"/>
     </row>
-    <row r="226" spans="1:9" ht="45">
+    <row r="226" spans="1:9">
       <c r="A226" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B226" s="31" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="D226" s="30"/>
       <c r="E226" s="30" t="s">
@@ -9770,13 +9770,13 @@
     </row>
     <row r="227" spans="1:9" ht="45">
       <c r="A227" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B227" s="31" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="D227" s="30"/>
       <c r="E227" s="30" t="s">
@@ -9793,15 +9793,15 @@
       </c>
       <c r="I227" s="32"/>
     </row>
-    <row r="228" spans="1:9" ht="30">
+    <row r="228" spans="1:9" ht="45">
       <c r="A228" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B228" s="31" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="D228" s="30"/>
       <c r="E228" s="30" t="s">
@@ -9818,15 +9818,15 @@
       </c>
       <c r="I228" s="32"/>
     </row>
-    <row r="229" spans="1:9" ht="120">
+    <row r="229" spans="1:9" ht="30">
       <c r="A229" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B229" s="31" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D229" s="30"/>
       <c r="E229" s="30" t="s">
@@ -9836,22 +9836,22 @@
         <v>6</v>
       </c>
       <c r="G229" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H229" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I229" s="32"/>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" ht="120">
       <c r="A230" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B230" s="31" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="D230" s="30"/>
       <c r="E230" s="30" t="s">
@@ -9861,22 +9861,22 @@
         <v>6</v>
       </c>
       <c r="G230" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H230" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I230" s="32"/>
     </row>
-    <row r="231" spans="1:9" ht="30">
+    <row r="231" spans="1:9">
       <c r="A231" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B231" s="31" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="D231" s="30"/>
       <c r="E231" s="30" t="s">
@@ -9893,15 +9893,15 @@
       </c>
       <c r="I231" s="32"/>
     </row>
-    <row r="232" spans="1:9" ht="240">
+    <row r="232" spans="1:9" ht="30">
       <c r="A232" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B232" s="31" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="D232" s="30"/>
       <c r="E232" s="30" t="s">
@@ -9911,22 +9911,22 @@
         <v>6</v>
       </c>
       <c r="G232" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H232" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I232" s="32"/>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" ht="240">
       <c r="A233" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B233" s="31" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="D233" s="30"/>
       <c r="E233" s="30" t="s">
@@ -9939,19 +9939,19 @@
         <v>15</v>
       </c>
       <c r="H233" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I233" s="32"/>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B234" s="31" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="D234" s="30"/>
       <c r="E234" s="30" t="s">
@@ -9961,22 +9961,22 @@
         <v>6</v>
       </c>
       <c r="G234" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H234" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I234" s="32"/>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B235" s="31" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="D235" s="30"/>
       <c r="E235" s="30" t="s">
@@ -9995,13 +9995,13 @@
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B236" s="31" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="D236" s="30"/>
       <c r="E236" s="30" t="s">
@@ -10020,13 +10020,13 @@
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B237" s="31" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="D237" s="30"/>
       <c r="E237" s="30" t="s">
@@ -10045,13 +10045,13 @@
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B238" s="31" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C238" s="32" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="D238" s="30"/>
       <c r="E238" s="30" t="s">
@@ -10070,13 +10070,13 @@
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B239" s="31" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="D239" s="30"/>
       <c r="E239" s="30" t="s">
@@ -10086,22 +10086,22 @@
         <v>6</v>
       </c>
       <c r="G239" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H239" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I239" s="32"/>
     </row>
-    <row r="240" spans="1:9" ht="30">
+    <row r="240" spans="1:9">
       <c r="A240" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B240" s="31" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C240" s="32" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="D240" s="30"/>
       <c r="E240" s="30" t="s">
@@ -10120,13 +10120,13 @@
     </row>
     <row r="241" spans="1:9" ht="30">
       <c r="A241" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B241" s="31" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="D241" s="30"/>
       <c r="E241" s="30" t="s">
@@ -10145,13 +10145,13 @@
     </row>
     <row r="242" spans="1:9" ht="30">
       <c r="A242" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B242" s="31" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C242" s="32" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="D242" s="30"/>
       <c r="E242" s="30" t="s">
@@ -10161,22 +10161,22 @@
         <v>6</v>
       </c>
       <c r="G242" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H242" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I242" s="32"/>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" ht="30">
       <c r="A243" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B243" s="31" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C243" s="32" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D243" s="30"/>
       <c r="E243" s="30" t="s">
@@ -10193,40 +10193,40 @@
       </c>
       <c r="I243" s="32"/>
     </row>
-    <row r="244" spans="1:9" ht="105">
+    <row r="244" spans="1:9">
       <c r="A244" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B244" s="31" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C244" s="32" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D244" s="30"/>
       <c r="E244" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F244" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G244" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H244" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I244" s="32"/>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" ht="105">
       <c r="A245" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B245" s="31" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C245" s="32" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D245" s="30"/>
       <c r="E245" s="30" t="s">
@@ -10239,19 +10239,19 @@
         <v>15</v>
       </c>
       <c r="H245" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I245" s="32"/>
     </row>
-    <row r="246" spans="1:9" ht="90">
+    <row r="246" spans="1:9" ht="45">
       <c r="A246" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B246" s="31" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C246" s="32" t="s">
-        <v>686</v>
+        <v>783</v>
       </c>
       <c r="D246" s="30"/>
       <c r="E246" s="30" t="s">
@@ -10264,19 +10264,21 @@
         <v>15</v>
       </c>
       <c r="H246" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I246" s="32"/>
-    </row>
-    <row r="247" spans="1:9" ht="60">
+        <v>17</v>
+      </c>
+      <c r="I246" s="32" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="105">
       <c r="A247" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B247" s="31" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C247" s="32" t="s">
-        <v>687</v>
+        <v>784</v>
       </c>
       <c r="D247" s="30"/>
       <c r="E247" s="30" t="s">
@@ -10293,15 +10295,15 @@
       </c>
       <c r="I247" s="32"/>
     </row>
-    <row r="248" spans="1:9" ht="30">
+    <row r="248" spans="1:9" ht="60">
       <c r="A248" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B248" s="31" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C248" s="32" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="D248" s="30"/>
       <c r="E248" s="30" t="s">
@@ -10314,51 +10316,51 @@
         <v>15</v>
       </c>
       <c r="H248" s="30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I248" s="32"/>
     </row>
-    <row r="249" spans="1:9" ht="45">
+    <row r="249" spans="1:9" ht="30">
       <c r="A249" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B249" s="31" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C249" s="32" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="D249" s="30"/>
       <c r="E249" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F249" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G249" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H249" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I249" s="32"/>
     </row>
     <row r="250" spans="1:9" ht="45">
       <c r="A250" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B250" s="31" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C250" s="32" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="D250" s="30"/>
       <c r="E250" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F250" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G250" s="30" t="s">
         <v>16</v>
@@ -10368,22 +10370,22 @@
       </c>
       <c r="I250" s="32"/>
     </row>
-    <row r="251" spans="1:9" ht="30">
+    <row r="251" spans="1:9" ht="45">
       <c r="A251" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B251" s="31" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C251" s="32" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="D251" s="30"/>
       <c r="E251" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F251" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G251" s="30" t="s">
         <v>16</v>
@@ -10395,13 +10397,13 @@
     </row>
     <row r="252" spans="1:9" ht="30">
       <c r="A252" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B252" s="31" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C252" s="32" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="D252" s="30"/>
       <c r="E252" s="30" t="s">
@@ -10411,22 +10413,22 @@
         <v>7</v>
       </c>
       <c r="G252" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H252" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I252" s="32"/>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" ht="30">
       <c r="A253" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B253" s="31" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C253" s="32" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="D253" s="30"/>
       <c r="E253" s="30" t="s">
@@ -10443,25 +10445,25 @@
       </c>
       <c r="I253" s="32"/>
     </row>
-    <row r="254" spans="1:9" ht="30">
+    <row r="254" spans="1:9">
       <c r="A254" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B254" s="31" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C254" s="32" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="D254" s="30"/>
       <c r="E254" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F254" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G254" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H254" s="30" t="s">
         <v>18</v>
@@ -10470,13 +10472,13 @@
     </row>
     <row r="255" spans="1:9" ht="30">
       <c r="A255" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B255" s="31" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C255" s="32" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="D255" s="30"/>
       <c r="E255" s="30" t="s">
@@ -10486,54 +10488,54 @@
         <v>6</v>
       </c>
       <c r="G255" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H255" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I255" s="32"/>
     </row>
-    <row r="256" spans="1:9" ht="45">
+    <row r="256" spans="1:9" ht="30">
       <c r="A256" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B256" s="31" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C256" s="32" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="D256" s="30"/>
       <c r="E256" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F256" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G256" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H256" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I256" s="32"/>
     </row>
     <row r="257" spans="1:9" ht="45">
       <c r="A257" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B257" s="31" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C257" s="32" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="D257" s="30"/>
       <c r="E257" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F257" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G257" s="30" t="s">
         <v>16</v>
@@ -10543,40 +10545,40 @@
       </c>
       <c r="I257" s="32"/>
     </row>
-    <row r="258" spans="1:9" ht="135">
+    <row r="258" spans="1:9" ht="45">
       <c r="A258" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B258" s="31" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C258" s="32" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="D258" s="30"/>
       <c r="E258" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F258" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G258" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H258" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I258" s="32"/>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" ht="135">
       <c r="A259" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B259" s="31" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C259" s="32" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="D259" s="30"/>
       <c r="E259" s="30" t="s">
@@ -10586,47 +10588,47 @@
         <v>7</v>
       </c>
       <c r="G259" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H259" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I259" s="32"/>
     </row>
-    <row r="260" spans="1:9" ht="165">
+    <row r="260" spans="1:9">
       <c r="A260" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B260" s="31" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C260" s="32" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="D260" s="30"/>
       <c r="E260" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F260" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G260" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H260" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I260" s="32"/>
     </row>
-    <row r="261" spans="1:9" ht="30">
+    <row r="261" spans="1:9" ht="165">
       <c r="A261" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B261" s="31" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C261" s="32" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="D261" s="30"/>
       <c r="E261" s="30" t="s">
@@ -10639,44 +10641,44 @@
         <v>15</v>
       </c>
       <c r="H261" s="30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I261" s="32"/>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" ht="30">
       <c r="A262" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B262" s="31" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C262" s="32" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="D262" s="30"/>
       <c r="E262" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F262" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G262" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H262" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I262" s="32"/>
     </row>
-    <row r="263" spans="1:9" ht="90">
+    <row r="263" spans="1:9" ht="45">
       <c r="A263" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B263" s="31" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C263" s="32" t="s">
-        <v>703</v>
+        <v>785</v>
       </c>
       <c r="D263" s="30"/>
       <c r="E263" s="30" t="s">
@@ -10689,19 +10691,21 @@
         <v>15</v>
       </c>
       <c r="H263" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I263" s="32"/>
-    </row>
-    <row r="264" spans="1:9" ht="45">
+        <v>17</v>
+      </c>
+      <c r="I263" s="32" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="105">
       <c r="A264" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B264" s="31" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C264" s="32" t="s">
-        <v>704</v>
+        <v>786</v>
       </c>
       <c r="D264" s="30"/>
       <c r="E264" s="30" t="s">
@@ -10718,15 +10722,15 @@
       </c>
       <c r="I264" s="32"/>
     </row>
-    <row r="265" spans="1:9" ht="75">
+    <row r="265" spans="1:9" ht="45">
       <c r="A265" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B265" s="31" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C265" s="32" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="D265" s="30"/>
       <c r="E265" s="30" t="s">
@@ -10739,51 +10743,51 @@
         <v>15</v>
       </c>
       <c r="H265" s="30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I265" s="32"/>
     </row>
-    <row r="266" spans="1:9" ht="45">
+    <row r="266" spans="1:9" ht="75">
       <c r="A266" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B266" s="31" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C266" s="32" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="D266" s="30"/>
       <c r="E266" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F266" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G266" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H266" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I266" s="32"/>
     </row>
     <row r="267" spans="1:9" ht="45">
       <c r="A267" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B267" s="31" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C267" s="32" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="D267" s="30"/>
       <c r="E267" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F267" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G267" s="30" t="s">
         <v>16</v>
@@ -10793,22 +10797,22 @@
       </c>
       <c r="I267" s="32"/>
     </row>
-    <row r="268" spans="1:9" ht="30">
+    <row r="268" spans="1:9" ht="45">
       <c r="A268" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B268" s="31" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C268" s="32" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="D268" s="30"/>
       <c r="E268" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F268" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G268" s="30" t="s">
         <v>16</v>
@@ -10818,15 +10822,15 @@
       </c>
       <c r="I268" s="32"/>
     </row>
-    <row r="269" spans="1:9" ht="45">
+    <row r="269" spans="1:9" ht="30">
       <c r="A269" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B269" s="31" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C269" s="32" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="D269" s="30"/>
       <c r="E269" s="30" t="s">
@@ -10836,22 +10840,22 @@
         <v>7</v>
       </c>
       <c r="G269" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H269" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I269" s="32"/>
     </row>
-    <row r="270" spans="1:9" ht="30">
+    <row r="270" spans="1:9" ht="45">
       <c r="A270" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B270" s="31" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C270" s="32" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="D270" s="30"/>
       <c r="E270" s="30" t="s">
@@ -10870,23 +10874,23 @@
     </row>
     <row r="271" spans="1:9" ht="30">
       <c r="A271" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B271" s="31" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C271" s="32" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="D271" s="30"/>
       <c r="E271" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F271" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G271" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H271" s="30" t="s">
         <v>18</v>
@@ -10895,13 +10899,13 @@
     </row>
     <row r="272" spans="1:9" ht="30">
       <c r="A272" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B272" s="31" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C272" s="32" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="D272" s="30"/>
       <c r="E272" s="30" t="s">
@@ -10911,47 +10915,47 @@
         <v>6</v>
       </c>
       <c r="G272" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H272" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I272" s="32"/>
     </row>
-    <row r="273" spans="1:9" ht="45">
+    <row r="273" spans="1:9" ht="30">
       <c r="A273" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B273" s="31" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C273" s="32" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="D273" s="30"/>
       <c r="E273" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F273" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G273" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H273" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I273" s="32"/>
     </row>
     <row r="274" spans="1:9" ht="45">
       <c r="A274" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B274" s="31" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C274" s="32" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="D274" s="30"/>
       <c r="E274" s="30" t="s">
@@ -10968,15 +10972,15 @@
       </c>
       <c r="I274" s="32"/>
     </row>
-    <row r="275" spans="1:9" ht="90">
+    <row r="275" spans="1:9" ht="45">
       <c r="A275" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B275" s="31" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C275" s="32" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="D275" s="30"/>
       <c r="E275" s="30" t="s">
@@ -10986,47 +10990,47 @@
         <v>7</v>
       </c>
       <c r="G275" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H275" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I275" s="32"/>
     </row>
-    <row r="276" spans="1:9" ht="165">
+    <row r="276" spans="1:9" ht="90">
       <c r="A276" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B276" s="31" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C276" s="32" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="D276" s="30"/>
       <c r="E276" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F276" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G276" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H276" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I276" s="32"/>
     </row>
-    <row r="277" spans="1:9" ht="30">
+    <row r="277" spans="1:9" ht="165">
       <c r="A277" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B277" s="31" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C277" s="32" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="D277" s="30"/>
       <c r="E277" s="30" t="s">
@@ -11039,44 +11043,44 @@
         <v>15</v>
       </c>
       <c r="H277" s="30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I277" s="32"/>
     </row>
     <row r="278" spans="1:9" ht="30">
       <c r="A278" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B278" s="31" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C278" s="32" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="D278" s="30"/>
       <c r="E278" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F278" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G278" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H278" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I278" s="32"/>
     </row>
-    <row r="279" spans="1:9" ht="90">
+    <row r="279" spans="1:9" ht="30">
       <c r="A279" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B279" s="31" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C279" s="32" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="D279" s="30"/>
       <c r="E279" s="30" t="s">
@@ -11086,22 +11090,22 @@
         <v>3</v>
       </c>
       <c r="G279" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H279" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I279" s="32"/>
     </row>
-    <row r="280" spans="1:9" ht="45">
+    <row r="280" spans="1:9" ht="90">
       <c r="A280" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B280" s="31" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C280" s="32" t="s">
-        <v>720</v>
+        <v>787</v>
       </c>
       <c r="D280" s="30"/>
       <c r="E280" s="30" t="s">
@@ -11114,78 +11118,78 @@
         <v>15</v>
       </c>
       <c r="H280" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I280" s="32"/>
     </row>
-    <row r="281" spans="1:9" ht="75">
+    <row r="281" spans="1:9" ht="45">
       <c r="A281" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B281" s="31" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C281" s="32" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
       <c r="D281" s="30"/>
       <c r="E281" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F281" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G281" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H281" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I281" s="32" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" ht="45">
+        <v>20</v>
+      </c>
+      <c r="I281" s="32"/>
+    </row>
+    <row r="282" spans="1:9" ht="75">
       <c r="A282" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B282" s="31" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C282" s="32" t="s">
-        <v>722</v>
+        <v>788</v>
       </c>
       <c r="D282" s="30"/>
       <c r="E282" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F282" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G282" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H282" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I282" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="I282" s="32" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="283" spans="1:9" ht="45">
       <c r="A283" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B283" s="31" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C283" s="32" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="D283" s="30"/>
       <c r="E283" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F283" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G283" s="30" t="s">
         <v>16</v>
@@ -11195,22 +11199,22 @@
       </c>
       <c r="I283" s="32"/>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" ht="45">
       <c r="A284" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B284" s="31" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C284" s="32" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="D284" s="30"/>
       <c r="E284" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F284" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G284" s="30" t="s">
         <v>16</v>
@@ -11220,15 +11224,15 @@
       </c>
       <c r="I284" s="32"/>
     </row>
-    <row r="285" spans="1:9" ht="30">
+    <row r="285" spans="1:9">
       <c r="A285" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B285" s="31" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C285" s="32" t="s">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="D285" s="30"/>
       <c r="E285" s="30" t="s">
@@ -11238,22 +11242,22 @@
         <v>7</v>
       </c>
       <c r="G285" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H285" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I285" s="32"/>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" ht="30">
       <c r="A286" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B286" s="31" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C286" s="32" t="s">
-        <v>726</v>
+        <v>703</v>
       </c>
       <c r="D286" s="30"/>
       <c r="E286" s="30" t="s">
@@ -11270,40 +11274,40 @@
       </c>
       <c r="I286" s="32"/>
     </row>
-    <row r="287" spans="1:9" ht="30">
+    <row r="287" spans="1:9">
       <c r="A287" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B287" s="31" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C287" s="32" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="D287" s="30"/>
       <c r="E287" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F287" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G287" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H287" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I287" s="32"/>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" ht="30">
       <c r="A288" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B288" s="31" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C288" s="32" t="s">
-        <v>728</v>
+        <v>705</v>
       </c>
       <c r="D288" s="30"/>
       <c r="E288" s="30" t="s">
@@ -11313,54 +11317,54 @@
         <v>6</v>
       </c>
       <c r="G288" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H288" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I288" s="32"/>
     </row>
-    <row r="289" spans="1:9" ht="45">
+    <row r="289" spans="1:9">
       <c r="A289" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B289" s="31" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C289" s="32" t="s">
-        <v>729</v>
+        <v>706</v>
       </c>
       <c r="D289" s="30"/>
       <c r="E289" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F289" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G289" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H289" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I289" s="32"/>
     </row>
     <row r="290" spans="1:9" ht="45">
       <c r="A290" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B290" s="31" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C290" s="32" t="s">
-        <v>730</v>
+        <v>707</v>
       </c>
       <c r="D290" s="30"/>
       <c r="E290" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F290" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G290" s="30" t="s">
         <v>16</v>
@@ -11370,65 +11374,65 @@
       </c>
       <c r="I290" s="32"/>
     </row>
-    <row r="291" spans="1:9" ht="75">
+    <row r="291" spans="1:9" ht="45">
       <c r="A291" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B291" s="31" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C291" s="32" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="D291" s="30"/>
       <c r="E291" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F291" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G291" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H291" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I291" s="32"/>
     </row>
-    <row r="292" spans="1:9" ht="165">
+    <row r="292" spans="1:9" ht="75">
       <c r="A292" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B292" s="31" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C292" s="32" t="s">
-        <v>732</v>
+        <v>709</v>
       </c>
       <c r="D292" s="30"/>
       <c r="E292" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F292" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G292" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H292" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I292" s="32"/>
     </row>
-    <row r="293" spans="1:9" ht="45">
+    <row r="293" spans="1:9" ht="165">
       <c r="A293" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B293" s="31" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C293" s="32" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
       <c r="D293" s="30"/>
       <c r="E293" s="30" t="s">
@@ -11445,40 +11449,40 @@
       </c>
       <c r="I293" s="32"/>
     </row>
-    <row r="294" spans="1:9" ht="30">
+    <row r="294" spans="1:9" ht="45">
       <c r="A294" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B294" s="31" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C294" s="32" t="s">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="D294" s="30"/>
       <c r="E294" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F294" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G294" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H294" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I294" s="32"/>
     </row>
-    <row r="295" spans="1:9" ht="90">
+    <row r="295" spans="1:9" ht="30">
       <c r="A295" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B295" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C295" s="32" t="s">
-        <v>735</v>
+        <v>712</v>
       </c>
       <c r="D295" s="30"/>
       <c r="E295" s="30" t="s">
@@ -11488,22 +11492,22 @@
         <v>3</v>
       </c>
       <c r="G295" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H295" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I295" s="32"/>
     </row>
-    <row r="296" spans="1:9" ht="30">
+    <row r="296" spans="1:9" ht="90">
       <c r="A296" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B296" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C296" s="32" t="s">
-        <v>736</v>
+        <v>789</v>
       </c>
       <c r="D296" s="30"/>
       <c r="E296" s="30" t="s">
@@ -11520,40 +11524,40 @@
       </c>
       <c r="I296" s="32"/>
     </row>
-    <row r="297" spans="1:9" ht="60">
+    <row r="297" spans="1:9" ht="30">
       <c r="A297" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B297" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C297" s="32" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="D297" s="30"/>
       <c r="E297" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F297" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G297" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H297" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I297" s="32"/>
     </row>
     <row r="298" spans="1:9" ht="60">
       <c r="A298" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B298" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C298" s="32" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="D298" s="30"/>
       <c r="E298" s="30" t="s">
@@ -11570,15 +11574,15 @@
       </c>
       <c r="I298" s="32"/>
     </row>
-    <row r="299" spans="1:9" ht="75">
+    <row r="299" spans="1:9" ht="60">
       <c r="A299" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B299" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C299" s="32" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="D299" s="30"/>
       <c r="E299" s="30" t="s">
@@ -11591,19 +11595,19 @@
         <v>15</v>
       </c>
       <c r="H299" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I299" s="32"/>
     </row>
     <row r="300" spans="1:9" ht="75">
       <c r="A300" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B300" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C300" s="32" t="s">
-        <v>837</v>
+        <v>790</v>
       </c>
       <c r="D300" s="30"/>
       <c r="E300" s="30" t="s">
@@ -11616,21 +11620,19 @@
         <v>15</v>
       </c>
       <c r="H300" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I300" s="32" t="s">
-        <v>821</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I300" s="32"/>
     </row>
     <row r="301" spans="1:9" ht="75">
       <c r="A301" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B301" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C301" s="32" t="s">
-        <v>740</v>
+        <v>765</v>
       </c>
       <c r="D301" s="30"/>
       <c r="E301" s="30" t="s">
@@ -11643,19 +11645,21 @@
         <v>15</v>
       </c>
       <c r="H301" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I301" s="32"/>
+        <v>20</v>
+      </c>
+      <c r="I301" s="32" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="302" spans="1:9" ht="75">
       <c r="A302" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B302" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C302" s="32" t="s">
-        <v>830</v>
+        <v>716</v>
       </c>
       <c r="D302" s="30"/>
       <c r="E302" s="30" t="s">
@@ -11668,21 +11672,19 @@
         <v>15</v>
       </c>
       <c r="H302" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I302" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" ht="90">
+        <v>17</v>
+      </c>
+      <c r="I302" s="32"/>
+    </row>
+    <row r="303" spans="1:9" ht="75">
       <c r="A303" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B303" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C303" s="32" t="s">
-        <v>831</v>
+        <v>791</v>
       </c>
       <c r="D303" s="30"/>
       <c r="E303" s="30" t="s">
@@ -11695,21 +11697,21 @@
         <v>15</v>
       </c>
       <c r="H303" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I303" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" ht="75">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="90">
       <c r="A304" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B304" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C304" s="32" t="s">
-        <v>741</v>
+        <v>792</v>
       </c>
       <c r="D304" s="30"/>
       <c r="E304" s="30" t="s">
@@ -11725,18 +11727,18 @@
         <v>17</v>
       </c>
       <c r="I304" s="32" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" ht="60">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="75">
       <c r="A305" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B305" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C305" s="32" t="s">
-        <v>742</v>
+        <v>793</v>
       </c>
       <c r="D305" s="30"/>
       <c r="E305" s="30" t="s">
@@ -11755,13 +11757,13 @@
     </row>
     <row r="306" spans="1:9" ht="105">
       <c r="A306" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B306" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C306" s="32" t="s">
-        <v>743</v>
+        <v>717</v>
       </c>
       <c r="D306" s="30"/>
       <c r="E306" s="30" t="s">
@@ -11778,15 +11780,15 @@
       </c>
       <c r="I306" s="32"/>
     </row>
-    <row r="307" spans="1:9" ht="165">
+    <row r="307" spans="1:9" ht="150">
       <c r="A307" s="30" t="s">
-        <v>832</v>
+        <v>763</v>
       </c>
       <c r="B307" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C307" s="32" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D307" s="30"/>
       <c r="E307" s="30" t="s">
@@ -11802,18 +11804,18 @@
         <v>20</v>
       </c>
       <c r="I307" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="165">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="150">
       <c r="A308" s="30" t="s">
-        <v>834</v>
+        <v>764</v>
       </c>
       <c r="B308" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C308" s="32" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="D308" s="30"/>
       <c r="E308" s="30" t="s">
@@ -11829,18 +11831,18 @@
         <v>20</v>
       </c>
       <c r="I308" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" ht="165">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="150">
       <c r="A309" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B309" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C309" s="32" t="s">
-        <v>836</v>
+        <v>794</v>
       </c>
       <c r="D309" s="30"/>
       <c r="E309" s="30" t="s">
@@ -11855,19 +11857,17 @@
       <c r="H309" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I309" s="32" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" ht="165">
+      <c r="I309" s="32"/>
+    </row>
+    <row r="310" spans="1:9" ht="45">
       <c r="A310" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B310" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C310" s="32" t="s">
-        <v>744</v>
+        <v>718</v>
       </c>
       <c r="D310" s="30"/>
       <c r="E310" s="30" t="s">
@@ -11884,15 +11884,15 @@
       </c>
       <c r="I310" s="32"/>
     </row>
-    <row r="311" spans="1:9" ht="45">
+    <row r="311" spans="1:9" ht="75">
       <c r="A311" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B311" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C311" s="32" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="D311" s="30"/>
       <c r="E311" s="30" t="s">
@@ -11909,15 +11909,15 @@
       </c>
       <c r="I311" s="32"/>
     </row>
-    <row r="312" spans="1:9" ht="75">
+    <row r="312" spans="1:9" ht="120">
       <c r="A312" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B312" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C312" s="32" t="s">
-        <v>746</v>
+        <v>795</v>
       </c>
       <c r="D312" s="30"/>
       <c r="E312" s="30" t="s">
@@ -11930,19 +11930,19 @@
         <v>15</v>
       </c>
       <c r="H312" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I312" s="32"/>
     </row>
     <row r="313" spans="1:9" ht="120">
       <c r="A313" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B313" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C313" s="32" t="s">
-        <v>747</v>
+        <v>796</v>
       </c>
       <c r="D313" s="30"/>
       <c r="E313" s="30" t="s">
@@ -11955,19 +11955,21 @@
         <v>15</v>
       </c>
       <c r="H313" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I313" s="32"/>
-    </row>
-    <row r="314" spans="1:9" ht="120">
+        <v>17</v>
+      </c>
+      <c r="I313" s="32" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="45">
       <c r="A314" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B314" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C314" s="32" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="D314" s="30"/>
       <c r="E314" s="30" t="s">
@@ -11982,19 +11984,17 @@
       <c r="H314" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I314" s="32" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" ht="45">
+      <c r="I314" s="32"/>
+    </row>
+    <row r="315" spans="1:9" ht="90">
       <c r="A315" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B315" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C315" s="32" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
       <c r="D315" s="30"/>
       <c r="E315" s="30" t="s">
@@ -12011,15 +12011,15 @@
       </c>
       <c r="I315" s="32"/>
     </row>
-    <row r="316" spans="1:9" ht="90">
+    <row r="316" spans="1:9" ht="105">
       <c r="A316" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B316" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C316" s="32" t="s">
-        <v>750</v>
+        <v>797</v>
       </c>
       <c r="D316" s="30"/>
       <c r="E316" s="30" t="s">
@@ -12034,17 +12034,19 @@
       <c r="H316" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I316" s="32"/>
-    </row>
-    <row r="317" spans="1:9" ht="105">
+      <c r="I316" s="32" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="90">
       <c r="A317" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B317" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C317" s="32" t="s">
-        <v>751</v>
+        <v>798</v>
       </c>
       <c r="D317" s="30"/>
       <c r="E317" s="30" t="s">
@@ -12060,18 +12062,18 @@
         <v>17</v>
       </c>
       <c r="I317" s="32" t="s">
-        <v>819</v>
+        <v>758</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="90">
       <c r="A318" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B318" s="31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C318" s="32" t="s">
-        <v>752</v>
+        <v>722</v>
       </c>
       <c r="D318" s="30"/>
       <c r="E318" s="30" t="s">
@@ -12084,53 +12086,51 @@
         <v>15</v>
       </c>
       <c r="H318" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I318" s="32" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" ht="90">
+        <v>20</v>
+      </c>
+      <c r="I318" s="32"/>
+    </row>
+    <row r="319" spans="1:9" ht="45">
       <c r="A319" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B319" s="31" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C319" s="32" t="s">
-        <v>753</v>
+        <v>723</v>
       </c>
       <c r="D319" s="30"/>
       <c r="E319" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F319" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G319" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H319" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I319" s="32"/>
     </row>
     <row r="320" spans="1:9" ht="45">
       <c r="A320" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B320" s="31" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C320" s="32" t="s">
-        <v>754</v>
+        <v>724</v>
       </c>
       <c r="D320" s="30"/>
       <c r="E320" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F320" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G320" s="30" t="s">
         <v>16</v>
@@ -12140,22 +12140,22 @@
       </c>
       <c r="I320" s="32"/>
     </row>
-    <row r="321" spans="1:9" ht="45">
+    <row r="321" spans="1:9">
       <c r="A321" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B321" s="31" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C321" s="32" t="s">
-        <v>755</v>
+        <v>725</v>
       </c>
       <c r="D321" s="30"/>
       <c r="E321" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F321" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G321" s="30" t="s">
         <v>16</v>
@@ -12165,15 +12165,15 @@
       </c>
       <c r="I321" s="32"/>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" ht="30">
       <c r="A322" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B322" s="31" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C322" s="32" t="s">
-        <v>756</v>
+        <v>726</v>
       </c>
       <c r="D322" s="30"/>
       <c r="E322" s="30" t="s">
@@ -12183,22 +12183,22 @@
         <v>7</v>
       </c>
       <c r="G322" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H322" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I322" s="32"/>
     </row>
-    <row r="323" spans="1:9" ht="30">
+    <row r="323" spans="1:9">
       <c r="A323" s="30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B323" s="31" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C323" s="32" t="s">
-        <v>757</v>
+        <v>727</v>
       </c>
       <c r="D323" s="30"/>
       <c r="E323" s="30" t="s">
@@ -12217,23 +12217,23 @@
     </row>
     <row r="324" spans="1:9">
       <c r="A324" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B324" s="31" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C324" s="32" t="s">
-        <v>758</v>
+        <v>728</v>
       </c>
       <c r="D324" s="30"/>
       <c r="E324" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F324" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G324" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H324" s="30" t="s">
         <v>18</v>
@@ -12242,13 +12242,13 @@
     </row>
     <row r="325" spans="1:9">
       <c r="A325" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B325" s="31" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C325" s="32" t="s">
-        <v>759</v>
+        <v>729</v>
       </c>
       <c r="D325" s="30"/>
       <c r="E325" s="30" t="s">
@@ -12258,54 +12258,54 @@
         <v>6</v>
       </c>
       <c r="G325" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H325" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I325" s="32"/>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" ht="45">
       <c r="A326" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B326" s="31" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C326" s="32" t="s">
-        <v>760</v>
+        <v>730</v>
       </c>
       <c r="D326" s="30"/>
       <c r="E326" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F326" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G326" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H326" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I326" s="32"/>
     </row>
     <row r="327" spans="1:9" ht="45">
       <c r="A327" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B327" s="31" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C327" s="32" t="s">
-        <v>761</v>
+        <v>731</v>
       </c>
       <c r="D327" s="30"/>
       <c r="E327" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F327" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G327" s="30" t="s">
         <v>16</v>
@@ -12315,40 +12315,40 @@
       </c>
       <c r="I327" s="32"/>
     </row>
-    <row r="328" spans="1:9" ht="45">
+    <row r="328" spans="1:9" ht="225">
       <c r="A328" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B328" s="31" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C328" s="32" t="s">
-        <v>762</v>
+        <v>732</v>
       </c>
       <c r="D328" s="30"/>
       <c r="E328" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F328" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G328" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H328" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I328" s="32"/>
     </row>
-    <row r="329" spans="1:9" ht="225">
+    <row r="329" spans="1:9" ht="30">
       <c r="A329" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B329" s="31" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C329" s="32" t="s">
-        <v>763</v>
+        <v>733</v>
       </c>
       <c r="D329" s="30"/>
       <c r="E329" s="30" t="s">
@@ -12365,15 +12365,15 @@
       </c>
       <c r="I329" s="32"/>
     </row>
-    <row r="330" spans="1:9" ht="30">
+    <row r="330" spans="1:9">
       <c r="A330" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B330" s="31" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C330" s="32" t="s">
-        <v>764</v>
+        <v>734</v>
       </c>
       <c r="D330" s="30"/>
       <c r="E330" s="30" t="s">
@@ -12383,7 +12383,7 @@
         <v>7</v>
       </c>
       <c r="G330" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H330" s="30" t="s">
         <v>18</v>
@@ -12392,13 +12392,13 @@
     </row>
     <row r="331" spans="1:9">
       <c r="A331" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B331" s="31" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C331" s="32" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
       <c r="D331" s="30"/>
       <c r="E331" s="30" t="s">
@@ -12408,22 +12408,22 @@
         <v>7</v>
       </c>
       <c r="G331" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H331" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I331" s="32"/>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" ht="30">
       <c r="A332" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B332" s="31" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C332" s="32" t="s">
-        <v>766</v>
+        <v>736</v>
       </c>
       <c r="D332" s="30"/>
       <c r="E332" s="30" t="s">
@@ -12440,15 +12440,15 @@
       </c>
       <c r="I332" s="32"/>
     </row>
-    <row r="333" spans="1:9" ht="30">
+    <row r="333" spans="1:9">
       <c r="A333" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B333" s="31" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C333" s="32" t="s">
-        <v>767</v>
+        <v>737</v>
       </c>
       <c r="D333" s="30"/>
       <c r="E333" s="30" t="s">
@@ -12465,15 +12465,15 @@
       </c>
       <c r="I333" s="32"/>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" ht="30">
       <c r="A334" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B334" s="31" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C334" s="32" t="s">
-        <v>768</v>
+        <v>738</v>
       </c>
       <c r="D334" s="30"/>
       <c r="E334" s="30" t="s">
@@ -12492,13 +12492,13 @@
     </row>
     <row r="335" spans="1:9" ht="30">
       <c r="A335" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B335" s="31" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C335" s="32" t="s">
-        <v>769</v>
+        <v>739</v>
       </c>
       <c r="D335" s="30"/>
       <c r="E335" s="30" t="s">
@@ -12515,15 +12515,15 @@
       </c>
       <c r="I335" s="32"/>
     </row>
-    <row r="336" spans="1:9" ht="30">
+    <row r="336" spans="1:9" ht="45">
       <c r="A336" s="30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B336" s="31" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C336" s="32" t="s">
-        <v>770</v>
+        <v>799</v>
       </c>
       <c r="D336" s="30"/>
       <c r="E336" s="30" t="s">
@@ -12540,40 +12540,40 @@
       </c>
       <c r="I336" s="32"/>
     </row>
-    <row r="337" spans="1:9" ht="45">
+    <row r="337" spans="1:9" ht="150">
       <c r="A337" s="30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B337" s="31" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C337" s="32" t="s">
-        <v>771</v>
+        <v>740</v>
       </c>
       <c r="D337" s="30"/>
       <c r="E337" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F337" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G337" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H337" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I337" s="32"/>
     </row>
-    <row r="338" spans="1:9" ht="150">
+    <row r="338" spans="1:9" ht="45">
       <c r="A338" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B338" s="31" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C338" s="32" t="s">
-        <v>772</v>
+        <v>741</v>
       </c>
       <c r="D338" s="30"/>
       <c r="E338" s="30" t="s">
@@ -12592,38 +12592,38 @@
     </row>
     <row r="339" spans="1:9" ht="45">
       <c r="A339" s="30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B339" s="31" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C339" s="32" t="s">
-        <v>773</v>
+        <v>800</v>
       </c>
       <c r="D339" s="30"/>
       <c r="E339" s="30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F339" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G339" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H339" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I339" s="32"/>
     </row>
-    <row r="340" spans="1:9" ht="45">
+    <row r="340" spans="1:9" ht="30">
       <c r="A340" s="30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B340" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C340" s="32" t="s">
-        <v>774</v>
+        <v>801</v>
       </c>
       <c r="D340" s="30"/>
       <c r="E340" s="30" t="s">
@@ -12640,44 +12640,46 @@
       </c>
       <c r="I340" s="32"/>
     </row>
-    <row r="341" spans="1:9" ht="30">
+    <row r="341" spans="1:9" ht="45">
       <c r="A341" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B341" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C341" s="32" t="s">
-        <v>775</v>
-      </c>
-      <c r="D341" s="30"/>
+        <v>802</v>
+      </c>
+      <c r="D341" s="30" t="s">
+        <v>743</v>
+      </c>
       <c r="E341" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F341" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G341" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H341" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I341" s="32"/>
-    </row>
-    <row r="342" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I341" s="32" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" ht="30">
       <c r="A342" s="30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B342" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C342" s="32" t="s">
-        <v>776</v>
-      </c>
-      <c r="D342" s="30" t="s">
-        <v>801</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="D342" s="30"/>
       <c r="E342" s="30" t="s">
         <v>22</v>
       </c>
@@ -12688,21 +12690,19 @@
         <v>15</v>
       </c>
       <c r="H342" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I342" s="32" t="s">
-        <v>821</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I342" s="32"/>
     </row>
     <row r="343" spans="1:9" ht="30">
       <c r="A343" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B343" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C343" s="32" t="s">
-        <v>777</v>
+        <v>804</v>
       </c>
       <c r="D343" s="30"/>
       <c r="E343" s="30" t="s">
@@ -12719,15 +12719,15 @@
       </c>
       <c r="I343" s="32"/>
     </row>
-    <row r="344" spans="1:9" ht="30">
+    <row r="344" spans="1:9" ht="45">
       <c r="A344" s="30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B344" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C344" s="32" t="s">
-        <v>778</v>
+        <v>805</v>
       </c>
       <c r="D344" s="30"/>
       <c r="E344" s="30" t="s">
@@ -12744,15 +12744,15 @@
       </c>
       <c r="I344" s="32"/>
     </row>
-    <row r="345" spans="1:9" ht="45">
+    <row r="345" spans="1:9" ht="30">
       <c r="A345" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B345" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C345" s="32" t="s">
-        <v>779</v>
+        <v>806</v>
       </c>
       <c r="D345" s="30"/>
       <c r="E345" s="30" t="s">
@@ -12769,17 +12769,19 @@
       </c>
       <c r="I345" s="32"/>
     </row>
-    <row r="346" spans="1:9" ht="30">
+    <row r="346" spans="1:9" ht="45">
       <c r="A346" s="30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B346" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C346" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="D346" s="30"/>
+        <v>807</v>
+      </c>
+      <c r="D346" s="30" t="s">
+        <v>744</v>
+      </c>
       <c r="E346" s="30" t="s">
         <v>22</v>
       </c>
@@ -12790,22 +12792,24 @@
         <v>15</v>
       </c>
       <c r="H346" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I346" s="32"/>
+        <v>20</v>
+      </c>
+      <c r="I346" s="32" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="347" spans="1:9" ht="45">
       <c r="A347" s="30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B347" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C347" s="32" t="s">
-        <v>781</v>
+        <v>808</v>
       </c>
       <c r="D347" s="30" t="s">
-        <v>802</v>
+        <v>744</v>
       </c>
       <c r="E347" s="30" t="s">
         <v>22</v>
@@ -12820,21 +12824,21 @@
         <v>20</v>
       </c>
       <c r="I347" s="32" t="s">
-        <v>821</v>
+        <v>759</v>
       </c>
     </row>
     <row r="348" spans="1:9" ht="45">
       <c r="A348" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B348" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C348" s="32" t="s">
-        <v>782</v>
+        <v>809</v>
       </c>
       <c r="D348" s="30" t="s">
-        <v>802</v>
+        <v>745</v>
       </c>
       <c r="E348" s="30" t="s">
         <v>22</v>
@@ -12846,23 +12850,23 @@
         <v>15</v>
       </c>
       <c r="H348" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I348" s="32" t="s">
-        <v>821</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I348" s="32"/>
     </row>
     <row r="349" spans="1:9" ht="45">
       <c r="A349" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B349" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C349" s="32" t="s">
-        <v>783</v>
-      </c>
-      <c r="D349" s="30"/>
+        <v>810</v>
+      </c>
+      <c r="D349" s="30" t="s">
+        <v>745</v>
+      </c>
       <c r="E349" s="30" t="s">
         <v>22</v>
       </c>
@@ -12873,22 +12877,24 @@
         <v>15</v>
       </c>
       <c r="H349" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I349" s="32"/>
-    </row>
-    <row r="350" spans="1:9" ht="45">
+        <v>20</v>
+      </c>
+      <c r="I349" s="32" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" ht="30">
       <c r="A350" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B350" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C350" s="32" t="s">
-        <v>784</v>
+        <v>811</v>
       </c>
       <c r="D350" s="30" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="E350" s="30" t="s">
         <v>22</v>
@@ -12900,23 +12906,23 @@
         <v>15</v>
       </c>
       <c r="H350" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I350" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I350" s="32"/>
+    </row>
+    <row r="351" spans="1:9" ht="45">
       <c r="A351" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B351" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C351" s="32" t="s">
-        <v>785</v>
-      </c>
-      <c r="D351" s="30"/>
+        <v>812</v>
+      </c>
+      <c r="D351" s="30" t="s">
+        <v>746</v>
+      </c>
       <c r="E351" s="30" t="s">
         <v>22</v>
       </c>
@@ -12927,28 +12933,30 @@
         <v>15</v>
       </c>
       <c r="H351" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I351" s="32"/>
+        <v>20</v>
+      </c>
+      <c r="I351" s="32" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="352" spans="1:9" ht="45">
       <c r="A352" s="30" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="B352" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C352" s="32" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="D352" s="30" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="E352" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F352" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G352" s="30" t="s">
         <v>15</v>
@@ -12957,25 +12965,27 @@
         <v>20</v>
       </c>
       <c r="I352" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" ht="45">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" ht="30">
       <c r="A353" s="30" t="s">
-        <v>375</v>
+        <v>818</v>
       </c>
       <c r="B353" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C353" s="32" t="s">
-        <v>787</v>
-      </c>
-      <c r="D353" s="30"/>
+        <v>815</v>
+      </c>
+      <c r="D353" s="30" t="s">
+        <v>814</v>
+      </c>
       <c r="E353" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F353" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G353" s="30" t="s">
         <v>15</v>
@@ -12987,47 +12997,51 @@
     </row>
     <row r="354" spans="1:9" ht="45">
       <c r="A354" s="30" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="B354" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C354" s="32" t="s">
-        <v>784</v>
+        <v>830</v>
       </c>
       <c r="D354" s="30" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="E354" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F354" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G354" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H354" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I354" s="32"/>
+        <v>20</v>
+      </c>
+      <c r="I354" s="32" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="355" spans="1:9" ht="30">
       <c r="A355" s="30" t="s">
-        <v>377</v>
+        <v>820</v>
       </c>
       <c r="B355" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C355" s="32" t="s">
-        <v>788</v>
-      </c>
-      <c r="D355" s="30"/>
+        <v>815</v>
+      </c>
+      <c r="D355" s="30" t="s">
+        <v>819</v>
+      </c>
       <c r="E355" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F355" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G355" s="30" t="s">
         <v>15</v>
@@ -13037,18 +13051,18 @@
       </c>
       <c r="I355" s="32"/>
     </row>
-    <row r="356" spans="1:9" ht="30">
+    <row r="356" spans="1:9" ht="45">
       <c r="A356" s="30" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B356" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C356" s="32" t="s">
-        <v>786</v>
+        <v>821</v>
       </c>
       <c r="D356" s="30" t="s">
-        <v>806</v>
+        <v>747</v>
       </c>
       <c r="E356" s="30" t="s">
         <v>22</v>
@@ -13060,22 +13074,22 @@
         <v>15</v>
       </c>
       <c r="H356" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I356" s="32"/>
     </row>
-    <row r="357" spans="1:9" ht="75">
+    <row r="357" spans="1:9" ht="45">
       <c r="A357" s="30" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B357" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C357" s="32" t="s">
-        <v>789</v>
+        <v>810</v>
       </c>
       <c r="D357" s="30" t="s">
-        <v>807</v>
+        <v>747</v>
       </c>
       <c r="E357" s="30" t="s">
         <v>22</v>
@@ -13087,24 +13101,22 @@
         <v>15</v>
       </c>
       <c r="H357" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I357" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" ht="75">
+        <v>18</v>
+      </c>
+      <c r="I357" s="32"/>
+    </row>
+    <row r="358" spans="1:9" ht="30">
       <c r="A358" s="30" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B358" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C358" s="32" t="s">
-        <v>790</v>
+        <v>822</v>
       </c>
       <c r="D358" s="30" t="s">
-        <v>807</v>
+        <v>748</v>
       </c>
       <c r="E358" s="30" t="s">
         <v>22</v>
@@ -13116,24 +13128,22 @@
         <v>15</v>
       </c>
       <c r="H358" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I358" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" ht="75">
+        <v>17</v>
+      </c>
+      <c r="I358" s="32"/>
+    </row>
+    <row r="359" spans="1:9" ht="30">
       <c r="A359" s="30" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B359" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C359" s="32" t="s">
-        <v>791</v>
+        <v>812</v>
       </c>
       <c r="D359" s="30" t="s">
-        <v>807</v>
+        <v>748</v>
       </c>
       <c r="E359" s="30" t="s">
         <v>22</v>
@@ -13145,28 +13155,28 @@
         <v>15</v>
       </c>
       <c r="H359" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I359" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I359" s="32"/>
+    </row>
+    <row r="360" spans="1:9" ht="30">
       <c r="A360" s="30" t="s">
-        <v>382</v>
+        <v>824</v>
       </c>
       <c r="B360" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C360" s="32" t="s">
-        <v>792</v>
-      </c>
-      <c r="D360" s="30"/>
+        <v>832</v>
+      </c>
+      <c r="D360" s="30" t="s">
+        <v>826</v>
+      </c>
       <c r="E360" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F360" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G360" s="30" t="s">
         <v>15</v>
@@ -13176,103 +13186,99 @@
       </c>
       <c r="I360" s="32"/>
     </row>
-    <row r="361" spans="1:9" ht="75">
+    <row r="361" spans="1:9" ht="30">
       <c r="A361" s="30" t="s">
-        <v>383</v>
+        <v>825</v>
       </c>
       <c r="B361" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C361" s="32" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D361" s="30" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="E361" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F361" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G361" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H361" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I361" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" ht="90">
+        <v>17</v>
+      </c>
+      <c r="I361" s="32"/>
+    </row>
+    <row r="362" spans="1:9" ht="45">
       <c r="A362" s="30" t="s">
-        <v>384</v>
+        <v>834</v>
       </c>
       <c r="B362" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C362" s="32" t="s">
-        <v>793</v>
+        <v>831</v>
       </c>
       <c r="D362" s="30" t="s">
-        <v>808</v>
+        <v>836</v>
       </c>
       <c r="E362" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F362" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G362" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H362" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I362" s="32"/>
     </row>
-    <row r="363" spans="1:9" ht="105">
+    <row r="363" spans="1:9" ht="45">
       <c r="A363" s="30" t="s">
-        <v>385</v>
+        <v>835</v>
       </c>
       <c r="B363" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C363" s="32" t="s">
-        <v>794</v>
+        <v>828</v>
       </c>
       <c r="D363" s="30" t="s">
-        <v>808</v>
+        <v>836</v>
       </c>
       <c r="E363" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F363" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G363" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H363" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I363" s="32" t="s">
-        <v>821</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I363" s="32"/>
     </row>
     <row r="364" spans="1:9" ht="75">
       <c r="A364" s="30" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B364" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C364" s="32" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="D364" s="30" t="s">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="E364" s="30" t="s">
         <v>22</v>
@@ -13287,21 +13293,21 @@
         <v>20</v>
       </c>
       <c r="I364" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" ht="60">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" ht="75">
       <c r="A365" s="30" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B365" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C365" s="32" t="s">
-        <v>795</v>
+        <v>840</v>
       </c>
       <c r="D365" s="30" t="s">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="E365" s="30" t="s">
         <v>22</v>
@@ -13313,22 +13319,24 @@
         <v>15</v>
       </c>
       <c r="H365" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I365" s="32"/>
-    </row>
-    <row r="366" spans="1:9" ht="60">
+        <v>20</v>
+      </c>
+      <c r="I365" s="32" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" ht="75">
       <c r="A366" s="30" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B366" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C366" s="32" t="s">
-        <v>796</v>
+        <v>841</v>
       </c>
       <c r="D366" s="30" t="s">
-        <v>810</v>
+        <v>749</v>
       </c>
       <c r="E366" s="30" t="s">
         <v>22</v>
@@ -13343,22 +13351,20 @@
         <v>20</v>
       </c>
       <c r="I366" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" ht="75">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" ht="45">
       <c r="A367" s="30" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B367" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C367" s="32" t="s">
-        <v>797</v>
-      </c>
-      <c r="D367" s="30" t="s">
-        <v>810</v>
-      </c>
+        <v>842</v>
+      </c>
+      <c r="D367" s="30"/>
       <c r="E367" s="30" t="s">
         <v>22</v>
       </c>
@@ -13369,25 +13375,21 @@
         <v>15</v>
       </c>
       <c r="H367" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I367" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" ht="105">
+        <v>17</v>
+      </c>
+      <c r="I367" s="32"/>
+    </row>
+    <row r="368" spans="1:9" ht="75">
       <c r="A368" s="30" t="s">
-        <v>390</v>
+        <v>848</v>
       </c>
       <c r="B368" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C368" s="32" t="s">
-        <v>825</v>
-      </c>
-      <c r="D368" s="30" t="s">
-        <v>811</v>
-      </c>
+        <v>853</v>
+      </c>
+      <c r="D368" s="30"/>
       <c r="E368" s="30" t="s">
         <v>22</v>
       </c>
@@ -13401,22 +13403,20 @@
         <v>20</v>
       </c>
       <c r="I368" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" ht="105">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" ht="75">
       <c r="A369" s="30" t="s">
-        <v>391</v>
+        <v>849</v>
       </c>
       <c r="B369" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C369" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="D369" s="30" t="s">
-        <v>811</v>
-      </c>
+        <v>854</v>
+      </c>
+      <c r="D369" s="30"/>
       <c r="E369" s="30" t="s">
         <v>22</v>
       </c>
@@ -13427,25 +13427,21 @@
         <v>15</v>
       </c>
       <c r="H369" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I369" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" ht="105">
+        <v>17</v>
+      </c>
+      <c r="I369" s="32"/>
+    </row>
+    <row r="370" spans="1:9" ht="75">
       <c r="A370" s="30" t="s">
-        <v>392</v>
+        <v>856</v>
       </c>
       <c r="B370" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C370" s="32" t="s">
-        <v>827</v>
-      </c>
-      <c r="D370" s="30" t="s">
-        <v>812</v>
-      </c>
+        <v>855</v>
+      </c>
+      <c r="D370" s="30"/>
       <c r="E370" s="30" t="s">
         <v>22</v>
       </c>
@@ -13459,22 +13455,20 @@
         <v>20</v>
       </c>
       <c r="I370" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" ht="45">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" ht="75">
       <c r="A371" s="30" t="s">
-        <v>393</v>
+        <v>857</v>
       </c>
       <c r="B371" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C371" s="32" t="s">
-        <v>798</v>
-      </c>
-      <c r="D371" s="30" t="s">
-        <v>812</v>
-      </c>
+        <v>854</v>
+      </c>
+      <c r="D371" s="30"/>
       <c r="E371" s="30" t="s">
         <v>22</v>
       </c>
@@ -13485,21 +13479,23 @@
         <v>15</v>
       </c>
       <c r="H371" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I371" s="32"/>
     </row>
-    <row r="372" spans="1:9" ht="45">
+    <row r="372" spans="1:9" ht="60">
       <c r="A372" s="30" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B372" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C372" s="32" t="s">
-        <v>799</v>
-      </c>
-      <c r="D372" s="30"/>
+        <v>844</v>
+      </c>
+      <c r="D372" s="30" t="s">
+        <v>750</v>
+      </c>
       <c r="E372" s="30" t="s">
         <v>22</v>
       </c>
@@ -13510,28 +13506,30 @@
         <v>15</v>
       </c>
       <c r="H372" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I372" s="32"/>
-    </row>
-    <row r="373" spans="1:9" ht="45">
+        <v>20</v>
+      </c>
+      <c r="I372" s="32" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" ht="75">
       <c r="A373" s="30" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B373" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C373" s="32" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
       <c r="D373" s="30" t="s">
-        <v>842</v>
+        <v>750</v>
       </c>
       <c r="E373" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F373" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G373" s="30" t="s">
         <v>15</v>
@@ -13540,27 +13538,27 @@
         <v>20</v>
       </c>
       <c r="I373" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" ht="45">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" ht="105">
       <c r="A374" s="30" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B374" s="31" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C374" s="32" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D374" s="30" t="s">
-        <v>843</v>
+        <v>751</v>
       </c>
       <c r="E374" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F374" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G374" s="30" t="s">
         <v>15</v>
@@ -13569,24 +13567,131 @@
         <v>20</v>
       </c>
       <c r="I374" s="32" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9">
-      <c r="A375" s="3"/>
-      <c r="B375" s="10"/>
-    </row>
-    <row r="376" spans="1:9">
-      <c r="A376" s="3"/>
-      <c r="B376" s="10"/>
+        <v>759</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" ht="105">
+      <c r="A375" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B375" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="C375" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="D375" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="E375" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F375" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G375" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H375" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I375" s="32" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" ht="90">
+      <c r="A376" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B376" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="C376" s="32" t="s">
+        <v>846</v>
+      </c>
+      <c r="D376" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="E376" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F376" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G376" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H376" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I376" s="32" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" ht="45">
+      <c r="A377" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="B377" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="C377" s="32" t="s">
+        <v>847</v>
+      </c>
+      <c r="D377" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="E377" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F377" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G377" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H377" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I377" s="32" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" ht="45">
+      <c r="A378" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="B378" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="C378" s="32" t="s">
+        <v>845</v>
+      </c>
+      <c r="D378" s="30"/>
+      <c r="E378" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F378" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G378" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H378" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I378" s="32"/>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" s="3"/>
+      <c r="B379" s="10"/>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" s="3"/>
+      <c r="B380" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -13594,58 +13699,41 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A20:H307 A34:I374">
-    <cfRule type="expression" dxfId="40" priority="67">
+  <conditionalFormatting sqref="A20:H304 I20:I307 A34:I378">
+    <cfRule type="expression" dxfId="34" priority="67">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="68">
+    <cfRule type="expression" dxfId="33" priority="68">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="75">
+    <cfRule type="expression" dxfId="32" priority="75">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:H307 A34:I374">
-    <cfRule type="expression" dxfId="37" priority="21">
+  <conditionalFormatting sqref="A20:H304 I20:I307 A34:I378">
+    <cfRule type="expression" dxfId="31" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="22">
+    <cfRule type="expression" dxfId="30" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="23">
+    <cfRule type="expression" dxfId="29" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F307 F309:F374">
-    <cfRule type="expression" dxfId="34" priority="27">
+  <conditionalFormatting sqref="F20:F307 F309:F378">
+    <cfRule type="expression" dxfId="28" priority="27">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="28">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I307">
-    <cfRule type="expression" dxfId="32" priority="18">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="19">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="20">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I307">
-    <cfRule type="expression" dxfId="29" priority="15">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="16">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="17">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F308">
@@ -13679,20 +13767,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F374">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F378">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E374">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E378">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G374">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G378">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H374">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H378">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13702,7 +13790,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B309:B339 B19:B308 B374 B375:B376 B340:B373 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="B19:B147 B149:B351 B378:B380 B356:B359 B364:B367 B372:B377" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -13712,6 +13800,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -13760,32 +13863,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13799,15 +13886,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-OFFICIALFILE/MS-OFFICIALFILE_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-OFFICIALFILE/MS-OFFICIALFILE_RequirementSpecification.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17301"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source Depot\Repos\Interop-TestSuites-1\SharePoint\Docs\MS-OFFICIALFILE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
   </bookViews>
@@ -3041,7 +3046,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -3996,7 +4001,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4029,9 +4034,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4064,6 +4086,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4243,21 +4282,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C377" sqref="C377"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
     <col min="10" max="11" width="9" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
@@ -4598,7 +4635,7 @@
       </c>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A21" s="22" t="s">
         <v>45</v>
       </c>
@@ -4675,7 +4712,7 @@
       </c>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="60">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A24" s="22" t="s">
         <v>48</v>
       </c>
@@ -4700,7 +4737,7 @@
       </c>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:12" s="23" customFormat="1" ht="60">
+    <row r="25" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A25" s="22" t="s">
         <v>49</v>
       </c>
@@ -4725,7 +4762,7 @@
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="23" customFormat="1" ht="60">
+    <row r="26" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A26" s="22" t="s">
         <v>50</v>
       </c>
@@ -4750,7 +4787,7 @@
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="27" spans="1:12" s="23" customFormat="1">
       <c r="A27" s="22" t="s">
         <v>51</v>
       </c>
@@ -4875,7 +4912,7 @@
       </c>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="32" spans="1:12" s="23" customFormat="1">
       <c r="A32" s="22" t="s">
         <v>56</v>
       </c>
@@ -4900,7 +4937,7 @@
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="30">
+    <row r="33" spans="1:9" s="23" customFormat="1">
       <c r="A33" s="22" t="s">
         <v>57</v>
       </c>
@@ -4950,7 +4987,7 @@
       </c>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:9" ht="45">
+    <row r="35" spans="1:9" ht="30">
       <c r="A35" s="30" t="s">
         <v>59</v>
       </c>
@@ -5025,7 +5062,7 @@
       </c>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:9" ht="45">
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" s="30" t="s">
         <v>62</v>
       </c>
@@ -5250,7 +5287,7 @@
       </c>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:9" ht="150">
+    <row r="47" spans="1:9" ht="120">
       <c r="A47" s="30" t="s">
         <v>71</v>
       </c>
@@ -5275,7 +5312,7 @@
       </c>
       <c r="I47" s="32"/>
     </row>
-    <row r="48" spans="1:9" ht="30">
+    <row r="48" spans="1:9">
       <c r="A48" s="30" t="s">
         <v>72</v>
       </c>
@@ -5325,7 +5362,7 @@
       </c>
       <c r="I49" s="32"/>
     </row>
-    <row r="50" spans="1:9" ht="120">
+    <row r="50" spans="1:9" ht="90">
       <c r="A50" s="30" t="s">
         <v>74</v>
       </c>
@@ -5400,7 +5437,7 @@
       </c>
       <c r="I52" s="32"/>
     </row>
-    <row r="53" spans="1:9" ht="165">
+    <row r="53" spans="1:9" ht="150">
       <c r="A53" s="30" t="s">
         <v>77</v>
       </c>
@@ -5475,7 +5512,7 @@
       </c>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" spans="1:9" ht="30">
+    <row r="56" spans="1:9">
       <c r="A56" s="30" t="s">
         <v>80</v>
       </c>
@@ -5500,7 +5537,7 @@
       </c>
       <c r="I56" s="32"/>
     </row>
-    <row r="57" spans="1:9" ht="30">
+    <row r="57" spans="1:9">
       <c r="A57" s="30" t="s">
         <v>81</v>
       </c>
@@ -5700,7 +5737,7 @@
       </c>
       <c r="I64" s="32"/>
     </row>
-    <row r="65" spans="1:9" ht="45">
+    <row r="65" spans="1:9" ht="30">
       <c r="A65" s="30" t="s">
         <v>89</v>
       </c>
@@ -5750,7 +5787,7 @@
       </c>
       <c r="I66" s="32"/>
     </row>
-    <row r="67" spans="1:9" ht="30">
+    <row r="67" spans="1:9">
       <c r="A67" s="30" t="s">
         <v>91</v>
       </c>
@@ -5800,7 +5837,7 @@
       </c>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:9" ht="30">
+    <row r="69" spans="1:9">
       <c r="A69" s="30" t="s">
         <v>93</v>
       </c>
@@ -5875,7 +5912,7 @@
       </c>
       <c r="I71" s="32"/>
     </row>
-    <row r="72" spans="1:9" ht="45">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="30" t="s">
         <v>96</v>
       </c>
@@ -6000,7 +6037,7 @@
       </c>
       <c r="I76" s="32"/>
     </row>
-    <row r="77" spans="1:9" ht="45">
+    <row r="77" spans="1:9" ht="30">
       <c r="A77" s="30" t="s">
         <v>101</v>
       </c>
@@ -6025,7 +6062,7 @@
       </c>
       <c r="I77" s="32"/>
     </row>
-    <row r="78" spans="1:9" ht="30">
+    <row r="78" spans="1:9">
       <c r="A78" s="30" t="s">
         <v>102</v>
       </c>
@@ -6300,7 +6337,7 @@
       </c>
       <c r="I88" s="32"/>
     </row>
-    <row r="89" spans="1:9" ht="60">
+    <row r="89" spans="1:9" ht="45">
       <c r="A89" s="30" t="s">
         <v>113</v>
       </c>
@@ -6327,7 +6364,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="30">
+    <row r="90" spans="1:9">
       <c r="A90" s="30" t="s">
         <v>114</v>
       </c>
@@ -6352,7 +6389,7 @@
       </c>
       <c r="I90" s="32"/>
     </row>
-    <row r="91" spans="1:9" ht="30">
+    <row r="91" spans="1:9">
       <c r="A91" s="30" t="s">
         <v>115</v>
       </c>
@@ -6377,7 +6414,7 @@
       </c>
       <c r="I91" s="32"/>
     </row>
-    <row r="92" spans="1:9" ht="195">
+    <row r="92" spans="1:9" ht="165">
       <c r="A92" s="30" t="s">
         <v>116</v>
       </c>
@@ -6602,7 +6639,7 @@
       </c>
       <c r="I100" s="32"/>
     </row>
-    <row r="101" spans="1:9" ht="30">
+    <row r="101" spans="1:9">
       <c r="A101" s="30" t="s">
         <v>125</v>
       </c>
@@ -6627,7 +6664,7 @@
       </c>
       <c r="I101" s="32"/>
     </row>
-    <row r="102" spans="1:9" ht="135">
+    <row r="102" spans="1:9" ht="120">
       <c r="A102" s="30" t="s">
         <v>126</v>
       </c>
@@ -6702,7 +6739,7 @@
       </c>
       <c r="I104" s="32"/>
     </row>
-    <row r="105" spans="1:9" ht="30">
+    <row r="105" spans="1:9">
       <c r="A105" s="30" t="s">
         <v>129</v>
       </c>
@@ -6723,7 +6760,7 @@
         <v>15</v>
       </c>
       <c r="H105" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I105" s="32"/>
     </row>
@@ -6748,11 +6785,11 @@
         <v>15</v>
       </c>
       <c r="H106" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I106" s="32"/>
     </row>
-    <row r="107" spans="1:9" ht="30">
+    <row r="107" spans="1:9">
       <c r="A107" s="30" t="s">
         <v>131</v>
       </c>
@@ -6777,7 +6814,7 @@
       </c>
       <c r="I107" s="32"/>
     </row>
-    <row r="108" spans="1:9" ht="210">
+    <row r="108" spans="1:9" ht="195">
       <c r="A108" s="30" t="s">
         <v>132</v>
       </c>
@@ -7127,7 +7164,7 @@
       </c>
       <c r="I121" s="32"/>
     </row>
-    <row r="122" spans="1:9" ht="30">
+    <row r="122" spans="1:9">
       <c r="A122" s="30" t="s">
         <v>146</v>
       </c>
@@ -7152,7 +7189,7 @@
       </c>
       <c r="I122" s="32"/>
     </row>
-    <row r="123" spans="1:9" ht="45">
+    <row r="123" spans="1:9" ht="30">
       <c r="A123" s="30" t="s">
         <v>147</v>
       </c>
@@ -7252,7 +7289,7 @@
       </c>
       <c r="I126" s="32"/>
     </row>
-    <row r="127" spans="1:9" ht="60">
+    <row r="127" spans="1:9" ht="45">
       <c r="A127" s="30" t="s">
         <v>151</v>
       </c>
@@ -7352,7 +7389,7 @@
       </c>
       <c r="I130" s="32"/>
     </row>
-    <row r="131" spans="1:9" ht="45">
+    <row r="131" spans="1:9" ht="30">
       <c r="A131" s="30" t="s">
         <v>155</v>
       </c>
@@ -7552,7 +7589,7 @@
       </c>
       <c r="I138" s="32"/>
     </row>
-    <row r="139" spans="1:9" ht="45">
+    <row r="139" spans="1:9" ht="30">
       <c r="A139" s="30" t="s">
         <v>163</v>
       </c>
@@ -7602,7 +7639,7 @@
       </c>
       <c r="I140" s="32"/>
     </row>
-    <row r="141" spans="1:9" ht="60">
+    <row r="141" spans="1:9" ht="45">
       <c r="A141" s="30" t="s">
         <v>165</v>
       </c>
@@ -7629,7 +7666,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="45">
+    <row r="142" spans="1:9" ht="30">
       <c r="A142" s="30" t="s">
         <v>166</v>
       </c>
@@ -7656,7 +7693,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="45">
+    <row r="143" spans="1:9" ht="30">
       <c r="A143" s="30" t="s">
         <v>167</v>
       </c>
@@ -7683,7 +7720,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="45">
+    <row r="144" spans="1:9" ht="30">
       <c r="A144" s="30" t="s">
         <v>168</v>
       </c>
@@ -7760,7 +7797,7 @@
       </c>
       <c r="I146" s="32"/>
     </row>
-    <row r="147" spans="1:9" ht="45">
+    <row r="147" spans="1:9" ht="30">
       <c r="A147" s="30" t="s">
         <v>171</v>
       </c>
@@ -7837,7 +7874,7 @@
       </c>
       <c r="I149" s="32"/>
     </row>
-    <row r="150" spans="1:9" ht="60">
+    <row r="150" spans="1:9" ht="45">
       <c r="A150" s="30" t="s">
         <v>173</v>
       </c>
@@ -7862,7 +7899,7 @@
       </c>
       <c r="I150" s="32"/>
     </row>
-    <row r="151" spans="1:9" ht="90">
+    <row r="151" spans="1:9" ht="75">
       <c r="A151" s="30" t="s">
         <v>174</v>
       </c>
@@ -7887,7 +7924,7 @@
       </c>
       <c r="I151" s="32"/>
     </row>
-    <row r="152" spans="1:9" ht="90">
+    <row r="152" spans="1:9" ht="75">
       <c r="A152" s="30" t="s">
         <v>175</v>
       </c>
@@ -7912,7 +7949,7 @@
       </c>
       <c r="I152" s="32"/>
     </row>
-    <row r="153" spans="1:9" ht="90">
+    <row r="153" spans="1:9" ht="75">
       <c r="A153" s="30" t="s">
         <v>176</v>
       </c>
@@ -8012,7 +8049,7 @@
       </c>
       <c r="I156" s="32"/>
     </row>
-    <row r="157" spans="1:9" ht="90">
+    <row r="157" spans="1:9" ht="75">
       <c r="A157" s="30" t="s">
         <v>180</v>
       </c>
@@ -8037,7 +8074,7 @@
       </c>
       <c r="I157" s="32"/>
     </row>
-    <row r="158" spans="1:9" ht="105">
+    <row r="158" spans="1:9" ht="90">
       <c r="A158" s="30" t="s">
         <v>181</v>
       </c>
@@ -8087,7 +8124,7 @@
       </c>
       <c r="I159" s="32"/>
     </row>
-    <row r="160" spans="1:9" ht="90">
+    <row r="160" spans="1:9" ht="75">
       <c r="A160" s="30" t="s">
         <v>183</v>
       </c>
@@ -8114,7 +8151,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="75">
+    <row r="161" spans="1:9" ht="60">
       <c r="A161" s="30" t="s">
         <v>184</v>
       </c>
@@ -8141,7 +8178,7 @@
       </c>
       <c r="I161" s="32"/>
     </row>
-    <row r="162" spans="1:9" ht="105">
+    <row r="162" spans="1:9" ht="90">
       <c r="A162" s="30" t="s">
         <v>185</v>
       </c>
@@ -8191,7 +8228,7 @@
       </c>
       <c r="I163" s="32"/>
     </row>
-    <row r="164" spans="1:9" ht="90">
+    <row r="164" spans="1:9" ht="75">
       <c r="A164" s="30" t="s">
         <v>187</v>
       </c>
@@ -8216,7 +8253,7 @@
       </c>
       <c r="I164" s="32"/>
     </row>
-    <row r="165" spans="1:9" ht="105">
+    <row r="165" spans="1:9" ht="90">
       <c r="A165" s="30" t="s">
         <v>188</v>
       </c>
@@ -8241,7 +8278,7 @@
       </c>
       <c r="I165" s="32"/>
     </row>
-    <row r="166" spans="1:9" ht="150">
+    <row r="166" spans="1:9" ht="120">
       <c r="A166" s="30" t="s">
         <v>189</v>
       </c>
@@ -8266,7 +8303,7 @@
       </c>
       <c r="I166" s="32"/>
     </row>
-    <row r="167" spans="1:9" ht="165">
+    <row r="167" spans="1:9" ht="135">
       <c r="A167" s="30" t="s">
         <v>190</v>
       </c>
@@ -8291,7 +8328,7 @@
       </c>
       <c r="I167" s="32"/>
     </row>
-    <row r="168" spans="1:9" ht="60">
+    <row r="168" spans="1:9" ht="45">
       <c r="A168" s="30" t="s">
         <v>191</v>
       </c>
@@ -8316,7 +8353,7 @@
       </c>
       <c r="I168" s="32"/>
     </row>
-    <row r="169" spans="1:9" ht="60">
+    <row r="169" spans="1:9" ht="45">
       <c r="A169" s="30" t="s">
         <v>192</v>
       </c>
@@ -8366,7 +8403,7 @@
       </c>
       <c r="I170" s="32"/>
     </row>
-    <row r="171" spans="1:9" ht="45">
+    <row r="171" spans="1:9" ht="30">
       <c r="A171" s="30" t="s">
         <v>194</v>
       </c>
@@ -8516,7 +8553,7 @@
       </c>
       <c r="I176" s="32"/>
     </row>
-    <row r="177" spans="1:9" ht="225">
+    <row r="177" spans="1:9" ht="195">
       <c r="A177" s="30" t="s">
         <v>200</v>
       </c>
@@ -8616,7 +8653,7 @@
       </c>
       <c r="I180" s="32"/>
     </row>
-    <row r="181" spans="1:9" ht="180">
+    <row r="181" spans="1:9" ht="165">
       <c r="A181" s="30" t="s">
         <v>204</v>
       </c>
@@ -8641,7 +8678,7 @@
       </c>
       <c r="I181" s="32"/>
     </row>
-    <row r="182" spans="1:9" ht="60">
+    <row r="182" spans="1:9" ht="45">
       <c r="A182" s="30" t="s">
         <v>205</v>
       </c>
@@ -8716,7 +8753,7 @@
       </c>
       <c r="I184" s="32"/>
     </row>
-    <row r="185" spans="1:9" ht="180">
+    <row r="185" spans="1:9" ht="150">
       <c r="A185" s="30" t="s">
         <v>208</v>
       </c>
@@ -8741,7 +8778,7 @@
       </c>
       <c r="I185" s="32"/>
     </row>
-    <row r="186" spans="1:9" ht="30">
+    <row r="186" spans="1:9">
       <c r="A186" s="30" t="s">
         <v>209</v>
       </c>
@@ -8791,7 +8828,7 @@
       </c>
       <c r="I187" s="32"/>
     </row>
-    <row r="188" spans="1:9" ht="45">
+    <row r="188" spans="1:9" ht="30">
       <c r="A188" s="30" t="s">
         <v>211</v>
       </c>
@@ -8816,7 +8853,7 @@
       </c>
       <c r="I188" s="32"/>
     </row>
-    <row r="189" spans="1:9" ht="45">
+    <row r="189" spans="1:9" ht="30">
       <c r="A189" s="30" t="s">
         <v>212</v>
       </c>
@@ -8891,7 +8928,7 @@
       </c>
       <c r="I191" s="32"/>
     </row>
-    <row r="192" spans="1:9" ht="240">
+    <row r="192" spans="1:9" ht="225">
       <c r="A192" s="30" t="s">
         <v>215</v>
       </c>
@@ -9066,7 +9103,7 @@
       </c>
       <c r="I198" s="32"/>
     </row>
-    <row r="199" spans="1:9" ht="45">
+    <row r="199" spans="1:9" ht="30">
       <c r="A199" s="30" t="s">
         <v>222</v>
       </c>
@@ -9116,7 +9153,7 @@
       </c>
       <c r="I200" s="32"/>
     </row>
-    <row r="201" spans="1:9" ht="45">
+    <row r="201" spans="1:9" ht="30">
       <c r="A201" s="30" t="s">
         <v>224</v>
       </c>
@@ -9141,7 +9178,7 @@
       </c>
       <c r="I201" s="32"/>
     </row>
-    <row r="202" spans="1:9" ht="45">
+    <row r="202" spans="1:9" ht="30">
       <c r="A202" s="30" t="s">
         <v>225</v>
       </c>
@@ -9166,7 +9203,7 @@
       </c>
       <c r="I202" s="32"/>
     </row>
-    <row r="203" spans="1:9" ht="30">
+    <row r="203" spans="1:9">
       <c r="A203" s="30" t="s">
         <v>226</v>
       </c>
@@ -9216,7 +9253,7 @@
       </c>
       <c r="I204" s="32"/>
     </row>
-    <row r="205" spans="1:9" ht="45">
+    <row r="205" spans="1:9" ht="30">
       <c r="A205" s="30" t="s">
         <v>228</v>
       </c>
@@ -9366,7 +9403,7 @@
       </c>
       <c r="I210" s="32"/>
     </row>
-    <row r="211" spans="1:9" ht="45">
+    <row r="211" spans="1:9" ht="30">
       <c r="A211" s="30" t="s">
         <v>234</v>
       </c>
@@ -9393,7 +9430,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="90">
+    <row r="212" spans="1:9" ht="75">
       <c r="A212" s="30" t="s">
         <v>235</v>
       </c>
@@ -9418,7 +9455,7 @@
       </c>
       <c r="I212" s="32"/>
     </row>
-    <row r="213" spans="1:9" ht="45">
+    <row r="213" spans="1:9" ht="30">
       <c r="A213" s="30" t="s">
         <v>236</v>
       </c>
@@ -9443,7 +9480,7 @@
       </c>
       <c r="I213" s="32"/>
     </row>
-    <row r="214" spans="1:9" ht="60">
+    <row r="214" spans="1:9" ht="45">
       <c r="A214" s="30" t="s">
         <v>237</v>
       </c>
@@ -9593,7 +9630,7 @@
       </c>
       <c r="I219" s="32"/>
     </row>
-    <row r="220" spans="1:9" ht="30">
+    <row r="220" spans="1:9">
       <c r="A220" s="30" t="s">
         <v>243</v>
       </c>
@@ -9643,7 +9680,7 @@
       </c>
       <c r="I221" s="32"/>
     </row>
-    <row r="222" spans="1:9" ht="45">
+    <row r="222" spans="1:9" ht="30">
       <c r="A222" s="30" t="s">
         <v>245</v>
       </c>
@@ -9693,7 +9730,7 @@
       </c>
       <c r="I223" s="32"/>
     </row>
-    <row r="224" spans="1:9" ht="75">
+    <row r="224" spans="1:9" ht="60">
       <c r="A224" s="30" t="s">
         <v>247</v>
       </c>
@@ -9718,7 +9755,7 @@
       </c>
       <c r="I224" s="32"/>
     </row>
-    <row r="225" spans="1:9" ht="165">
+    <row r="225" spans="1:9" ht="135">
       <c r="A225" s="30" t="s">
         <v>248</v>
       </c>
@@ -9768,7 +9805,7 @@
       </c>
       <c r="I226" s="32"/>
     </row>
-    <row r="227" spans="1:9" ht="45">
+    <row r="227" spans="1:9" ht="30">
       <c r="A227" s="30" t="s">
         <v>250</v>
       </c>
@@ -9793,7 +9830,7 @@
       </c>
       <c r="I227" s="32"/>
     </row>
-    <row r="228" spans="1:9" ht="45">
+    <row r="228" spans="1:9" ht="30">
       <c r="A228" s="30" t="s">
         <v>251</v>
       </c>
@@ -9818,7 +9855,7 @@
       </c>
       <c r="I228" s="32"/>
     </row>
-    <row r="229" spans="1:9" ht="30">
+    <row r="229" spans="1:9">
       <c r="A229" s="30" t="s">
         <v>252</v>
       </c>
@@ -9843,7 +9880,7 @@
       </c>
       <c r="I229" s="32"/>
     </row>
-    <row r="230" spans="1:9" ht="120">
+    <row r="230" spans="1:9" ht="105">
       <c r="A230" s="30" t="s">
         <v>253</v>
       </c>
@@ -9893,7 +9930,7 @@
       </c>
       <c r="I231" s="32"/>
     </row>
-    <row r="232" spans="1:9" ht="30">
+    <row r="232" spans="1:9">
       <c r="A232" s="30" t="s">
         <v>255</v>
       </c>
@@ -10118,7 +10155,7 @@
       </c>
       <c r="I240" s="32"/>
     </row>
-    <row r="241" spans="1:9" ht="30">
+    <row r="241" spans="1:9">
       <c r="A241" s="30" t="s">
         <v>264</v>
       </c>
@@ -10143,7 +10180,7 @@
       </c>
       <c r="I241" s="32"/>
     </row>
-    <row r="242" spans="1:9" ht="30">
+    <row r="242" spans="1:9">
       <c r="A242" s="30" t="s">
         <v>265</v>
       </c>
@@ -10218,7 +10255,7 @@
       </c>
       <c r="I244" s="32"/>
     </row>
-    <row r="245" spans="1:9" ht="105">
+    <row r="245" spans="1:9" ht="90">
       <c r="A245" s="30" t="s">
         <v>268</v>
       </c>
@@ -10243,7 +10280,7 @@
       </c>
       <c r="I245" s="32"/>
     </row>
-    <row r="246" spans="1:9" ht="45">
+    <row r="246" spans="1:9" ht="30">
       <c r="A246" s="30" t="s">
         <v>269</v>
       </c>
@@ -10270,7 +10307,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="105">
+    <row r="247" spans="1:9" ht="90">
       <c r="A247" s="30" t="s">
         <v>270</v>
       </c>
@@ -10395,7 +10432,7 @@
       </c>
       <c r="I251" s="32"/>
     </row>
-    <row r="252" spans="1:9" ht="30">
+    <row r="252" spans="1:9">
       <c r="A252" s="30" t="s">
         <v>275</v>
       </c>
@@ -10470,7 +10507,7 @@
       </c>
       <c r="I254" s="32"/>
     </row>
-    <row r="255" spans="1:9" ht="30">
+    <row r="255" spans="1:9">
       <c r="A255" s="30" t="s">
         <v>278</v>
       </c>
@@ -10495,7 +10532,7 @@
       </c>
       <c r="I255" s="32"/>
     </row>
-    <row r="256" spans="1:9" ht="30">
+    <row r="256" spans="1:9">
       <c r="A256" s="30" t="s">
         <v>279</v>
       </c>
@@ -10620,7 +10657,7 @@
       </c>
       <c r="I260" s="32"/>
     </row>
-    <row r="261" spans="1:9" ht="165">
+    <row r="261" spans="1:9" ht="135">
       <c r="A261" s="30" t="s">
         <v>284</v>
       </c>
@@ -10645,7 +10682,7 @@
       </c>
       <c r="I261" s="32"/>
     </row>
-    <row r="262" spans="1:9" ht="30">
+    <row r="262" spans="1:9">
       <c r="A262" s="30" t="s">
         <v>285</v>
       </c>
@@ -10670,7 +10707,7 @@
       </c>
       <c r="I262" s="32"/>
     </row>
-    <row r="263" spans="1:9" ht="45">
+    <row r="263" spans="1:9" ht="30">
       <c r="A263" s="30" t="s">
         <v>286</v>
       </c>
@@ -10697,7 +10734,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="105">
+    <row r="264" spans="1:9" ht="90">
       <c r="A264" s="30" t="s">
         <v>287</v>
       </c>
@@ -10747,7 +10784,7 @@
       </c>
       <c r="I265" s="32"/>
     </row>
-    <row r="266" spans="1:9" ht="75">
+    <row r="266" spans="1:9" ht="60">
       <c r="A266" s="30" t="s">
         <v>289</v>
       </c>
@@ -10847,7 +10884,7 @@
       </c>
       <c r="I269" s="32"/>
     </row>
-    <row r="270" spans="1:9" ht="45">
+    <row r="270" spans="1:9" ht="30">
       <c r="A270" s="30" t="s">
         <v>293</v>
       </c>
@@ -10872,7 +10909,7 @@
       </c>
       <c r="I270" s="32"/>
     </row>
-    <row r="271" spans="1:9" ht="30">
+    <row r="271" spans="1:9">
       <c r="A271" s="30" t="s">
         <v>294</v>
       </c>
@@ -10997,7 +11034,7 @@
       </c>
       <c r="I275" s="32"/>
     </row>
-    <row r="276" spans="1:9" ht="90">
+    <row r="276" spans="1:9" ht="75">
       <c r="A276" s="30" t="s">
         <v>299</v>
       </c>
@@ -11022,7 +11059,7 @@
       </c>
       <c r="I276" s="32"/>
     </row>
-    <row r="277" spans="1:9" ht="165">
+    <row r="277" spans="1:9" ht="150">
       <c r="A277" s="30" t="s">
         <v>300</v>
       </c>
@@ -11097,7 +11134,7 @@
       </c>
       <c r="I279" s="32"/>
     </row>
-    <row r="280" spans="1:9" ht="90">
+    <row r="280" spans="1:9" ht="75">
       <c r="A280" s="30" t="s">
         <v>303</v>
       </c>
@@ -11122,7 +11159,7 @@
       </c>
       <c r="I280" s="32"/>
     </row>
-    <row r="281" spans="1:9" ht="45">
+    <row r="281" spans="1:9" ht="30">
       <c r="A281" s="30" t="s">
         <v>304</v>
       </c>
@@ -11147,7 +11184,7 @@
       </c>
       <c r="I281" s="32"/>
     </row>
-    <row r="282" spans="1:9" ht="75">
+    <row r="282" spans="1:9" ht="60">
       <c r="A282" s="30" t="s">
         <v>305</v>
       </c>
@@ -11299,7 +11336,7 @@
       </c>
       <c r="I287" s="32"/>
     </row>
-    <row r="288" spans="1:9" ht="30">
+    <row r="288" spans="1:9">
       <c r="A288" s="30" t="s">
         <v>311</v>
       </c>
@@ -11349,7 +11386,7 @@
       </c>
       <c r="I289" s="32"/>
     </row>
-    <row r="290" spans="1:9" ht="45">
+    <row r="290" spans="1:9" ht="30">
       <c r="A290" s="30" t="s">
         <v>313</v>
       </c>
@@ -11399,7 +11436,7 @@
       </c>
       <c r="I291" s="32"/>
     </row>
-    <row r="292" spans="1:9" ht="75">
+    <row r="292" spans="1:9" ht="60">
       <c r="A292" s="30" t="s">
         <v>315</v>
       </c>
@@ -11424,7 +11461,7 @@
       </c>
       <c r="I292" s="32"/>
     </row>
-    <row r="293" spans="1:9" ht="165">
+    <row r="293" spans="1:9" ht="135">
       <c r="A293" s="30" t="s">
         <v>316</v>
       </c>
@@ -11449,7 +11486,7 @@
       </c>
       <c r="I293" s="32"/>
     </row>
-    <row r="294" spans="1:9" ht="45">
+    <row r="294" spans="1:9" ht="30">
       <c r="A294" s="30" t="s">
         <v>317</v>
       </c>
@@ -11474,7 +11511,7 @@
       </c>
       <c r="I294" s="32"/>
     </row>
-    <row r="295" spans="1:9" ht="30">
+    <row r="295" spans="1:9">
       <c r="A295" s="30" t="s">
         <v>318</v>
       </c>
@@ -11499,7 +11536,7 @@
       </c>
       <c r="I295" s="32"/>
     </row>
-    <row r="296" spans="1:9" ht="90">
+    <row r="296" spans="1:9" ht="75">
       <c r="A296" s="30" t="s">
         <v>319</v>
       </c>
@@ -11574,7 +11611,7 @@
       </c>
       <c r="I298" s="32"/>
     </row>
-    <row r="299" spans="1:9" ht="60">
+    <row r="299" spans="1:9" ht="45">
       <c r="A299" s="30" t="s">
         <v>322</v>
       </c>
@@ -11599,7 +11636,7 @@
       </c>
       <c r="I299" s="32"/>
     </row>
-    <row r="300" spans="1:9" ht="75">
+    <row r="300" spans="1:9" ht="60">
       <c r="A300" s="30" t="s">
         <v>323</v>
       </c>
@@ -11651,7 +11688,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="75">
+    <row r="302" spans="1:9" ht="60">
       <c r="A302" s="30" t="s">
         <v>325</v>
       </c>
@@ -11676,7 +11713,7 @@
       </c>
       <c r="I302" s="32"/>
     </row>
-    <row r="303" spans="1:9" ht="75">
+    <row r="303" spans="1:9" ht="60">
       <c r="A303" s="30" t="s">
         <v>326</v>
       </c>
@@ -11703,7 +11740,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="90">
+    <row r="304" spans="1:9" ht="75">
       <c r="A304" s="30" t="s">
         <v>327</v>
       </c>
@@ -11730,7 +11767,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="75">
+    <row r="305" spans="1:9" ht="45">
       <c r="A305" s="30" t="s">
         <v>328</v>
       </c>
@@ -11755,7 +11792,7 @@
       </c>
       <c r="I305" s="32"/>
     </row>
-    <row r="306" spans="1:9" ht="105">
+    <row r="306" spans="1:9" ht="90">
       <c r="A306" s="30" t="s">
         <v>329</v>
       </c>
@@ -11780,7 +11817,7 @@
       </c>
       <c r="I306" s="32"/>
     </row>
-    <row r="307" spans="1:9" ht="150">
+    <row r="307" spans="1:9" ht="135">
       <c r="A307" s="30" t="s">
         <v>763</v>
       </c>
@@ -11807,7 +11844,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="150">
+    <row r="308" spans="1:9" ht="135">
       <c r="A308" s="30" t="s">
         <v>764</v>
       </c>
@@ -11834,7 +11871,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="150">
+    <row r="309" spans="1:9" ht="120">
       <c r="A309" s="30" t="s">
         <v>330</v>
       </c>
@@ -11884,7 +11921,7 @@
       </c>
       <c r="I310" s="32"/>
     </row>
-    <row r="311" spans="1:9" ht="75">
+    <row r="311" spans="1:9" ht="60">
       <c r="A311" s="30" t="s">
         <v>332</v>
       </c>
@@ -11909,7 +11946,7 @@
       </c>
       <c r="I311" s="32"/>
     </row>
-    <row r="312" spans="1:9" ht="120">
+    <row r="312" spans="1:9" ht="90">
       <c r="A312" s="30" t="s">
         <v>333</v>
       </c>
@@ -11934,7 +11971,7 @@
       </c>
       <c r="I312" s="32"/>
     </row>
-    <row r="313" spans="1:9" ht="120">
+    <row r="313" spans="1:9" ht="90">
       <c r="A313" s="30" t="s">
         <v>334</v>
       </c>
@@ -11986,7 +12023,7 @@
       </c>
       <c r="I314" s="32"/>
     </row>
-    <row r="315" spans="1:9" ht="90">
+    <row r="315" spans="1:9" ht="75">
       <c r="A315" s="30" t="s">
         <v>336</v>
       </c>
@@ -12011,7 +12048,7 @@
       </c>
       <c r="I315" s="32"/>
     </row>
-    <row r="316" spans="1:9" ht="105">
+    <row r="316" spans="1:9" ht="90">
       <c r="A316" s="30" t="s">
         <v>337</v>
       </c>
@@ -12038,7 +12075,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="90">
+    <row r="317" spans="1:9" ht="75">
       <c r="A317" s="30" t="s">
         <v>338</v>
       </c>
@@ -12065,7 +12102,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="90">
+    <row r="318" spans="1:9" ht="75">
       <c r="A318" s="30" t="s">
         <v>339</v>
       </c>
@@ -12265,7 +12302,7 @@
       </c>
       <c r="I325" s="32"/>
     </row>
-    <row r="326" spans="1:9" ht="45">
+    <row r="326" spans="1:9" ht="30">
       <c r="A326" s="30" t="s">
         <v>347</v>
       </c>
@@ -12290,7 +12327,7 @@
       </c>
       <c r="I326" s="32"/>
     </row>
-    <row r="327" spans="1:9" ht="45">
+    <row r="327" spans="1:9" ht="30">
       <c r="A327" s="30" t="s">
         <v>348</v>
       </c>
@@ -12315,7 +12352,7 @@
       </c>
       <c r="I327" s="32"/>
     </row>
-    <row r="328" spans="1:9" ht="225">
+    <row r="328" spans="1:9" ht="195">
       <c r="A328" s="30" t="s">
         <v>349</v>
       </c>
@@ -12415,7 +12452,7 @@
       </c>
       <c r="I331" s="32"/>
     </row>
-    <row r="332" spans="1:9" ht="30">
+    <row r="332" spans="1:9">
       <c r="A332" s="30" t="s">
         <v>353</v>
       </c>
@@ -12465,7 +12502,7 @@
       </c>
       <c r="I333" s="32"/>
     </row>
-    <row r="334" spans="1:9" ht="30">
+    <row r="334" spans="1:9">
       <c r="A334" s="30" t="s">
         <v>355</v>
       </c>
@@ -12540,7 +12577,7 @@
       </c>
       <c r="I336" s="32"/>
     </row>
-    <row r="337" spans="1:9" ht="150">
+    <row r="337" spans="1:9" ht="135">
       <c r="A337" s="30" t="s">
         <v>358</v>
       </c>
@@ -12565,7 +12602,7 @@
       </c>
       <c r="I337" s="32"/>
     </row>
-    <row r="338" spans="1:9" ht="45">
+    <row r="338" spans="1:9" ht="30">
       <c r="A338" s="30" t="s">
         <v>359</v>
       </c>
@@ -12719,7 +12756,7 @@
       </c>
       <c r="I343" s="32"/>
     </row>
-    <row r="344" spans="1:9" ht="45">
+    <row r="344" spans="1:9" ht="30">
       <c r="A344" s="30" t="s">
         <v>365</v>
       </c>
@@ -12827,7 +12864,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="45">
+    <row r="348" spans="1:9" ht="30">
       <c r="A348" s="30" t="s">
         <v>369</v>
       </c>
@@ -13051,7 +13088,7 @@
       </c>
       <c r="I355" s="32"/>
     </row>
-    <row r="356" spans="1:9" ht="45">
+    <row r="356" spans="1:9" ht="30">
       <c r="A356" s="30" t="s">
         <v>373</v>
       </c>
@@ -13078,7 +13115,7 @@
       </c>
       <c r="I356" s="32"/>
     </row>
-    <row r="357" spans="1:9" ht="45">
+    <row r="357" spans="1:9" ht="30">
       <c r="A357" s="30" t="s">
         <v>374</v>
       </c>
@@ -13213,7 +13250,7 @@
       </c>
       <c r="I361" s="32"/>
     </row>
-    <row r="362" spans="1:9" ht="45">
+    <row r="362" spans="1:9" ht="30">
       <c r="A362" s="30" t="s">
         <v>834</v>
       </c>
@@ -13240,7 +13277,7 @@
       </c>
       <c r="I362" s="32"/>
     </row>
-    <row r="363" spans="1:9" ht="45">
+    <row r="363" spans="1:9" ht="30">
       <c r="A363" s="30" t="s">
         <v>835</v>
       </c>
@@ -13267,7 +13304,7 @@
       </c>
       <c r="I363" s="32"/>
     </row>
-    <row r="364" spans="1:9" ht="75">
+    <row r="364" spans="1:9" ht="60">
       <c r="A364" s="30" t="s">
         <v>377</v>
       </c>
@@ -13296,7 +13333,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="75">
+    <row r="365" spans="1:9" ht="60">
       <c r="A365" s="30" t="s">
         <v>378</v>
       </c>
@@ -13325,7 +13362,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="75">
+    <row r="366" spans="1:9" ht="60">
       <c r="A366" s="30" t="s">
         <v>379</v>
       </c>
@@ -13379,7 +13416,7 @@
       </c>
       <c r="I367" s="32"/>
     </row>
-    <row r="368" spans="1:9" ht="75">
+    <row r="368" spans="1:9" ht="60">
       <c r="A368" s="30" t="s">
         <v>848</v>
       </c>
@@ -13406,7 +13443,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="75">
+    <row r="369" spans="1:9" ht="60">
       <c r="A369" s="30" t="s">
         <v>849</v>
       </c>
@@ -13458,7 +13495,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="75">
+    <row r="371" spans="1:9" ht="60">
       <c r="A371" s="30" t="s">
         <v>857</v>
       </c>
@@ -13483,7 +13520,7 @@
       </c>
       <c r="I371" s="32"/>
     </row>
-    <row r="372" spans="1:9" ht="60">
+    <row r="372" spans="1:9" ht="45">
       <c r="A372" s="30" t="s">
         <v>381</v>
       </c>
@@ -13512,7 +13549,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="75">
+    <row r="373" spans="1:9" ht="60">
       <c r="A373" s="30" t="s">
         <v>382</v>
       </c>
@@ -13541,7 +13578,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="105">
+    <row r="374" spans="1:9" ht="90">
       <c r="A374" s="30" t="s">
         <v>383</v>
       </c>
@@ -13570,7 +13607,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="105">
+    <row r="375" spans="1:9" ht="90">
       <c r="A375" s="30" t="s">
         <v>384</v>
       </c>
@@ -13599,7 +13636,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="90">
+    <row r="376" spans="1:9" ht="75">
       <c r="A376" s="30" t="s">
         <v>385</v>
       </c>
@@ -13790,7 +13827,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B19:B147 B149:B351 B378:B380 B356:B359 B364:B367 B372:B377" numberStoredAsText="1"/>
+    <ignoredError sqref="B19:B355 B378:B380 B356:B371 B372:B377 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/SharePoint/Docs/MS-OFFICIALFILE/MS-OFFICIALFILE_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-OFFICIALFILE/MS-OFFICIALFILE_RequirementSpecification.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SHAREPOINT\SharePoint\Docs\MS-OFFICIALFILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Works\Protocol team\Test Suites\20200429 mapi&amp;SharePoint upgrade\SharePoint\Docs\MS-OFFICIALFILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928928CF-EFBF-43FB-A186-DFF1F9B6D85C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -25,8 +26,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tmpC0A3" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="tmpC0A3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\v-xuesow\AppData\Local\Temp\tmpC0A3.tmp" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -1570,12 +1571,6 @@
     <t>[In Common Message Syntax] This section contains common definitions that are used by this protocol.</t>
   </si>
   <si>
-    <t>[In Common Message Syntax] The syntax of the definitions uses XML schema, as specified in [XMLSCHEMA1] and [XMLSCHEMA2], [and WSDL, as specified in [WSDL] ].</t>
-  </si>
-  <si>
-    <t>[In Common Message Syntax] The syntax of the definitions uses [XML schema, as specified in [XMLSCHEMA1] and [XMLSCHEMA2], and] WSDL, as specified in [WSDL].</t>
-  </si>
-  <si>
     <t>[In Namespaces] This specification defines and references various XML namespaces using the mechanisms specified in [XMLNS].</t>
   </si>
   <si>
@@ -1598,9 +1593,6 @@
   </si>
   <si>
     <t>[In Namespaces] The prefix "wsdl" is used for namespace URI "http://schemas.xmlsoap.org/wsdl/", which refers to "[WSDL]".</t>
-  </si>
-  <si>
-    <t>[In Namespaces] The prefix "xs" is used for namespace URI "http://www.w3.org/2001/XMLSchema", which refers to [XMLSCHEMA1] and [XMLSCHEMA2].</t>
   </si>
   <si>
     <t>[In Complex Types] The following table summarizes the set of common XML schema complex type definitions defined by this specification.</t>
@@ -3053,10 +3045,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MS-OFFICIALFILE_R204</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3182,13 +3170,29 @@
   </si>
   <si>
     <t>[In SubmitFile] [The protocol client sends a SubmitFileSoapIn request WSDL message, and the protocol server MUST respond with a SubmitFileSoapOut response WSDL message, as follows:] [If the protocol server determines that the storage location determined by the rules has required properties that are not present in the properties element: 1. If the protocol server determines that the name of the user specified in the userName element is invalid using an implementation-specific validation algorithm, then the protocol server MUST set the ResultCode element to InvalidUser and return.] 2. Otherwise, the protocol server MUST set[the ResultCode element to MoreInformation and] the ResultUrl element to an implementation-specific URL to enter more information about the submission.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Common Message Syntax] The syntax of the definitions uses XML schema, as specified in [XMLSCHEMA1/2] and [XMLSCHEMA2/2], [and WSDL, as specified in [WSDL] ].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Common Message Syntax] The syntax of the definitions uses [XML schema, as specified in [XMLSCHEMA1/2] and [XMLSCHEMA2/2], and] WSDL, as specified in [WSDL].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Namespaces] The prefix "xs" is used for namespace URI "http://www.w3.org/2001/XMLSchema", which refers to [XMLSCHEMA1/2] and [XMLSCHEMA2/2].</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.0.0"/>
@@ -3455,21 +3459,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3493,6 +3482,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4054,34 +4058,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I381" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I381"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I381" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I381" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4090,12 +4094,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A12:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4421,7 +4425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L383"/>
   <sheetViews>
@@ -4444,7 +4448,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
@@ -4454,7 +4458,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -4468,138 +4472,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>846</v>
+        <v>875</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F3" s="12">
-        <v>42566</v>
+        <v>43374</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4612,12 +4616,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4630,12 +4634,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4648,12 +4652,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4666,60 +4670,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -4802,7 +4806,7 @@
         <v>17</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
@@ -4963,7 +4967,7 @@
         <v>369</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>440</v>
+        <v>876</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -4988,7 +4992,7 @@
         <v>369</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>441</v>
+        <v>877</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
@@ -5013,7 +5017,7 @@
         <v>370</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
@@ -5038,7 +5042,7 @@
         <v>370</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
@@ -5063,7 +5067,7 @@
         <v>370</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
@@ -5088,7 +5092,7 @@
         <v>370</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
@@ -5113,7 +5117,7 @@
         <v>370</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="29" t="s">
@@ -5138,7 +5142,7 @@
         <v>370</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29" t="s">
@@ -5163,7 +5167,7 @@
         <v>370</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29" t="s">
@@ -5188,7 +5192,7 @@
         <v>370</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="29" t="s">
@@ -5212,8 +5216,8 @@
       <c r="B38" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="C38" s="31" t="s">
-        <v>450</v>
+      <c r="C38" s="20" t="s">
+        <v>878</v>
       </c>
       <c r="D38" s="29"/>
       <c r="E38" s="29" t="s">
@@ -5238,7 +5242,7 @@
         <v>371</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="29" t="s">
@@ -5263,7 +5267,7 @@
         <v>371</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="29" t="s">
@@ -5288,7 +5292,7 @@
         <v>371</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29" t="s">
@@ -5313,7 +5317,7 @@
         <v>371</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="29" t="s">
@@ -5338,7 +5342,7 @@
         <v>371</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29" t="s">
@@ -5363,7 +5367,7 @@
         <v>371</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="29" t="s">
@@ -5388,7 +5392,7 @@
         <v>371</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D45" s="29"/>
       <c r="E45" s="29" t="s">
@@ -5413,7 +5417,7 @@
         <v>32</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="29" t="s">
@@ -5438,7 +5442,7 @@
         <v>32</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="29" t="s">
@@ -5463,7 +5467,7 @@
         <v>32</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D48" s="29"/>
       <c r="E48" s="29" t="s">
@@ -5480,7 +5484,7 @@
       </c>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>73</v>
       </c>
@@ -5488,7 +5492,7 @@
         <v>372</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D49" s="29"/>
       <c r="E49" s="29" t="s">
@@ -5513,7 +5517,7 @@
         <v>372</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="29" t="s">
@@ -5538,7 +5542,7 @@
         <v>372</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D51" s="29"/>
       <c r="E51" s="29" t="s">
@@ -5563,7 +5567,7 @@
         <v>373</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D52" s="29"/>
       <c r="E52" s="29" t="s">
@@ -5588,7 +5592,7 @@
         <v>373</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="29" t="s">
@@ -5613,7 +5617,7 @@
         <v>373</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D54" s="29"/>
       <c r="E54" s="29" t="s">
@@ -5638,7 +5642,7 @@
         <v>373</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="29" t="s">
@@ -5663,7 +5667,7 @@
         <v>373</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="29" t="s">
@@ -5688,7 +5692,7 @@
         <v>373</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="29" t="s">
@@ -5713,7 +5717,7 @@
         <v>373</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D58" s="29"/>
       <c r="E58" s="29" t="s">
@@ -5738,7 +5742,7 @@
         <v>373</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="29" t="s">
@@ -5763,7 +5767,7 @@
         <v>373</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="29" t="s">
@@ -5788,7 +5792,7 @@
         <v>373</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D61" s="29"/>
       <c r="E61" s="29" t="s">
@@ -5813,7 +5817,7 @@
         <v>373</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="29" t="s">
@@ -5830,7 +5834,7 @@
       </c>
       <c r="I62" s="31"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>87</v>
       </c>
@@ -5838,7 +5842,7 @@
         <v>373</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29" t="s">
@@ -5863,7 +5867,7 @@
         <v>373</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="29" t="s">
@@ -5888,7 +5892,7 @@
         <v>373</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="29" t="s">
@@ -5913,7 +5917,7 @@
         <v>373</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29" t="s">
@@ -5938,7 +5942,7 @@
         <v>373</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D67" s="29"/>
       <c r="E67" s="29" t="s">
@@ -5963,7 +5967,7 @@
         <v>373</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="29" t="s">
@@ -5988,7 +5992,7 @@
         <v>373</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="29" t="s">
@@ -6013,7 +6017,7 @@
         <v>373</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29" t="s">
@@ -6038,7 +6042,7 @@
         <v>373</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D71" s="29"/>
       <c r="E71" s="29" t="s">
@@ -6063,7 +6067,7 @@
         <v>373</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D72" s="29"/>
       <c r="E72" s="29" t="s">
@@ -6088,7 +6092,7 @@
         <v>373</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D73" s="29"/>
       <c r="E73" s="29" t="s">
@@ -6113,7 +6117,7 @@
         <v>373</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D74" s="29"/>
       <c r="E74" s="29" t="s">
@@ -6138,7 +6142,7 @@
         <v>373</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D75" s="29"/>
       <c r="E75" s="29" t="s">
@@ -6163,7 +6167,7 @@
         <v>373</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="29" t="s">
@@ -6188,7 +6192,7 @@
         <v>373</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D77" s="29"/>
       <c r="E77" s="29" t="s">
@@ -6213,7 +6217,7 @@
         <v>374</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="29" t="s">
@@ -6238,7 +6242,7 @@
         <v>374</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D79" s="29"/>
       <c r="E79" s="29" t="s">
@@ -6263,7 +6267,7 @@
         <v>374</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="29" t="s">
@@ -6288,7 +6292,7 @@
         <v>374</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="29" t="s">
@@ -6313,7 +6317,7 @@
         <v>374</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="29" t="s">
@@ -6338,7 +6342,7 @@
         <v>374</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="29" t="s">
@@ -6363,7 +6367,7 @@
         <v>374</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29" t="s">
@@ -6388,7 +6392,7 @@
         <v>374</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D85" s="29"/>
       <c r="E85" s="29" t="s">
@@ -6413,7 +6417,7 @@
         <v>374</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D86" s="29"/>
       <c r="E86" s="29" t="s">
@@ -6438,7 +6442,7 @@
         <v>374</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="29" t="s">
@@ -6463,7 +6467,7 @@
         <v>374</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="29" t="s">
@@ -6488,7 +6492,7 @@
         <v>374</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="29" t="s">
@@ -6504,7 +6508,7 @@
         <v>17</v>
       </c>
       <c r="I89" s="31" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -6515,7 +6519,7 @@
         <v>374</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="29" t="s">
@@ -6540,7 +6544,7 @@
         <v>375</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="29" t="s">
@@ -6565,7 +6569,7 @@
         <v>375</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="29" t="s">
@@ -6590,7 +6594,7 @@
         <v>375</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="29" t="s">
@@ -6615,7 +6619,7 @@
         <v>375</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="29" t="s">
@@ -6640,7 +6644,7 @@
         <v>375</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D95" s="29"/>
       <c r="E95" s="29" t="s">
@@ -6665,7 +6669,7 @@
         <v>375</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D96" s="29"/>
       <c r="E96" s="29" t="s">
@@ -6690,7 +6694,7 @@
         <v>376</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D97" s="29"/>
       <c r="E97" s="29" t="s">
@@ -6715,7 +6719,7 @@
         <v>376</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D98" s="29"/>
       <c r="E98" s="29" t="s">
@@ -6740,7 +6744,7 @@
         <v>376</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="29" t="s">
@@ -6765,7 +6769,7 @@
         <v>376</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D100" s="29"/>
       <c r="E100" s="29" t="s">
@@ -6790,7 +6794,7 @@
         <v>377</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="29" t="s">
@@ -6815,7 +6819,7 @@
         <v>377</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="29" t="s">
@@ -6840,7 +6844,7 @@
         <v>377</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D103" s="29"/>
       <c r="E103" s="29" t="s">
@@ -6865,7 +6869,7 @@
         <v>377</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="29" t="s">
@@ -6890,7 +6894,7 @@
         <v>377</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D105" s="29"/>
       <c r="E105" s="29" t="s">
@@ -6915,7 +6919,7 @@
         <v>377</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="29" t="s">
@@ -6940,7 +6944,7 @@
         <v>378</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D107" s="29"/>
       <c r="E107" s="29" t="s">
@@ -6965,7 +6969,7 @@
         <v>378</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D108" s="29"/>
       <c r="E108" s="29" t="s">
@@ -6990,7 +6994,7 @@
         <v>378</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D109" s="29"/>
       <c r="E109" s="29" t="s">
@@ -7007,7 +7011,7 @@
       </c>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="29" t="s">
         <v>134</v>
       </c>
@@ -7015,7 +7019,7 @@
         <v>378</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="29" t="s">
@@ -7040,7 +7044,7 @@
         <v>378</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D111" s="29"/>
       <c r="E111" s="29" t="s">
@@ -7065,7 +7069,7 @@
         <v>378</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D112" s="29"/>
       <c r="E112" s="29" t="s">
@@ -7090,7 +7094,7 @@
         <v>378</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D113" s="29"/>
       <c r="E113" s="29" t="s">
@@ -7115,7 +7119,7 @@
         <v>378</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D114" s="29"/>
       <c r="E114" s="29" t="s">
@@ -7140,7 +7144,7 @@
         <v>378</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="29" t="s">
@@ -7165,7 +7169,7 @@
         <v>378</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D116" s="29"/>
       <c r="E116" s="29" t="s">
@@ -7190,7 +7194,7 @@
         <v>378</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="29" t="s">
@@ -7215,7 +7219,7 @@
         <v>379</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D118" s="29"/>
       <c r="E118" s="29" t="s">
@@ -7240,7 +7244,7 @@
         <v>379</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="29" t="s">
@@ -7265,7 +7269,7 @@
         <v>379</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D120" s="29"/>
       <c r="E120" s="29" t="s">
@@ -7290,7 +7294,7 @@
         <v>379</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D121" s="29"/>
       <c r="E121" s="29" t="s">
@@ -7315,7 +7319,7 @@
         <v>379</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D122" s="29"/>
       <c r="E122" s="29" t="s">
@@ -7340,7 +7344,7 @@
         <v>379</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D123" s="29"/>
       <c r="E123" s="29" t="s">
@@ -7357,7 +7361,7 @@
       </c>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
         <v>148</v>
       </c>
@@ -7365,7 +7369,7 @@
         <v>379</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D124" s="29"/>
       <c r="E124" s="29" t="s">
@@ -7390,7 +7394,7 @@
         <v>379</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D125" s="29"/>
       <c r="E125" s="29" t="s">
@@ -7415,7 +7419,7 @@
         <v>379</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D126" s="29"/>
       <c r="E126" s="29" t="s">
@@ -7440,7 +7444,7 @@
         <v>379</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D127" s="29"/>
       <c r="E127" s="29" t="s">
@@ -7465,7 +7469,7 @@
         <v>379</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D128" s="29"/>
       <c r="E128" s="29" t="s">
@@ -7490,7 +7494,7 @@
         <v>380</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D129" s="29"/>
       <c r="E129" s="29" t="s">
@@ -7515,7 +7519,7 @@
         <v>380</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D130" s="29"/>
       <c r="E130" s="29" t="s">
@@ -7540,7 +7544,7 @@
         <v>380</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D131" s="29"/>
       <c r="E131" s="29" t="s">
@@ -7565,7 +7569,7 @@
         <v>380</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D132" s="29"/>
       <c r="E132" s="29" t="s">
@@ -7590,7 +7594,7 @@
         <v>380</v>
       </c>
       <c r="C133" s="31" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D133" s="29"/>
       <c r="E133" s="29" t="s">
@@ -7615,7 +7619,7 @@
         <v>380</v>
       </c>
       <c r="C134" s="31" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D134" s="29"/>
       <c r="E134" s="29" t="s">
@@ -7640,7 +7644,7 @@
         <v>380</v>
       </c>
       <c r="C135" s="31" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D135" s="29"/>
       <c r="E135" s="29" t="s">
@@ -7665,7 +7669,7 @@
         <v>380</v>
       </c>
       <c r="C136" s="31" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D136" s="29"/>
       <c r="E136" s="29" t="s">
@@ -7690,7 +7694,7 @@
         <v>380</v>
       </c>
       <c r="C137" s="31" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D137" s="29"/>
       <c r="E137" s="29" t="s">
@@ -7715,7 +7719,7 @@
         <v>380</v>
       </c>
       <c r="C138" s="31" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D138" s="29"/>
       <c r="E138" s="29" t="s">
@@ -7740,7 +7744,7 @@
         <v>380</v>
       </c>
       <c r="C139" s="31" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D139" s="29"/>
       <c r="E139" s="29" t="s">
@@ -7765,7 +7769,7 @@
         <v>381</v>
       </c>
       <c r="C140" s="31" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D140" s="29"/>
       <c r="E140" s="29" t="s">
@@ -7790,7 +7794,7 @@
         <v>381</v>
       </c>
       <c r="C141" s="31" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D141" s="29"/>
       <c r="E141" s="29" t="s">
@@ -7806,7 +7810,7 @@
         <v>17</v>
       </c>
       <c r="I141" s="31" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7817,7 +7821,7 @@
         <v>381</v>
       </c>
       <c r="C142" s="31" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D142" s="29"/>
       <c r="E142" s="29" t="s">
@@ -7833,7 +7837,7 @@
         <v>17</v>
       </c>
       <c r="I142" s="31" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7844,7 +7848,7 @@
         <v>381</v>
       </c>
       <c r="C143" s="31" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29" t="s">
@@ -7860,7 +7864,7 @@
         <v>17</v>
       </c>
       <c r="I143" s="31" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7871,7 +7875,7 @@
         <v>381</v>
       </c>
       <c r="C144" s="31" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D144" s="29"/>
       <c r="E144" s="29" t="s">
@@ -7887,10 +7891,10 @@
         <v>17</v>
       </c>
       <c r="I144" s="31" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="29" t="s">
         <v>169</v>
       </c>
@@ -7898,7 +7902,7 @@
         <v>381</v>
       </c>
       <c r="C145" s="31" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D145" s="29"/>
       <c r="E145" s="29" t="s">
@@ -7917,13 +7921,13 @@
     </row>
     <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="29" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B146" s="30" t="s">
         <v>381</v>
       </c>
       <c r="C146" s="31" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D146" s="29"/>
       <c r="E146" s="29" t="s">
@@ -7942,13 +7946,13 @@
     </row>
     <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="29" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B147" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C147" s="31" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D147" s="29"/>
       <c r="E147" s="29" t="s">
@@ -7961,19 +7965,19 @@
         <v>15</v>
       </c>
       <c r="H147" s="29" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="I147" s="31"/>
     </row>
     <row r="148" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="29" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B148" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D148" s="29"/>
       <c r="E148" s="29" t="s">
@@ -7998,7 +8002,7 @@
         <v>33</v>
       </c>
       <c r="C149" s="31" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D149" s="29"/>
       <c r="E149" s="29" t="s">
@@ -8023,7 +8027,7 @@
         <v>33</v>
       </c>
       <c r="C150" s="31" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D150" s="29"/>
       <c r="E150" s="29" t="s">
@@ -8048,7 +8052,7 @@
         <v>33</v>
       </c>
       <c r="C151" s="31" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D151" s="29"/>
       <c r="E151" s="29" t="s">
@@ -8073,7 +8077,7 @@
         <v>33</v>
       </c>
       <c r="C152" s="31" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D152" s="29"/>
       <c r="E152" s="29" t="s">
@@ -8098,7 +8102,7 @@
         <v>33</v>
       </c>
       <c r="C153" s="31" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D153" s="29"/>
       <c r="E153" s="29" t="s">
@@ -8123,7 +8127,7 @@
         <v>33</v>
       </c>
       <c r="C154" s="31" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D154" s="29"/>
       <c r="E154" s="29" t="s">
@@ -8148,7 +8152,7 @@
         <v>33</v>
       </c>
       <c r="C155" s="31" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D155" s="29"/>
       <c r="E155" s="29" t="s">
@@ -8165,7 +8169,7 @@
       </c>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A156" s="29" t="s">
         <v>177</v>
       </c>
@@ -8173,7 +8177,7 @@
         <v>33</v>
       </c>
       <c r="C156" s="31" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="29" t="s">
@@ -8198,7 +8202,7 @@
         <v>33</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D157" s="29"/>
       <c r="E157" s="29" t="s">
@@ -8223,7 +8227,7 @@
         <v>33</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D158" s="29"/>
       <c r="E158" s="29" t="s">
@@ -8240,7 +8244,7 @@
       </c>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A159" s="29" t="s">
         <v>180</v>
       </c>
@@ -8248,7 +8252,7 @@
         <v>33</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D159" s="29"/>
       <c r="E159" s="29" t="s">
@@ -8273,7 +8277,7 @@
         <v>33</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29" t="s">
@@ -8289,7 +8293,7 @@
         <v>17</v>
       </c>
       <c r="I160" s="31" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -8300,10 +8304,10 @@
         <v>33</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D161" s="29" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E161" s="29" t="s">
         <v>19</v>
@@ -8327,7 +8331,7 @@
         <v>33</v>
       </c>
       <c r="C162" s="31" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="29" t="s">
@@ -8352,7 +8356,7 @@
         <v>33</v>
       </c>
       <c r="C163" s="31" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D163" s="29"/>
       <c r="E163" s="29" t="s">
@@ -8377,7 +8381,7 @@
         <v>33</v>
       </c>
       <c r="C164" s="31" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D164" s="29"/>
       <c r="E164" s="29" t="s">
@@ -8402,7 +8406,7 @@
         <v>33</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="29" t="s">
@@ -8427,7 +8431,7 @@
         <v>33</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D166" s="29"/>
       <c r="E166" s="29" t="s">
@@ -8452,7 +8456,7 @@
         <v>33</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D167" s="29"/>
       <c r="E167" s="29" t="s">
@@ -8477,7 +8481,7 @@
         <v>382</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D168" s="29"/>
       <c r="E168" s="29" t="s">
@@ -8502,7 +8506,7 @@
         <v>382</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D169" s="29"/>
       <c r="E169" s="29" t="s">
@@ -8527,7 +8531,7 @@
         <v>383</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D170" s="29"/>
       <c r="E170" s="29" t="s">
@@ -8552,7 +8556,7 @@
         <v>383</v>
       </c>
       <c r="C171" s="31" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D171" s="29"/>
       <c r="E171" s="29" t="s">
@@ -8577,7 +8581,7 @@
         <v>383</v>
       </c>
       <c r="C172" s="31" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D172" s="29"/>
       <c r="E172" s="29" t="s">
@@ -8602,7 +8606,7 @@
         <v>384</v>
       </c>
       <c r="C173" s="31" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D173" s="29"/>
       <c r="E173" s="29" t="s">
@@ -8627,7 +8631,7 @@
         <v>384</v>
       </c>
       <c r="C174" s="31" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D174" s="29"/>
       <c r="E174" s="29" t="s">
@@ -8652,7 +8656,7 @@
         <v>385</v>
       </c>
       <c r="C175" s="31" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D175" s="29"/>
       <c r="E175" s="29" t="s">
@@ -8677,7 +8681,7 @@
         <v>385</v>
       </c>
       <c r="C176" s="31" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D176" s="29"/>
       <c r="E176" s="29" t="s">
@@ -8694,7 +8698,7 @@
       </c>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A177" s="29" t="s">
         <v>198</v>
       </c>
@@ -8702,7 +8706,7 @@
         <v>386</v>
       </c>
       <c r="C177" s="31" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D177" s="29"/>
       <c r="E177" s="29" t="s">
@@ -8727,7 +8731,7 @@
         <v>386</v>
       </c>
       <c r="C178" s="31" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D178" s="29"/>
       <c r="E178" s="29" t="s">
@@ -8752,7 +8756,7 @@
         <v>386</v>
       </c>
       <c r="C179" s="31" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D179" s="29"/>
       <c r="E179" s="29" t="s">
@@ -8777,7 +8781,7 @@
         <v>386</v>
       </c>
       <c r="C180" s="31" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D180" s="29"/>
       <c r="E180" s="29" t="s">
@@ -8802,7 +8806,7 @@
         <v>387</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D181" s="29"/>
       <c r="E181" s="29" t="s">
@@ -8827,7 +8831,7 @@
         <v>387</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D182" s="29"/>
       <c r="E182" s="29" t="s">
@@ -8852,7 +8856,7 @@
         <v>388</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D183" s="29"/>
       <c r="E183" s="29" t="s">
@@ -8869,7 +8873,7 @@
       </c>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="29" t="s">
         <v>205</v>
       </c>
@@ -8877,7 +8881,7 @@
         <v>389</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D184" s="29"/>
       <c r="E184" s="29" t="s">
@@ -8902,7 +8906,7 @@
         <v>389</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D185" s="29"/>
       <c r="E185" s="29" t="s">
@@ -8927,7 +8931,7 @@
         <v>389</v>
       </c>
       <c r="C186" s="31" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D186" s="29"/>
       <c r="E186" s="29" t="s">
@@ -8944,7 +8948,7 @@
       </c>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="29" t="s">
         <v>208</v>
       </c>
@@ -8952,7 +8956,7 @@
         <v>389</v>
       </c>
       <c r="C187" s="31" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D187" s="29"/>
       <c r="E187" s="29" t="s">
@@ -8977,7 +8981,7 @@
         <v>389</v>
       </c>
       <c r="C188" s="31" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D188" s="29"/>
       <c r="E188" s="29" t="s">
@@ -9002,7 +9006,7 @@
         <v>390</v>
       </c>
       <c r="C189" s="31" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D189" s="29"/>
       <c r="E189" s="29" t="s">
@@ -9027,7 +9031,7 @@
         <v>390</v>
       </c>
       <c r="C190" s="31" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D190" s="29"/>
       <c r="E190" s="29" t="s">
@@ -9052,7 +9056,7 @@
         <v>391</v>
       </c>
       <c r="C191" s="31" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D191" s="29"/>
       <c r="E191" s="29" t="s">
@@ -9077,7 +9081,7 @@
         <v>391</v>
       </c>
       <c r="C192" s="31" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D192" s="29"/>
       <c r="E192" s="29" t="s">
@@ -9102,7 +9106,7 @@
         <v>391</v>
       </c>
       <c r="C193" s="31" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D193" s="29"/>
       <c r="E193" s="29" t="s">
@@ -9127,7 +9131,7 @@
         <v>391</v>
       </c>
       <c r="C194" s="31" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D194" s="29"/>
       <c r="E194" s="29" t="s">
@@ -9152,7 +9156,7 @@
         <v>391</v>
       </c>
       <c r="C195" s="31" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D195" s="29"/>
       <c r="E195" s="29" t="s">
@@ -9177,7 +9181,7 @@
         <v>391</v>
       </c>
       <c r="C196" s="31" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D196" s="29"/>
       <c r="E196" s="29" t="s">
@@ -9202,7 +9206,7 @@
         <v>391</v>
       </c>
       <c r="C197" s="31" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D197" s="29"/>
       <c r="E197" s="29" t="s">
@@ -9227,7 +9231,7 @@
         <v>391</v>
       </c>
       <c r="C198" s="31" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D198" s="29"/>
       <c r="E198" s="29" t="s">
@@ -9252,7 +9256,7 @@
         <v>391</v>
       </c>
       <c r="C199" s="31" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D199" s="29"/>
       <c r="E199" s="29" t="s">
@@ -9277,7 +9281,7 @@
         <v>391</v>
       </c>
       <c r="C200" s="31" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D200" s="29"/>
       <c r="E200" s="29" t="s">
@@ -9302,7 +9306,7 @@
         <v>391</v>
       </c>
       <c r="C201" s="31" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29" t="s">
@@ -9327,7 +9331,7 @@
         <v>391</v>
       </c>
       <c r="C202" s="31" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D202" s="29"/>
       <c r="E202" s="29" t="s">
@@ -9352,7 +9356,7 @@
         <v>391</v>
       </c>
       <c r="C203" s="31" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D203" s="29"/>
       <c r="E203" s="29" t="s">
@@ -9377,7 +9381,7 @@
         <v>392</v>
       </c>
       <c r="C204" s="31" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D204" s="29"/>
       <c r="E204" s="29" t="s">
@@ -9402,7 +9406,7 @@
         <v>392</v>
       </c>
       <c r="C205" s="31" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D205" s="29"/>
       <c r="E205" s="29" t="s">
@@ -9419,7 +9423,7 @@
       </c>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A206" s="29" t="s">
         <v>227</v>
       </c>
@@ -9427,7 +9431,7 @@
         <v>392</v>
       </c>
       <c r="C206" s="31" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D206" s="29"/>
       <c r="E206" s="29" t="s">
@@ -9452,7 +9456,7 @@
         <v>392</v>
       </c>
       <c r="C207" s="31" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D207" s="29"/>
       <c r="E207" s="29" t="s">
@@ -9477,7 +9481,7 @@
         <v>392</v>
       </c>
       <c r="C208" s="31" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D208" s="29"/>
       <c r="E208" s="29" t="s">
@@ -9502,7 +9506,7 @@
         <v>392</v>
       </c>
       <c r="C209" s="31" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D209" s="29"/>
       <c r="E209" s="29" t="s">
@@ -9527,7 +9531,7 @@
         <v>392</v>
       </c>
       <c r="C210" s="31" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D210" s="29"/>
       <c r="E210" s="29" t="s">
@@ -9552,7 +9556,7 @@
         <v>34</v>
       </c>
       <c r="C211" s="31" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D211" s="29"/>
       <c r="E211" s="29" t="s">
@@ -9577,7 +9581,7 @@
         <v>34</v>
       </c>
       <c r="C212" s="31" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D212" s="29"/>
       <c r="E212" s="29" t="s">
@@ -9602,7 +9606,7 @@
         <v>34</v>
       </c>
       <c r="C213" s="31" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D213" s="29"/>
       <c r="E213" s="29" t="s">
@@ -9627,7 +9631,7 @@
         <v>34</v>
       </c>
       <c r="C214" s="31" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D214" s="29"/>
       <c r="E214" s="29" t="s">
@@ -9652,7 +9656,7 @@
         <v>393</v>
       </c>
       <c r="C215" s="31" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D215" s="29"/>
       <c r="E215" s="29" t="s">
@@ -9677,7 +9681,7 @@
         <v>393</v>
       </c>
       <c r="C216" s="31" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D216" s="29"/>
       <c r="E216" s="29" t="s">
@@ -9702,7 +9706,7 @@
         <v>394</v>
       </c>
       <c r="C217" s="31" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D217" s="29"/>
       <c r="E217" s="29" t="s">
@@ -9727,7 +9731,7 @@
         <v>394</v>
       </c>
       <c r="C218" s="31" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D218" s="29"/>
       <c r="E218" s="29" t="s">
@@ -9752,7 +9756,7 @@
         <v>394</v>
       </c>
       <c r="C219" s="31" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D219" s="29"/>
       <c r="E219" s="29" t="s">
@@ -9777,7 +9781,7 @@
         <v>395</v>
       </c>
       <c r="C220" s="31" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D220" s="29"/>
       <c r="E220" s="29" t="s">
@@ -9802,7 +9806,7 @@
         <v>395</v>
       </c>
       <c r="C221" s="31" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D221" s="29"/>
       <c r="E221" s="29" t="s">
@@ -9827,7 +9831,7 @@
         <v>396</v>
       </c>
       <c r="C222" s="31" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D222" s="29"/>
       <c r="E222" s="29" t="s">
@@ -9844,7 +9848,7 @@
       </c>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A223" s="29" t="s">
         <v>244</v>
       </c>
@@ -9852,7 +9856,7 @@
         <v>396</v>
       </c>
       <c r="C223" s="31" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D223" s="29"/>
       <c r="E223" s="29" t="s">
@@ -9877,7 +9881,7 @@
         <v>397</v>
       </c>
       <c r="C224" s="31" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D224" s="29"/>
       <c r="E224" s="29" t="s">
@@ -9902,7 +9906,7 @@
         <v>398</v>
       </c>
       <c r="C225" s="31" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D225" s="29"/>
       <c r="E225" s="29" t="s">
@@ -9927,7 +9931,7 @@
         <v>398</v>
       </c>
       <c r="C226" s="31" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D226" s="29"/>
       <c r="E226" s="29" t="s">
@@ -9952,7 +9956,7 @@
         <v>399</v>
       </c>
       <c r="C227" s="31" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D227" s="29"/>
       <c r="E227" s="29" t="s">
@@ -9977,7 +9981,7 @@
         <v>399</v>
       </c>
       <c r="C228" s="31" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D228" s="29"/>
       <c r="E228" s="29" t="s">
@@ -10002,7 +10006,7 @@
         <v>400</v>
       </c>
       <c r="C229" s="31" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D229" s="29"/>
       <c r="E229" s="29" t="s">
@@ -10019,7 +10023,7 @@
       </c>
       <c r="I229" s="31"/>
     </row>
-    <row r="230" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A230" s="29" t="s">
         <v>251</v>
       </c>
@@ -10027,7 +10031,7 @@
         <v>400</v>
       </c>
       <c r="C230" s="31" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D230" s="29"/>
       <c r="E230" s="29" t="s">
@@ -10052,7 +10056,7 @@
         <v>400</v>
       </c>
       <c r="C231" s="31" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D231" s="29"/>
       <c r="E231" s="29" t="s">
@@ -10077,7 +10081,7 @@
         <v>401</v>
       </c>
       <c r="C232" s="31" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D232" s="29"/>
       <c r="E232" s="29" t="s">
@@ -10102,7 +10106,7 @@
         <v>401</v>
       </c>
       <c r="C233" s="31" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D233" s="29"/>
       <c r="E233" s="29" t="s">
@@ -10127,7 +10131,7 @@
         <v>401</v>
       </c>
       <c r="C234" s="31" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D234" s="29"/>
       <c r="E234" s="29" t="s">
@@ -10152,7 +10156,7 @@
         <v>401</v>
       </c>
       <c r="C235" s="31" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D235" s="29"/>
       <c r="E235" s="29" t="s">
@@ -10177,7 +10181,7 @@
         <v>401</v>
       </c>
       <c r="C236" s="31" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D236" s="29"/>
       <c r="E236" s="29" t="s">
@@ -10202,7 +10206,7 @@
         <v>401</v>
       </c>
       <c r="C237" s="31" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D237" s="29"/>
       <c r="E237" s="29" t="s">
@@ -10227,7 +10231,7 @@
         <v>401</v>
       </c>
       <c r="C238" s="31" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D238" s="29"/>
       <c r="E238" s="29" t="s">
@@ -10252,7 +10256,7 @@
         <v>401</v>
       </c>
       <c r="C239" s="31" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D239" s="29"/>
       <c r="E239" s="29" t="s">
@@ -10277,7 +10281,7 @@
         <v>401</v>
       </c>
       <c r="C240" s="31" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D240" s="29"/>
       <c r="E240" s="29" t="s">
@@ -10302,7 +10306,7 @@
         <v>401</v>
       </c>
       <c r="C241" s="31" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D241" s="29"/>
       <c r="E241" s="29" t="s">
@@ -10327,7 +10331,7 @@
         <v>401</v>
       </c>
       <c r="C242" s="31" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D242" s="29"/>
       <c r="E242" s="29" t="s">
@@ -10352,7 +10356,7 @@
         <v>402</v>
       </c>
       <c r="C243" s="31" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D243" s="29"/>
       <c r="E243" s="29" t="s">
@@ -10377,7 +10381,7 @@
         <v>403</v>
       </c>
       <c r="C244" s="31" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D244" s="29"/>
       <c r="E244" s="29" t="s">
@@ -10402,7 +10406,7 @@
         <v>403</v>
       </c>
       <c r="C245" s="31" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D245" s="29"/>
       <c r="E245" s="29" t="s">
@@ -10427,7 +10431,7 @@
         <v>404</v>
       </c>
       <c r="C246" s="31" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D246" s="29"/>
       <c r="E246" s="29" t="s">
@@ -10452,7 +10456,7 @@
         <v>404</v>
       </c>
       <c r="C247" s="31" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D247" s="29"/>
       <c r="E247" s="29" t="s">
@@ -10477,7 +10481,7 @@
         <v>404</v>
       </c>
       <c r="C248" s="31" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D248" s="29"/>
       <c r="E248" s="29" t="s">
@@ -10502,7 +10506,7 @@
         <v>404</v>
       </c>
       <c r="C249" s="31" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D249" s="29"/>
       <c r="E249" s="29" t="s">
@@ -10527,7 +10531,7 @@
         <v>405</v>
       </c>
       <c r="C250" s="31" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D250" s="29"/>
       <c r="E250" s="29" t="s">
@@ -10552,7 +10556,7 @@
         <v>405</v>
       </c>
       <c r="C251" s="31" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D251" s="29"/>
       <c r="E251" s="29" t="s">
@@ -10577,7 +10581,7 @@
         <v>406</v>
       </c>
       <c r="C252" s="31" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D252" s="29"/>
       <c r="E252" s="29" t="s">
@@ -10602,7 +10606,7 @@
         <v>406</v>
       </c>
       <c r="C253" s="31" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D253" s="29"/>
       <c r="E253" s="29" t="s">
@@ -10627,7 +10631,7 @@
         <v>406</v>
       </c>
       <c r="C254" s="31" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D254" s="29"/>
       <c r="E254" s="29" t="s">
@@ -10652,7 +10656,7 @@
         <v>407</v>
       </c>
       <c r="C255" s="31" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D255" s="29"/>
       <c r="E255" s="29" t="s">
@@ -10677,7 +10681,7 @@
         <v>407</v>
       </c>
       <c r="C256" s="31" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D256" s="29"/>
       <c r="E256" s="29" t="s">
@@ -10694,7 +10698,7 @@
       </c>
       <c r="I256" s="31"/>
     </row>
-    <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="29" t="s">
         <v>278</v>
       </c>
@@ -10702,7 +10706,7 @@
         <v>408</v>
       </c>
       <c r="C257" s="31" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D257" s="29"/>
       <c r="E257" s="29" t="s">
@@ -10727,7 +10731,7 @@
         <v>408</v>
       </c>
       <c r="C258" s="31" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D258" s="29"/>
       <c r="E258" s="29" t="s">
@@ -10752,7 +10756,7 @@
         <v>409</v>
       </c>
       <c r="C259" s="31" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D259" s="29"/>
       <c r="E259" s="29" t="s">
@@ -10777,7 +10781,7 @@
         <v>409</v>
       </c>
       <c r="C260" s="31" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D260" s="29"/>
       <c r="E260" s="29" t="s">
@@ -10802,7 +10806,7 @@
         <v>410</v>
       </c>
       <c r="C261" s="31" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D261" s="29"/>
       <c r="E261" s="29" t="s">
@@ -10827,7 +10831,7 @@
         <v>410</v>
       </c>
       <c r="C262" s="31" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D262" s="29"/>
       <c r="E262" s="29" t="s">
@@ -10846,13 +10850,13 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="29" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B263" s="30" t="s">
         <v>411</v>
       </c>
       <c r="C263" s="31" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D263" s="29"/>
       <c r="E263" s="29" t="s">
@@ -10877,7 +10881,7 @@
         <v>411</v>
       </c>
       <c r="C264" s="31" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D264" s="29"/>
       <c r="E264" s="29" t="s">
@@ -10902,7 +10906,7 @@
         <v>411</v>
       </c>
       <c r="C265" s="31" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D265" s="29"/>
       <c r="E265" s="29" t="s">
@@ -10927,7 +10931,7 @@
         <v>411</v>
       </c>
       <c r="C266" s="31" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D266" s="29"/>
       <c r="E266" s="29" t="s">
@@ -10952,7 +10956,7 @@
         <v>412</v>
       </c>
       <c r="C267" s="31" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D267" s="29"/>
       <c r="E267" s="29" t="s">
@@ -10977,7 +10981,7 @@
         <v>412</v>
       </c>
       <c r="C268" s="31" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D268" s="29"/>
       <c r="E268" s="29" t="s">
@@ -11002,7 +11006,7 @@
         <v>413</v>
       </c>
       <c r="C269" s="31" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D269" s="29"/>
       <c r="E269" s="29" t="s">
@@ -11027,7 +11031,7 @@
         <v>413</v>
       </c>
       <c r="C270" s="31" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D270" s="29"/>
       <c r="E270" s="29" t="s">
@@ -11052,7 +11056,7 @@
         <v>413</v>
       </c>
       <c r="C271" s="31" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D271" s="29"/>
       <c r="E271" s="29" t="s">
@@ -11077,7 +11081,7 @@
         <v>414</v>
       </c>
       <c r="C272" s="31" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D272" s="29"/>
       <c r="E272" s="29" t="s">
@@ -11102,7 +11106,7 @@
         <v>414</v>
       </c>
       <c r="C273" s="31" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D273" s="29"/>
       <c r="E273" s="29" t="s">
@@ -11127,7 +11131,7 @@
         <v>415</v>
       </c>
       <c r="C274" s="31" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D274" s="29"/>
       <c r="E274" s="29" t="s">
@@ -11152,7 +11156,7 @@
         <v>415</v>
       </c>
       <c r="C275" s="31" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D275" s="29"/>
       <c r="E275" s="29" t="s">
@@ -11177,7 +11181,7 @@
         <v>416</v>
       </c>
       <c r="C276" s="31" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D276" s="29"/>
       <c r="E276" s="29" t="s">
@@ -11194,7 +11198,7 @@
       </c>
       <c r="I276" s="31"/>
     </row>
-    <row r="277" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A277" s="29" t="s">
         <v>297</v>
       </c>
@@ -11202,7 +11206,7 @@
         <v>417</v>
       </c>
       <c r="C277" s="31" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D277" s="29"/>
       <c r="E277" s="29" t="s">
@@ -11227,7 +11231,7 @@
         <v>417</v>
       </c>
       <c r="C278" s="31" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D278" s="29"/>
       <c r="E278" s="29" t="s">
@@ -11252,7 +11256,7 @@
         <v>418</v>
       </c>
       <c r="C279" s="31" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D279" s="29"/>
       <c r="E279" s="29" t="s">
@@ -11277,7 +11281,7 @@
         <v>418</v>
       </c>
       <c r="C280" s="31" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D280" s="29"/>
       <c r="E280" s="29" t="s">
@@ -11302,7 +11306,7 @@
         <v>418</v>
       </c>
       <c r="C281" s="31" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D281" s="29"/>
       <c r="E281" s="29" t="s">
@@ -11327,7 +11331,7 @@
         <v>418</v>
       </c>
       <c r="C282" s="31" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D282" s="29"/>
       <c r="E282" s="29" t="s">
@@ -11343,7 +11347,7 @@
         <v>17</v>
       </c>
       <c r="I282" s="31" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -11354,7 +11358,7 @@
         <v>419</v>
       </c>
       <c r="C283" s="31" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D283" s="29"/>
       <c r="E283" s="29" t="s">
@@ -11379,7 +11383,7 @@
         <v>419</v>
       </c>
       <c r="C284" s="31" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D284" s="29"/>
       <c r="E284" s="29" t="s">
@@ -11404,7 +11408,7 @@
         <v>420</v>
       </c>
       <c r="C285" s="31" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D285" s="29"/>
       <c r="E285" s="29" t="s">
@@ -11429,7 +11433,7 @@
         <v>420</v>
       </c>
       <c r="C286" s="31" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D286" s="29"/>
       <c r="E286" s="29" t="s">
@@ -11454,7 +11458,7 @@
         <v>420</v>
       </c>
       <c r="C287" s="31" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D287" s="29"/>
       <c r="E287" s="29" t="s">
@@ -11479,7 +11483,7 @@
         <v>421</v>
       </c>
       <c r="C288" s="31" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D288" s="29"/>
       <c r="E288" s="29" t="s">
@@ -11504,7 +11508,7 @@
         <v>421</v>
       </c>
       <c r="C289" s="31" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D289" s="29"/>
       <c r="E289" s="29" t="s">
@@ -11529,7 +11533,7 @@
         <v>422</v>
       </c>
       <c r="C290" s="31" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D290" s="29"/>
       <c r="E290" s="29" t="s">
@@ -11546,7 +11550,7 @@
       </c>
       <c r="I290" s="31"/>
     </row>
-    <row r="291" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" s="29" t="s">
         <v>311</v>
       </c>
@@ -11554,7 +11558,7 @@
         <v>422</v>
       </c>
       <c r="C291" s="31" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D291" s="29"/>
       <c r="E291" s="29" t="s">
@@ -11579,7 +11583,7 @@
         <v>423</v>
       </c>
       <c r="C292" s="31" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D292" s="29"/>
       <c r="E292" s="29" t="s">
@@ -11604,7 +11608,7 @@
         <v>424</v>
       </c>
       <c r="C293" s="31" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D293" s="29"/>
       <c r="E293" s="29" t="s">
@@ -11629,7 +11633,7 @@
         <v>424</v>
       </c>
       <c r="C294" s="31" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D294" s="29"/>
       <c r="E294" s="29" t="s">
@@ -11654,7 +11658,7 @@
         <v>425</v>
       </c>
       <c r="C295" s="31" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D295" s="29"/>
       <c r="E295" s="29" t="s">
@@ -11679,7 +11683,7 @@
         <v>425</v>
       </c>
       <c r="C296" s="31" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D296" s="29"/>
       <c r="E296" s="29" t="s">
@@ -11704,7 +11708,7 @@
         <v>425</v>
       </c>
       <c r="C297" s="31" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D297" s="29"/>
       <c r="E297" s="29" t="s">
@@ -11729,7 +11733,7 @@
         <v>425</v>
       </c>
       <c r="C298" s="31" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D298" s="29"/>
       <c r="E298" s="29" t="s">
@@ -11754,7 +11758,7 @@
         <v>425</v>
       </c>
       <c r="C299" s="31" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D299" s="29"/>
       <c r="E299" s="29" t="s">
@@ -11773,13 +11777,13 @@
     </row>
     <row r="300" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A300" s="22" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B300" s="30" t="s">
         <v>425</v>
       </c>
       <c r="C300" s="31" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D300" s="29"/>
       <c r="E300" s="29" t="s">
@@ -11798,13 +11802,13 @@
     </row>
     <row r="301" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A301" s="22" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B301" s="30" t="s">
         <v>425</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D301" s="29"/>
       <c r="E301" s="29" t="s">
@@ -11817,21 +11821,21 @@
         <v>15</v>
       </c>
       <c r="H301" s="22" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="I301" s="20" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A302" s="22" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B302" s="30" t="s">
         <v>425</v>
       </c>
       <c r="C302" s="31" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D302" s="29"/>
       <c r="E302" s="29" t="s">
@@ -11850,13 +11854,13 @@
     </row>
     <row r="303" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A303" s="22" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B303" s="30" t="s">
         <v>425</v>
       </c>
       <c r="C303" s="31" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D303" s="29"/>
       <c r="E303" s="29" t="s">
@@ -11872,18 +11876,18 @@
         <v>17</v>
       </c>
       <c r="I303" s="31" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A304" s="22" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B304" s="30" t="s">
         <v>425</v>
       </c>
       <c r="C304" s="31" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D304" s="29"/>
       <c r="E304" s="29" t="s">
@@ -11899,18 +11903,18 @@
         <v>17</v>
       </c>
       <c r="I304" s="31" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="22" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B305" s="30" t="s">
         <v>425</v>
       </c>
       <c r="C305" s="31" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D305" s="29"/>
       <c r="E305" s="29" t="s">
@@ -11929,13 +11933,13 @@
     </row>
     <row r="306" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A306" s="22" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B306" s="30" t="s">
         <v>425</v>
       </c>
       <c r="C306" s="31" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D306" s="29"/>
       <c r="E306" s="29" t="s">
@@ -11954,13 +11958,13 @@
     </row>
     <row r="307" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A307" s="22" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B307" s="30" t="s">
         <v>425</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D307" s="29"/>
       <c r="E307" s="29" t="s">
@@ -11973,21 +11977,21 @@
         <v>15</v>
       </c>
       <c r="H307" s="22" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="I307" s="20" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A308" s="22" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B308" s="30" t="s">
         <v>425</v>
       </c>
       <c r="C308" s="20" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D308" s="29"/>
       <c r="E308" s="29" t="s">
@@ -12000,21 +12004,21 @@
         <v>15</v>
       </c>
       <c r="H308" s="22" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="I308" s="20" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A309" s="22" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B309" s="30" t="s">
         <v>425</v>
       </c>
       <c r="C309" s="31" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D309" s="29"/>
       <c r="E309" s="29" t="s">
@@ -12039,7 +12043,7 @@
         <v>425</v>
       </c>
       <c r="C310" s="31" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D310" s="29"/>
       <c r="E310" s="29" t="s">
@@ -12064,7 +12068,7 @@
         <v>425</v>
       </c>
       <c r="C311" s="31" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D311" s="29"/>
       <c r="E311" s="29" t="s">
@@ -12089,7 +12093,7 @@
         <v>425</v>
       </c>
       <c r="C312" s="31" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D312" s="29"/>
       <c r="E312" s="29" t="s">
@@ -12114,7 +12118,7 @@
         <v>425</v>
       </c>
       <c r="C313" s="31" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D313" s="29"/>
       <c r="E313" s="29" t="s">
@@ -12130,7 +12134,7 @@
         <v>17</v>
       </c>
       <c r="I313" s="31" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -12141,7 +12145,7 @@
         <v>425</v>
       </c>
       <c r="C314" s="31" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D314" s="29"/>
       <c r="E314" s="29" t="s">
@@ -12166,7 +12170,7 @@
         <v>425</v>
       </c>
       <c r="C315" s="31" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D315" s="29"/>
       <c r="E315" s="29" t="s">
@@ -12191,7 +12195,7 @@
         <v>425</v>
       </c>
       <c r="C316" s="31" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D316" s="29"/>
       <c r="E316" s="29" t="s">
@@ -12207,18 +12211,18 @@
         <v>17</v>
       </c>
       <c r="I316" s="31" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A317" s="29" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B317" s="30" t="s">
         <v>425</v>
       </c>
       <c r="C317" s="31" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D317" s="29"/>
       <c r="E317" s="29" t="s">
@@ -12234,7 +12238,7 @@
         <v>17</v>
       </c>
       <c r="I317" s="31" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -12245,7 +12249,7 @@
         <v>425</v>
       </c>
       <c r="C318" s="31" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D318" s="29"/>
       <c r="E318" s="29" t="s">
@@ -12270,7 +12274,7 @@
         <v>426</v>
       </c>
       <c r="C319" s="31" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D319" s="29"/>
       <c r="E319" s="29" t="s">
@@ -12295,7 +12299,7 @@
         <v>426</v>
       </c>
       <c r="C320" s="31" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D320" s="29"/>
       <c r="E320" s="29" t="s">
@@ -12320,7 +12324,7 @@
         <v>427</v>
       </c>
       <c r="C321" s="31" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D321" s="29"/>
       <c r="E321" s="29" t="s">
@@ -12345,7 +12349,7 @@
         <v>427</v>
       </c>
       <c r="C322" s="31" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D322" s="29"/>
       <c r="E322" s="29" t="s">
@@ -12370,7 +12374,7 @@
         <v>427</v>
       </c>
       <c r="C323" s="31" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D323" s="29"/>
       <c r="E323" s="29" t="s">
@@ -12395,7 +12399,7 @@
         <v>428</v>
       </c>
       <c r="C324" s="31" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D324" s="29"/>
       <c r="E324" s="29" t="s">
@@ -12420,7 +12424,7 @@
         <v>428</v>
       </c>
       <c r="C325" s="31" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D325" s="29"/>
       <c r="E325" s="29" t="s">
@@ -12445,7 +12449,7 @@
         <v>429</v>
       </c>
       <c r="C326" s="31" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D326" s="29"/>
       <c r="E326" s="29" t="s">
@@ -12470,7 +12474,7 @@
         <v>429</v>
       </c>
       <c r="C327" s="31" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D327" s="29"/>
       <c r="E327" s="29" t="s">
@@ -12495,7 +12499,7 @@
         <v>430</v>
       </c>
       <c r="C328" s="31" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D328" s="29"/>
       <c r="E328" s="29" t="s">
@@ -12520,7 +12524,7 @@
         <v>430</v>
       </c>
       <c r="C329" s="31" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D329" s="29"/>
       <c r="E329" s="29" t="s">
@@ -12545,7 +12549,7 @@
         <v>430</v>
       </c>
       <c r="C330" s="31" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D330" s="29"/>
       <c r="E330" s="29" t="s">
@@ -12570,7 +12574,7 @@
         <v>430</v>
       </c>
       <c r="C331" s="31" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D331" s="29"/>
       <c r="E331" s="29" t="s">
@@ -12595,7 +12599,7 @@
         <v>430</v>
       </c>
       <c r="C332" s="31" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D332" s="29"/>
       <c r="E332" s="29" t="s">
@@ -12620,7 +12624,7 @@
         <v>430</v>
       </c>
       <c r="C333" s="31" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D333" s="29"/>
       <c r="E333" s="29" t="s">
@@ -12645,7 +12649,7 @@
         <v>430</v>
       </c>
       <c r="C334" s="31" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D334" s="29"/>
       <c r="E334" s="29" t="s">
@@ -12670,7 +12674,7 @@
         <v>430</v>
       </c>
       <c r="C335" s="31" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D335" s="29"/>
       <c r="E335" s="29" t="s">
@@ -12687,7 +12691,7 @@
       </c>
       <c r="I335" s="31"/>
     </row>
-    <row r="336" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A336" s="29" t="s">
         <v>345</v>
       </c>
@@ -12695,7 +12699,7 @@
         <v>430</v>
       </c>
       <c r="C336" s="31" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D336" s="29"/>
       <c r="E336" s="29" t="s">
@@ -12720,7 +12724,7 @@
         <v>431</v>
       </c>
       <c r="C337" s="31" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D337" s="29"/>
       <c r="E337" s="29" t="s">
@@ -12745,7 +12749,7 @@
         <v>431</v>
       </c>
       <c r="C338" s="31" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D338" s="29"/>
       <c r="E338" s="29" t="s">
@@ -12770,7 +12774,7 @@
         <v>432</v>
       </c>
       <c r="C339" s="31" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D339" s="29"/>
       <c r="E339" s="29" t="s">
@@ -12795,7 +12799,7 @@
         <v>432</v>
       </c>
       <c r="C340" s="31" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D340" s="29"/>
       <c r="E340" s="29" t="s">
@@ -12820,10 +12824,10 @@
         <v>432</v>
       </c>
       <c r="C341" s="31" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D341" s="29" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E341" s="29" t="s">
         <v>22</v>
@@ -12838,7 +12842,7 @@
         <v>21</v>
       </c>
       <c r="I341" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="342" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -12849,7 +12853,7 @@
         <v>432</v>
       </c>
       <c r="C342" s="31" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D342" s="29"/>
       <c r="E342" s="29" t="s">
@@ -12866,7 +12870,7 @@
       </c>
       <c r="I342" s="31"/>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="29" t="s">
         <v>352</v>
       </c>
@@ -12874,7 +12878,7 @@
         <v>432</v>
       </c>
       <c r="C343" s="31" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D343" s="29"/>
       <c r="E343" s="29" t="s">
@@ -12899,7 +12903,7 @@
         <v>432</v>
       </c>
       <c r="C344" s="31" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D344" s="29"/>
       <c r="E344" s="29" t="s">
@@ -12924,7 +12928,7 @@
         <v>432</v>
       </c>
       <c r="C345" s="31" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D345" s="29"/>
       <c r="E345" s="29" t="s">
@@ -12949,10 +12953,10 @@
         <v>432</v>
       </c>
       <c r="C346" s="31" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D346" s="29" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E346" s="29" t="s">
         <v>22</v>
@@ -12967,21 +12971,21 @@
         <v>20</v>
       </c>
       <c r="I346" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="347" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A347" s="29" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B347" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C347" s="31" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D347" s="29" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E347" s="29" t="s">
         <v>22</v>
@@ -12996,7 +13000,7 @@
         <v>20</v>
       </c>
       <c r="I347" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="348" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -13007,10 +13011,10 @@
         <v>432</v>
       </c>
       <c r="C348" s="31" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D348" s="29" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E348" s="29" t="s">
         <v>22</v>
@@ -13022,22 +13026,22 @@
         <v>15</v>
       </c>
       <c r="H348" s="29" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I348" s="31"/>
     </row>
     <row r="349" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A349" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B349" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C349" s="31" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D349" s="29" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E349" s="29" t="s">
         <v>22</v>
@@ -13052,21 +13056,21 @@
         <v>20</v>
       </c>
       <c r="I349" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="350" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B350" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C350" s="31" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D350" s="29" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E350" s="29" t="s">
         <v>22</v>
@@ -13078,22 +13082,22 @@
         <v>15</v>
       </c>
       <c r="H350" s="29" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I350" s="31"/>
     </row>
     <row r="351" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A351" s="29" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B351" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C351" s="31" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D351" s="29" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E351" s="29" t="s">
         <v>22</v>
@@ -13108,7 +13112,7 @@
         <v>20</v>
       </c>
       <c r="I351" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="352" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -13119,10 +13123,10 @@
         <v>432</v>
       </c>
       <c r="C352" s="31" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D352" s="29" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E352" s="29" t="s">
         <v>22</v>
@@ -13137,21 +13141,21 @@
         <v>20</v>
       </c>
       <c r="I352" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="29" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B353" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C353" s="31" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D353" s="29" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E353" s="29" t="s">
         <v>22</v>
@@ -13163,7 +13167,7 @@
         <v>15</v>
       </c>
       <c r="H353" s="29" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I353" s="31"/>
     </row>
@@ -13175,10 +13179,10 @@
         <v>432</v>
       </c>
       <c r="C354" s="31" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D354" s="29" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E354" s="29" t="s">
         <v>22</v>
@@ -13193,21 +13197,21 @@
         <v>20</v>
       </c>
       <c r="I354" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="29" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B355" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C355" s="31" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D355" s="29" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E355" s="29" t="s">
         <v>22</v>
@@ -13219,22 +13223,22 @@
         <v>15</v>
       </c>
       <c r="H355" s="29" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I355" s="31"/>
     </row>
     <row r="356" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="29" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B356" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C356" s="31" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D356" s="29" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E356" s="29" t="s">
         <v>22</v>
@@ -13246,22 +13250,22 @@
         <v>15</v>
       </c>
       <c r="H356" s="29" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I356" s="31"/>
     </row>
     <row r="357" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="29" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B357" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C357" s="31" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D357" s="29" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E357" s="29" t="s">
         <v>22</v>
@@ -13285,10 +13289,10 @@
         <v>432</v>
       </c>
       <c r="C358" s="31" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D358" s="29" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E358" s="29" t="s">
         <v>22</v>
@@ -13300,7 +13304,7 @@
         <v>15</v>
       </c>
       <c r="H358" s="29" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I358" s="31"/>
     </row>
@@ -13312,10 +13316,10 @@
         <v>432</v>
       </c>
       <c r="C359" s="31" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D359" s="29" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E359" s="29" t="s">
         <v>22</v>
@@ -13333,16 +13337,16 @@
     </row>
     <row r="360" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="29" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B360" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C360" s="31" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D360" s="29" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E360" s="29" t="s">
         <v>22</v>
@@ -13354,22 +13358,22 @@
         <v>15</v>
       </c>
       <c r="H360" s="29" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I360" s="31"/>
     </row>
     <row r="361" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="29" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B361" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C361" s="31" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D361" s="29" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E361" s="29" t="s">
         <v>22</v>
@@ -13381,22 +13385,22 @@
         <v>15</v>
       </c>
       <c r="H361" s="29" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I361" s="31"/>
     </row>
     <row r="362" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="29" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B362" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C362" s="31" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D362" s="29" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E362" s="29" t="s">
         <v>22</v>
@@ -13408,22 +13412,22 @@
         <v>15</v>
       </c>
       <c r="H362" s="29" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I362" s="31"/>
     </row>
     <row r="363" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" s="29" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B363" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C363" s="31" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D363" s="29" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E363" s="29" t="s">
         <v>22</v>
@@ -13435,7 +13439,7 @@
         <v>15</v>
       </c>
       <c r="H363" s="29" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I363" s="31"/>
     </row>
@@ -13447,10 +13451,10 @@
         <v>432</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D364" s="29" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E364" s="29" t="s">
         <v>22</v>
@@ -13465,7 +13469,7 @@
         <v>20</v>
       </c>
       <c r="I364" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="365" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -13476,10 +13480,10 @@
         <v>432</v>
       </c>
       <c r="C365" s="31" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D365" s="29" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E365" s="29" t="s">
         <v>22</v>
@@ -13494,7 +13498,7 @@
         <v>20</v>
       </c>
       <c r="I365" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="366" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -13505,10 +13509,10 @@
         <v>432</v>
       </c>
       <c r="C366" s="31" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D366" s="29" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E366" s="29" t="s">
         <v>22</v>
@@ -13523,7 +13527,7 @@
         <v>20</v>
       </c>
       <c r="I366" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="367" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -13534,7 +13538,7 @@
         <v>432</v>
       </c>
       <c r="C367" s="31" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D367" s="29"/>
       <c r="E367" s="29" t="s">
@@ -13553,16 +13557,16 @@
     </row>
     <row r="368" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A368" s="22" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B368" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C368" s="31" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D368" s="22" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E368" s="29" t="s">
         <v>22</v>
@@ -13577,47 +13581,47 @@
         <v>20</v>
       </c>
       <c r="I368" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="369" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A369" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="B369" s="24" t="s">
+        <v>851</v>
+      </c>
+      <c r="C369" s="20" t="s">
+        <v>857</v>
+      </c>
+      <c r="D369" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="E369" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="F369" s="22" t="s">
         <v>854</v>
       </c>
-      <c r="B369" s="24" t="s">
+      <c r="G369" s="22" t="s">
         <v>855</v>
       </c>
-      <c r="C369" s="20" t="s">
-        <v>861</v>
-      </c>
-      <c r="D369" s="22" t="s">
+      <c r="H369" s="22" t="s">
         <v>856</v>
       </c>
-      <c r="E369" s="22" t="s">
-        <v>857</v>
-      </c>
-      <c r="F369" s="22" t="s">
-        <v>858</v>
-      </c>
-      <c r="G369" s="22" t="s">
-        <v>859</v>
-      </c>
-      <c r="H369" s="22" t="s">
-        <v>860</v>
-      </c>
       <c r="I369" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="370" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A370" s="29" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B370" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C370" s="31" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D370" s="29"/>
       <c r="E370" s="29" t="s">
@@ -13636,16 +13640,16 @@
     </row>
     <row r="371" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A371" s="22" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B371" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C371" s="31" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D371" s="22" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E371" s="29" t="s">
         <v>22</v>
@@ -13660,18 +13664,18 @@
         <v>20</v>
       </c>
       <c r="I371" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="372" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A372" s="29" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B372" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C372" s="31" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D372" s="29"/>
       <c r="E372" s="29" t="s">
@@ -13688,18 +13692,18 @@
       </c>
       <c r="I372" s="31"/>
     </row>
-    <row r="373" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A373" s="22" t="s">
+        <v>867</v>
+      </c>
+      <c r="B373" s="24" t="s">
+        <v>851</v>
+      </c>
+      <c r="C373" s="20" t="s">
         <v>871</v>
       </c>
-      <c r="B373" s="24" t="s">
-        <v>855</v>
-      </c>
-      <c r="C373" s="20" t="s">
-        <v>875</v>
-      </c>
       <c r="D373" s="22" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="E373" s="29" t="s">
         <v>22</v>
@@ -13714,21 +13718,21 @@
         <v>20</v>
       </c>
       <c r="I373" s="31" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A374" s="22" t="s">
+        <v>868</v>
+      </c>
+      <c r="B374" s="24" t="s">
+        <v>851</v>
+      </c>
+      <c r="C374" s="20" t="s">
         <v>872</v>
       </c>
-      <c r="B374" s="24" t="s">
-        <v>855</v>
-      </c>
-      <c r="C374" s="20" t="s">
-        <v>876</v>
-      </c>
       <c r="D374" s="22" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="E374" s="29" t="s">
         <v>22</v>
@@ -13743,7 +13747,7 @@
         <v>20</v>
       </c>
       <c r="I374" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -13754,10 +13758,10 @@
         <v>432</v>
       </c>
       <c r="C375" s="31" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D375" s="29" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E375" s="29" t="s">
         <v>22</v>
@@ -13772,7 +13776,7 @@
         <v>20</v>
       </c>
       <c r="I375" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="376" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -13783,10 +13787,10 @@
         <v>432</v>
       </c>
       <c r="C376" s="31" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D376" s="29" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E376" s="29" t="s">
         <v>22</v>
@@ -13801,21 +13805,21 @@
         <v>20</v>
       </c>
       <c r="I376" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="377" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A377" s="22" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B377" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C377" s="31" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D377" s="29" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E377" s="29" t="s">
         <v>22</v>
@@ -13830,21 +13834,21 @@
         <v>20</v>
       </c>
       <c r="I377" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="378" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A378" s="22" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B378" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C378" s="31" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D378" s="22" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E378" s="29" t="s">
         <v>22</v>
@@ -13859,21 +13863,21 @@
         <v>20</v>
       </c>
       <c r="I378" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="379" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A379" s="29" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B379" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C379" s="31" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D379" s="29" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E379" s="29" t="s">
         <v>22</v>
@@ -13888,21 +13892,21 @@
         <v>20</v>
       </c>
       <c r="I379" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="380" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A380" s="29" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B380" s="30" t="s">
         <v>432</v>
       </c>
       <c r="C380" s="31" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D380" s="29" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E380" s="29" t="s">
         <v>22</v>
@@ -13917,10 +13921,10 @@
         <v>20</v>
       </c>
       <c r="I380" s="31" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A381" s="29" t="s">
         <v>365</v>
       </c>
@@ -13928,7 +13932,7 @@
         <v>432</v>
       </c>
       <c r="C381" s="31" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D381" s="29"/>
       <c r="E381" s="29" t="s">
@@ -13955,6 +13959,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -13962,11 +13971,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:H304 I20:I307 A34:I381">
@@ -14030,20 +14034,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F381">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F381" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E381">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E381" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G381">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G381" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H381">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H381" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14053,7 +14057,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B374:B383 C3 B19:B373" numberStoredAsText="1"/>
+    <ignoredError sqref="B374:B383 B19:B373" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -14063,18 +14067,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14127,6 +14131,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -14136,14 +14148,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
